--- a/src/main/resources/data/Great - Season 04.xlsx
+++ b/src/main/resources/data/Great - Season 04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EBE745-B579-4E37-B66E-E94799A740DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18259726-3F6B-48F3-8EDA-D4E2A2D08653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="821">
   <si>
     <t>Lead</t>
   </si>
@@ -2439,6 +2439,72 @@
   </si>
   <si>
     <t>Maggotsthe2nd</t>
+  </si>
+  <si>
+    <t>jlb16</t>
+  </si>
+  <si>
+    <t>kaletaklt</t>
+  </si>
+  <si>
+    <t>alyshahb</t>
+  </si>
+  <si>
+    <t>VitaminC4G</t>
+  </si>
+  <si>
+    <t>Gareed98</t>
+  </si>
+  <si>
+    <t>Danary631</t>
+  </si>
+  <si>
+    <t>SertN1</t>
+  </si>
+  <si>
+    <t>FlyingBurrito35</t>
+  </si>
+  <si>
+    <t>HurricaneAlice1</t>
+  </si>
+  <si>
+    <t>becos24</t>
+  </si>
+  <si>
+    <t>Zjean</t>
+  </si>
+  <si>
+    <t>VietDo1905</t>
+  </si>
+  <si>
+    <t>Byeolzzzz</t>
+  </si>
+  <si>
+    <t>88yacco88</t>
+  </si>
+  <si>
+    <t>JasonH25</t>
+  </si>
+  <si>
+    <t>Gambit525</t>
+  </si>
+  <si>
+    <t>Harfatum</t>
+  </si>
+  <si>
+    <t>Vladilad</t>
+  </si>
+  <si>
+    <t>Kaicraft1209</t>
+  </si>
+  <si>
+    <t>Sultan84</t>
+  </si>
+  <si>
+    <t>AjaniGM</t>
+  </si>
+  <si>
+    <t>RONUNIVERSE</t>
   </si>
 </sst>
 </file>
@@ -2850,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:F931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D277" sqref="D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7881,235 +7947,504 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>556</v>
+      </c>
       <c r="D252" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E252" s="2">
         <v>8</v>
       </c>
-      <c r="F252" s="9"/>
+      <c r="F252" s="9" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
+      <c r="A253" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>493</v>
+      </c>
       <c r="D253" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E253" s="2">
         <v>8</v>
       </c>
-      <c r="F253" s="9"/>
+      <c r="F253" s="9" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="D254" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E254" s="2">
         <v>8</v>
       </c>
-      <c r="F254" s="9"/>
+      <c r="F254" s="9" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="D255" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E255" s="2">
         <v>8</v>
       </c>
-      <c r="F255" s="9"/>
+      <c r="F255" s="9" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="D256" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E256" s="2">
         <v>8</v>
       </c>
-      <c r="F256" s="9"/>
+      <c r="F256" s="9" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="D257" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E257" s="2">
         <v>8</v>
       </c>
-      <c r="F257" s="9"/>
+      <c r="F257" s="9" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="D258" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E258" s="2">
         <v>8</v>
       </c>
-      <c r="F258" s="9"/>
+      <c r="F258" s="9" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>625</v>
+      </c>
       <c r="D259" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E259" s="2">
         <v>8</v>
       </c>
-      <c r="F259" s="9"/>
+      <c r="F259" s="9" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="D260" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E260" s="2">
         <v>8</v>
       </c>
-      <c r="F260" s="9"/>
+      <c r="F260" s="9" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
+      <c r="A261" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>489</v>
+      </c>
       <c r="D261" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E261" s="2">
         <v>8</v>
       </c>
-      <c r="F261" s="9"/>
+      <c r="F261" s="9" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>516</v>
+      </c>
       <c r="D262" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E262" s="2">
         <v>8</v>
       </c>
-      <c r="F262" s="9"/>
+      <c r="F262" s="9" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="D263" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E263" s="2">
         <v>8</v>
       </c>
-      <c r="F263" s="9"/>
+      <c r="F263" s="9" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>497</v>
+      </c>
       <c r="D264" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E264" s="2">
         <v>8</v>
       </c>
-      <c r="F264" s="9"/>
+      <c r="F264" s="9" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="D265" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E265" s="2">
         <v>8</v>
       </c>
-      <c r="F265" s="9"/>
+      <c r="F265" s="9" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="D266" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E266" s="2">
         <v>8</v>
       </c>
-      <c r="F266" s="9"/>
+      <c r="F266" s="9" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="D267" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E267" s="2">
         <v>8</v>
       </c>
-      <c r="F267" s="9"/>
+      <c r="F267" s="9" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="D268" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E268" s="2">
         <v>8</v>
       </c>
-      <c r="F268" s="9"/>
+      <c r="F268" s="9" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="D269" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E269" s="2">
         <v>8</v>
       </c>
-      <c r="F269" s="9"/>
+      <c r="F269" s="9" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="D270" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E270" s="2">
         <v>8</v>
       </c>
-      <c r="F270" s="9"/>
+      <c r="F270" s="9" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="D271" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E271" s="2">
         <v>8</v>
       </c>
-      <c r="F271" s="9"/>
+      <c r="F271" s="9" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="D272" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E272" s="2">
         <v>8</v>
       </c>
-      <c r="F272" s="9"/>
+      <c r="F272" s="9" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>500</v>
+      </c>
       <c r="D273" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E273" s="2">
         <v>8</v>
       </c>
-      <c r="F273" s="9"/>
+      <c r="F273" s="9" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="D274" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E274" s="2">
         <v>8</v>
       </c>
-      <c r="F274" s="9"/>
+      <c r="F274" s="9" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="D275" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E275" s="2">
         <v>8</v>
       </c>
-      <c r="F275" s="9"/>
+      <c r="F275" s="9" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>765</v>
+      </c>
       <c r="D276" s="9" t="s">
-        <v>192</v>
+        <v>498</v>
       </c>
       <c r="E276" s="2">
         <v>8</v>
       </c>
-      <c r="F276" s="9"/>
+      <c r="F276" s="9" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D277" s="9" t="s">
@@ -10838,7 +11173,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A33:A42 A22:B32 A1:A21 B1:C20 B34:B41 A73 A74:B141 A60 A248:A274 B143:B274 A275:B314 A343:C1048576 B316:B342 A315:A342 C21:C342 A43:B59 A61:B72 A142:A245</xm:sqref>
+          <xm:sqref>A33:A42 A22:B32 A1:A21 B1:C20 B34:B41 A73 A74:B141 A60 A343:C1048576 B316:B342 A315:A342 A142:A245 A43:B59 A61:B72 A248:A274 B143:B274 C21:C342 A275:B314</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10851,7 +11186,7 @@
   <dimension ref="A1:S464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10942,15 +11277,15 @@
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>23.214285714285715</v>
+        <v>22.314049586776861</v>
       </c>
       <c r="E2" s="8">
         <f>COUNTIF(History!A21:C120,A2)</f>
@@ -10978,15 +11313,15 @@
       </c>
       <c r="K2" s="2">
         <f>COUNTIF(History!A260:C359,A2)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" s="2">
         <f>COUNTIF(History!A260:A359,A2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
         <f>L2*100/K2</f>
-        <v>#DIV/0!</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="N2" s="2">
         <f>COUNTIF(History!A360:C399,A2)</f>
@@ -11019,15 +11354,15 @@
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>31.944444444444443</v>
+        <v>32.051282051282051</v>
       </c>
       <c r="E3" s="8">
         <f>COUNTIF(History!A8:C107,A3)</f>
@@ -11055,15 +11390,15 @@
       </c>
       <c r="K3" s="2">
         <f>COUNTIF(History!A203:C302,A3)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <f>COUNTIF(History!A203:A302,A3)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" s="2">
         <f>L3*100/K3</f>
-        <v>25</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="N3" s="2">
         <f>COUNTIF(History!A303:C399,A3)</f>
@@ -11092,74 +11427,74 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>76</v>
+        <v>14.893617021276595</v>
       </c>
       <c r="E4" s="8">
-        <f>COUNTIF(History!A60:C159,A4)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A108:C207,A4)</f>
+        <v>18</v>
       </c>
       <c r="F4" s="8">
-        <f>COUNTIF(History!A60:A159,A4)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A108:A207,A4)</f>
+        <v>4</v>
       </c>
       <c r="G4" s="2">
         <f>F4*100/E4</f>
-        <v>100</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="H4" s="2">
-        <f>COUNTIF(History!A160:C259,A4)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A208:C307,A4)</f>
+        <v>9</v>
       </c>
       <c r="I4" s="2">
-        <f>COUNTIF(History!A160:A259,A4)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A208:A307,A4)</f>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
         <f>I4*100/H4</f>
-        <v>66.666666666666671</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="K4" s="2">
-        <f>COUNTIF(History!A251:C350,A4)</f>
+        <f>COUNTIF(History!A306:C399,A4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f>COUNTIF(History!A251:A350,A4)</f>
+        <f>COUNTIF(History!A306:A399,A4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="2" t="e">
         <f>L4*100/K4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="2">
-        <f>COUNTIF(History!A351:C399,A4)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <f>COUNTIF(History!A351:A399,A4)</f>
-        <v>0</v>
+      <c r="N4" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O4" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A4)</f>
+        <v>#REF!</v>
       </c>
       <c r="P4" s="2" t="e">
         <f>O4*100/N4</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="Q4" s="2">
-        <f>COUNTIF(History!A506:C550,A4)</f>
+        <f>COUNTIF(History!A506:C605,A4)</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f>COUNTIF(History!A506:A550,A4)</f>
+        <f>COUNTIF(History!A506:A605,A4)</f>
         <v>0</v>
       </c>
       <c r="S4" s="2" t="e">
@@ -11169,62 +11504,62 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>60.714285714285715</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="E5" s="8">
-        <f>COUNTIF(History!A24:C123,A5)</f>
-        <v>14</v>
+        <f>COUNTIF(History!A39:C138,A5)</f>
+        <v>16</v>
       </c>
       <c r="F5" s="8">
-        <f>COUNTIF(History!A24:A123,A5)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A39:A138,A5)</f>
+        <v>4</v>
       </c>
       <c r="G5" s="2">
         <f>F5*100/E5</f>
-        <v>57.142857142857146</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2">
-        <f>COUNTIF(History!A124:C223,A5)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A139:C238,A5)</f>
+        <v>13</v>
       </c>
       <c r="I5" s="2">
-        <f>COUNTIF(History!A124:A223,A5)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A139:A238,A5)</f>
+        <v>4</v>
       </c>
       <c r="J5" s="2">
         <f>I5*100/H5</f>
-        <v>63.636363636363633</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="K5" s="2">
-        <f>COUNTIF(History!A217:C316,A5)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A226:C325,A5)</f>
+        <v>5</v>
       </c>
       <c r="L5" s="2">
-        <f>COUNTIF(History!A217:A316,A5)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A226:A325,A5)</f>
+        <v>2</v>
       </c>
       <c r="M5" s="2">
         <f>L5*100/K5</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2">
-        <f>COUNTIF(History!A317:C399,A5)</f>
+        <f>COUNTIF(History!A326:C399,A5)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f>COUNTIF(History!A317:A399,A5)</f>
+        <f>COUNTIF(History!A326:A399,A5)</f>
         <v>0</v>
       </c>
       <c r="P5" s="2" t="e">
@@ -11232,11 +11567,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="2">
-        <f>COUNTIF(History!A506:C516,A5)</f>
+        <f>COUNTIF(History!A506:C525,A5)</f>
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <f>COUNTIF(History!A506:A516,A5)</f>
+        <f>COUNTIF(History!A506:A525,A5)</f>
         <v>0</v>
       </c>
       <c r="S5" s="2" t="e">
@@ -11246,62 +11581,62 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>65.384615384615387</v>
+        <v>10.810810810810811</v>
       </c>
       <c r="E6" s="8">
-        <f>COUNTIF(History!A71:C170,A6)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A2:C101,A6)</f>
+        <v>10</v>
       </c>
       <c r="F6" s="8">
-        <f>COUNTIF(History!A71:A170,A6)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A2:A101,A6)</f>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
         <f>F6*100/E6</f>
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2">
-        <f>COUNTIF(History!A171:C270,A6)</f>
+        <f>COUNTIF(History!A102:C201,A6)</f>
         <v>12</v>
       </c>
       <c r="I6" s="2">
-        <f>COUNTIF(History!A171:A270,A6)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A102:A201,A6)</f>
+        <v>2</v>
       </c>
       <c r="J6" s="2">
         <f>I6*100/H6</f>
-        <v>91.666666666666671</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K6" s="2">
-        <f>COUNTIF(History!A265:C364,A6)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A207:C306,A6)</f>
+        <v>15</v>
       </c>
       <c r="L6" s="2">
-        <f>COUNTIF(History!A265:A364,A6)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="e">
+        <f>COUNTIF(History!A207:A306,A6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <f>L6*100/K6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <f>COUNTIF(History!A365:C399,A6)</f>
+        <f>COUNTIF(History!A307:C399,A6)</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f>COUNTIF(History!A365:A399,A6)</f>
+        <f>COUNTIF(History!A307:A399,A6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="2" t="e">
@@ -11309,11 +11644,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="2">
-        <f>COUNTIF(History!A506:C564,A6)</f>
+        <f>COUNTIF(History!A506:C506,A6)</f>
         <v>0</v>
       </c>
       <c r="R6" s="2">
-        <f>COUNTIF(History!A506:A564,A6)</f>
+        <f>COUNTIF(History!A506:A506,A6)</f>
         <v>0</v>
       </c>
       <c r="S6" s="2" t="e">
@@ -11323,62 +11658,62 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>50</v>
+        <v>67.741935483870961</v>
       </c>
       <c r="E7" s="8">
-        <f>COUNTIF(History!A122:C221,A7)</f>
-        <v>14</v>
+        <f>COUNTIF(History!A71:C170,A7)</f>
+        <v>8</v>
       </c>
       <c r="F7" s="8">
-        <f>COUNTIF(History!A122:A221,A7)</f>
+        <f>COUNTIF(History!A71:A170,A7)</f>
         <v>6</v>
       </c>
       <c r="G7" s="2">
         <f>F7*100/E7</f>
-        <v>42.857142857142854</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2">
-        <f>COUNTIF(History!A222:C321,A7)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A171:C270,A7)</f>
+        <v>17</v>
       </c>
       <c r="I7" s="2">
-        <f>COUNTIF(History!A222:A321,A7)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A171:A270,A7)</f>
+        <v>15</v>
       </c>
       <c r="J7" s="2">
         <f>I7*100/H7</f>
-        <v>100</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="K7" s="2">
-        <f>COUNTIF(History!A320:C399,A7)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A265:C364,A7)</f>
+        <v>3</v>
       </c>
       <c r="L7" s="2">
-        <f>COUNTIF(History!A320:A399,A7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="e">
+        <f>COUNTIF(History!A265:A364,A7)</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
         <f>L7*100/K7</f>
-        <v>#DIV/0!</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="N7" s="2">
-        <f>COUNTIF(History!A506:C519,A7)</f>
+        <f>COUNTIF(History!A365:C399,A7)</f>
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f>COUNTIF(History!A506:A519,A7)</f>
+        <f>COUNTIF(History!A365:A399,A7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="2" t="e">
@@ -11386,11 +11721,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q7" s="2">
-        <f>COUNTIF(History!A520:C619,A7)</f>
+        <f>COUNTIF(History!A506:C564,A7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="2">
-        <f>COUNTIF(History!A520:A619,A7)</f>
+        <f>COUNTIF(History!A506:A564,A7)</f>
         <v>0</v>
       </c>
       <c r="S7" s="2" t="e">
@@ -11400,139 +11735,139 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>52</v>
+        <v>58.620689655172413</v>
       </c>
       <c r="E8" s="8">
-        <f>COUNTIF(History!A7:C106,A8)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A24:C123,A8)</f>
+        <v>14</v>
       </c>
       <c r="F8" s="8">
-        <f>COUNTIF(History!A7:A106,A8)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A24:A123,A8)</f>
+        <v>8</v>
       </c>
       <c r="G8" s="2">
         <f>F8*100/E8</f>
-        <v>33.333333333333336</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="H8" s="2">
-        <f>COUNTIF(History!A108:C207,A8)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A124:C223,A8)</f>
+        <v>11</v>
       </c>
       <c r="I8" s="2">
-        <f>COUNTIF(History!A108:A207,A8)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A124:A223,A8)</f>
+        <v>7</v>
       </c>
       <c r="J8" s="2">
         <f>I8*100/H8</f>
-        <v>40</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="K8" s="2">
-        <f>COUNTIF(History!A205:C304,A8)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A217:C316,A8)</f>
+        <v>2</v>
       </c>
       <c r="L8" s="2">
-        <f>COUNTIF(History!A205:A304,A8)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A217:A316,A8)</f>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <f>L8*100/K8</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <f>COUNTIF(History!A305:C399,A8)</f>
+        <f>COUNTIF(History!A317:C399,A8)</f>
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <f>COUNTIF(History!A305:A399,A8)</f>
+        <f>COUNTIF(History!A317:A399,A8)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2" t="e">
         <f>O8*100/N8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R8" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A8)</f>
-        <v>#REF!</v>
+      <c r="Q8" s="2">
+        <f>COUNTIF(History!A506:C516,A8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <f>COUNTIF(History!A506:A516,A8)</f>
+        <v>0</v>
       </c>
       <c r="S8" s="2" t="e">
         <f>R8*100/Q8</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>30.555555555555557</v>
+        <v>75</v>
       </c>
       <c r="E9" s="8">
-        <f>COUNTIF(History!A39:C138,A9)</f>
-        <v>16</v>
+        <f>COUNTIF(History!A60:C159,A9)</f>
+        <v>9</v>
       </c>
       <c r="F9" s="8">
-        <f>COUNTIF(History!A39:A138,A9)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A60:A159,A9)</f>
+        <v>9</v>
       </c>
       <c r="G9" s="2">
         <f>F9*100/E9</f>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2">
-        <f>COUNTIF(History!A139:C238,A9)</f>
+        <f>COUNTIF(History!A160:C259,A9)</f>
         <v>13</v>
       </c>
       <c r="I9" s="2">
-        <f>COUNTIF(History!A139:A238,A9)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A160:A259,A9)</f>
+        <v>9</v>
       </c>
       <c r="J9" s="2">
         <f>I9*100/H9</f>
-        <v>30.76923076923077</v>
+        <v>69.230769230769226</v>
       </c>
       <c r="K9" s="2">
-        <f>COUNTIF(History!A226:C325,A9)</f>
+        <f>COUNTIF(History!A251:C350,A9)</f>
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <f>COUNTIF(History!A251:A350,A9)</f>
         <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <f>COUNTIF(History!A226:A325,A9)</f>
-        <v>1</v>
       </c>
       <c r="M9" s="2">
         <f>L9*100/K9</f>
-        <v>50</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="N9" s="2">
-        <f>COUNTIF(History!A326:C399,A9)</f>
+        <f>COUNTIF(History!A351:C399,A9)</f>
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <f>COUNTIF(History!A326:A399,A9)</f>
+        <f>COUNTIF(History!A351:A399,A9)</f>
         <v>0</v>
       </c>
       <c r="P9" s="2" t="e">
@@ -11540,11 +11875,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q9" s="2">
-        <f>COUNTIF(History!A506:C525,A9)</f>
+        <f>COUNTIF(History!A506:C550,A9)</f>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f>COUNTIF(History!A506:A525,A9)</f>
+        <f>COUNTIF(History!A506:A550,A9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="2" t="e">
@@ -11554,50 +11889,50 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>52.631578947368418</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8">
-        <f>COUNTIF(History!A74:C173,A10)</f>
+        <f>COUNTIF(History!A122:C221,A10)</f>
+        <v>14</v>
+      </c>
+      <c r="F10" s="8">
+        <f>COUNTIF(History!A122:A221,A10)</f>
         <v>6</v>
-      </c>
-      <c r="F10" s="8">
-        <f>COUNTIF(History!A74:A173,A10)</f>
-        <v>3</v>
       </c>
       <c r="G10" s="2">
         <f>F10*100/E10</f>
-        <v>50</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="H10" s="2">
-        <f>COUNTIF(History!A174:C273,A10)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A222:C321,A10)</f>
+        <v>3</v>
       </c>
       <c r="I10" s="2">
-        <f>COUNTIF(History!A174:A273,A10)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A222:A321,A10)</f>
+        <v>2</v>
       </c>
       <c r="J10" s="2">
         <f>I10*100/H10</f>
-        <v>50</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K10" s="2">
-        <f>COUNTIF(History!A268:C367,A10)</f>
+        <f>COUNTIF(History!A320:C399,A10)</f>
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <f>COUNTIF(History!A268:A367,A10)</f>
+        <f>COUNTIF(History!A320:A399,A10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2" t="e">
@@ -11605,11 +11940,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N10" s="2">
-        <f>COUNTIF(History!A368:C399,A10)</f>
+        <f>COUNTIF(History!A506:C519,A10)</f>
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <f>COUNTIF(History!A368:A399,A10)</f>
+        <f>COUNTIF(History!A506:A519,A10)</f>
         <v>0</v>
       </c>
       <c r="P10" s="2" t="e">
@@ -11617,11 +11952,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q10" s="2">
-        <f>COUNTIF(History!A506:C567,A10)</f>
+        <f>COUNTIF(History!A520:C619,A10)</f>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f>COUNTIF(History!A506:A567,A10)</f>
+        <f>COUNTIF(History!A520:A619,A10)</f>
         <v>0</v>
       </c>
       <c r="S10" s="2" t="e">
@@ -11631,79 +11966,79 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
-        <v>76.92307692307692</v>
+        <v>51.851851851851855</v>
       </c>
       <c r="E11" s="8">
-        <f>COUNTIF(History!A23:C122,A11)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A7:C106,A11)</f>
+        <v>9</v>
       </c>
       <c r="F11" s="8">
-        <f>COUNTIF(History!A23:A122,A11)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A7:A106,A11)</f>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
         <f>F11*100/E11</f>
-        <v>80</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H11" s="2">
-        <f>COUNTIF(History!A123:C222,A11)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A108:C207,A11)</f>
+        <v>10</v>
       </c>
       <c r="I11" s="2">
-        <f>COUNTIF(History!A123:A222,A11)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A108:A207,A11)</f>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
         <f>I11*100/H11</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2">
-        <f>COUNTIF(History!A211:C310,A11)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A205:C304,A11)</f>
+        <v>8</v>
       </c>
       <c r="L11" s="2">
-        <f>COUNTIF(History!A211:A310,A11)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A205:A304,A11)</f>
+        <v>7</v>
       </c>
       <c r="M11" s="2">
         <f>L11*100/K11</f>
-        <v>66.666666666666671</v>
+        <v>87.5</v>
       </c>
       <c r="N11" s="2">
-        <f>COUNTIF(History!A311:C399,A11)</f>
+        <f>COUNTIF(History!A305:C399,A11)</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>COUNTIF(History!A311:A399,A11)</f>
+        <f>COUNTIF(History!A305:A399,A11)</f>
         <v>0</v>
       </c>
       <c r="P11" s="2" t="e">
         <f>O11*100/N11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="2">
-        <f>COUNTIF(History!A506:C510,A11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <f>COUNTIF(History!A506:A510,A11)</f>
-        <v>0</v>
+      <c r="Q11" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A11)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R11" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A11)</f>
+        <v>#REF!</v>
       </c>
       <c r="S11" s="2" t="e">
         <f>R11*100/Q11</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -11712,7 +12047,7 @@
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
@@ -11720,7 +12055,7 @@
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>34.782608695652172</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E12" s="8">
         <f>COUNTIF(History!A11:C110,A12)</f>
@@ -11748,7 +12083,7 @@
       </c>
       <c r="K12" s="2">
         <f>COUNTIF(History!A202:C301,A12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="2">
         <f>COUNTIF(History!A202:A301,A12)</f>
@@ -11756,7 +12091,7 @@
       </c>
       <c r="M12" s="2">
         <f>L12*100/K12</f>
-        <v>33.333333333333336</v>
+        <v>25</v>
       </c>
       <c r="N12" s="2">
         <f>COUNTIF(History!A302:C399,A12)</f>
@@ -11785,62 +12120,62 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <f>C13*100/B13</f>
-        <v>50</v>
+        <v>52.38095238095238</v>
       </c>
       <c r="E13" s="8">
-        <f>COUNTIF(History!A29:C128,A13)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A74:C173,A13)</f>
+        <v>6</v>
       </c>
       <c r="F13" s="8">
-        <f>COUNTIF(History!A29:A128,A13)</f>
+        <f>COUNTIF(History!A74:A173,A13)</f>
         <v>3</v>
       </c>
       <c r="G13" s="2">
         <f>F13*100/E13</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2">
-        <f>COUNTIF(History!A129:C228,A13)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A174:C273,A13)</f>
+        <v>7</v>
       </c>
       <c r="I13" s="2">
-        <f>COUNTIF(History!A129:A228,A13)</f>
+        <f>COUNTIF(History!A174:A273,A13)</f>
         <v>3</v>
       </c>
       <c r="J13" s="2">
         <f>I13*100/H13</f>
-        <v>37.5</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="K13" s="2">
-        <f>COUNTIF(History!A228:C327,A13)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A268:C367,A13)</f>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <f>COUNTIF(History!A228:A327,A13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="e">
+        <f>COUNTIF(History!A268:A367,A13)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
         <f>L13*100/K13</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="N13" s="2">
-        <f>COUNTIF(History!A328:C399,A13)</f>
+        <f>COUNTIF(History!A368:C399,A13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <f>COUNTIF(History!A328:A399,A13)</f>
+        <f>COUNTIF(History!A368:A399,A13)</f>
         <v>0</v>
       </c>
       <c r="P13" s="2" t="e">
@@ -11848,11 +12183,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q13" s="2">
-        <f>COUNTIF(History!A506:C527,A13)</f>
+        <f>COUNTIF(History!A506:C567,A13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f>COUNTIF(History!A506:A527,A13)</f>
+        <f>COUNTIF(History!A506:A567,A13)</f>
         <v>0</v>
       </c>
       <c r="S13" s="2" t="e">
@@ -11862,11 +12197,11 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
@@ -11874,62 +12209,62 @@
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>13.953488372093023</v>
+        <v>31.578947368421051</v>
       </c>
       <c r="E14" s="8">
-        <f>COUNTIF(History!A108:C207,A14)</f>
-        <v>18</v>
+        <f>COUNTIF(History!A32:C131,A14)</f>
+        <v>8</v>
       </c>
       <c r="F14" s="8">
-        <f>COUNTIF(History!A108:A207,A14)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A32:A131,A14)</f>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <f>F14*100/E14</f>
-        <v>22.222222222222221</v>
+        <v>12.5</v>
       </c>
       <c r="H14" s="2">
-        <f>COUNTIF(History!A208:C307,A14)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A132:C231,A14)</f>
+        <v>8</v>
       </c>
       <c r="I14" s="2">
-        <f>COUNTIF(History!A208:A307,A14)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A132:A231,A14)</f>
+        <v>3</v>
       </c>
       <c r="J14" s="2">
         <f>I14*100/H14</f>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="K14" s="2">
-        <f>COUNTIF(History!A306:C399,A14)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A221:C320,A14)</f>
+        <v>2</v>
       </c>
       <c r="L14" s="2">
-        <f>COUNTIF(History!A306:A399,A14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="e">
+        <f>COUNTIF(History!A221:A320,A14)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
         <f>L14*100/K14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A14)</f>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="N14" s="2">
+        <f>COUNTIF(History!A321:C399,A14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <f>COUNTIF(History!A321:A399,A14)</f>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="e">
         <f>O14*100/N14</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="2">
-        <f>COUNTIF(History!A506:C605,A14)</f>
+        <f>COUNTIF(History!A506:C520,A14)</f>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>COUNTIF(History!A506:A605,A14)</f>
+        <f>COUNTIF(History!A506:A520,A14)</f>
         <v>0</v>
       </c>
       <c r="S14" s="2" t="e">
@@ -11939,11 +12274,11 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
@@ -11951,50 +12286,50 @@
       </c>
       <c r="D15" s="2">
         <f>C15*100/B15</f>
-        <v>27.777777777777779</v>
+        <v>26.315789473684209</v>
       </c>
       <c r="E15" s="8">
-        <f>COUNTIF(History!A32:C131,A15)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A91:C190,A15)</f>
+        <v>6</v>
       </c>
       <c r="F15" s="8">
-        <f>COUNTIF(History!A32:A131,A15)</f>
+        <f>COUNTIF(History!A91:A190,A15)</f>
         <v>1</v>
       </c>
       <c r="G15" s="2">
         <f>F15*100/E15</f>
-        <v>12.5</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H15" s="2">
-        <f>COUNTIF(History!A132:C231,A15)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A191:C290,A15)</f>
+        <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f>COUNTIF(History!A132:A231,A15)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A191:A290,A15)</f>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
         <f>I15*100/H15</f>
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="K15" s="2">
-        <f>COUNTIF(History!A221:C320,A15)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A288:C387,A15)</f>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f>COUNTIF(History!A221:A320,A15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+        <f>COUNTIF(History!A288:A387,A15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="e">
         <f>L15*100/K15</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N15" s="2">
-        <f>COUNTIF(History!A321:C399,A15)</f>
+        <f>COUNTIF(History!A388:C399,A15)</f>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f>COUNTIF(History!A321:A399,A15)</f>
+        <f>COUNTIF(History!A388:A399,A15)</f>
         <v>0</v>
       </c>
       <c r="P15" s="2" t="e">
@@ -12002,11 +12337,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="2">
-        <f>COUNTIF(History!A506:C520,A15)</f>
+        <f>COUNTIF(History!A506:C587,A15)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>COUNTIF(History!A506:A520,A15)</f>
+        <f>COUNTIF(History!A506:A587,A15)</f>
         <v>0</v>
       </c>
       <c r="S15" s="2" t="e">
@@ -12016,62 +12351,62 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>33.333333333333336</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="E16" s="8">
-        <f>COUNTIF(History!A52:C151,A16)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A16:C115,A16)</f>
+        <v>7</v>
       </c>
       <c r="F16" s="8">
-        <f>COUNTIF(History!A52:A151,A16)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A16:A115,A16)</f>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <f>F16*100/E16</f>
-        <v>0</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="H16" s="2">
-        <f>COUNTIF(History!A152:C251,A16)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A110:C209,A16)</f>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
-        <f>COUNTIF(History!A152:A251,A16)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A110:A209,A16)</f>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <f>I16*100/H16</f>
-        <v>71.428571428571431</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <f>COUNTIF(History!A241:C340,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A213:C312,A16)</f>
+        <v>2</v>
       </c>
       <c r="L16" s="2">
-        <f>COUNTIF(History!A241:A340,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A213:A312,A16)</f>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <f>L16*100/K16</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <f>COUNTIF(History!A341:C399,A16)</f>
+        <f>COUNTIF(History!A313:C399,A16)</f>
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f>COUNTIF(History!A341:A399,A16)</f>
+        <f>COUNTIF(History!A313:A399,A16)</f>
         <v>0</v>
       </c>
       <c r="P16" s="2" t="e">
@@ -12079,11 +12414,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" s="2">
-        <f>COUNTIF(History!A506:C540,A16)</f>
+        <f>COUNTIF(History!A506:C512,A16)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>COUNTIF(History!A506:A540,A16)</f>
+        <f>COUNTIF(History!A506:A512,A16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2" t="e">
@@ -12093,139 +12428,127 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2">
         <f>C17*100/B17</f>
-        <v>38.46153846153846</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="E17" s="8">
-        <f>COUNTIF(History!A30:C129,A17)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A403:C502,A17)</f>
+        <v>0</v>
       </c>
       <c r="F17" s="8">
-        <f>COUNTIF(History!A30:A129,A17)</f>
-        <v>3</v>
-      </c>
-      <c r="G17" s="2">
+        <f>COUNTIF(History!A403:A502,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="e">
         <f>F17*100/E17</f>
-        <v>50</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H17" s="2">
-        <f>COUNTIF(History!A130:C229,A17)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A503:C602,A17)</f>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <f>COUNTIF(History!A130:A229,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
+        <f>COUNTIF(History!A503:A602,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="e">
         <f>I17*100/H17</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K17" s="2">
-        <f>COUNTIF(History!A224:C323,A17)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A650:C702,A17)</f>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <f>COUNTIF(History!A224:A323,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+        <f>COUNTIF(History!A650:A702,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="e">
         <f>L17*100/K17</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N17" s="2">
-        <f>COUNTIF(History!A324:C399,A17)</f>
+        <f>COUNTIF(History!A703:C802,A17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f>COUNTIF(History!A324:A399,A17)</f>
+        <f>COUNTIF(History!A703:A802,A17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="2" t="e">
         <f>O17*100/N17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="2">
-        <f>COUNTIF(History!A506:C523,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <f>COUNTIF(History!A506:A523,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="2" t="e">
-        <f>R17*100/Q17</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2">
         <f>C18*100/B18</f>
-        <v>11.764705882352942</v>
+        <v>35.294117647058826</v>
       </c>
       <c r="E18" s="8">
-        <f>COUNTIF(History!A2:C101,A18)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A12:C111,A18)</f>
+        <v>4</v>
       </c>
       <c r="F18" s="8">
-        <f>COUNTIF(History!A2:A101,A18)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A12:A111,A18)</f>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <f>F18*100/E18</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H18" s="2">
-        <f>COUNTIF(History!A102:C201,A18)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A113:C212,A18)</f>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
-        <f>COUNTIF(History!A102:A201,A18)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A113:A212,A18)</f>
+        <v>1</v>
       </c>
       <c r="J18" s="2">
         <f>I18*100/H18</f>
-        <v>16.666666666666668</v>
+        <v>20</v>
       </c>
       <c r="K18" s="2">
-        <f>COUNTIF(History!A207:C306,A18)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A231:C330,A18)</f>
+        <v>8</v>
       </c>
       <c r="L18" s="2">
-        <f>COUNTIF(History!A207:A306,A18)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A231:A330,A18)</f>
+        <v>4</v>
       </c>
       <c r="M18" s="2">
         <f>L18*100/K18</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N18" s="2">
-        <f>COUNTIF(History!A307:C399,A18)</f>
+        <f>COUNTIF(History!A331:C399,A18)</f>
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f>COUNTIF(History!A307:A399,A18)</f>
+        <f>COUNTIF(History!A331:A399,A18)</f>
         <v>0</v>
       </c>
       <c r="P18" s="2" t="e">
@@ -12233,11 +12556,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="2">
-        <f>COUNTIF(History!A506:C506,A18)</f>
+        <f>COUNTIF(History!A506:C530,A18)</f>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>COUNTIF(History!A506:A506,A18)</f>
+        <f>COUNTIF(History!A506:A530,A18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="2" t="e">
@@ -12247,62 +12570,62 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2">
         <f>C19*100/B19</f>
-        <v>23.529411764705884</v>
+        <v>31.25</v>
       </c>
       <c r="E19" s="8">
-        <f>COUNTIF(History!A91:C190,A19)</f>
+        <f>COUNTIF(History!A52:C151,A19)</f>
         <v>6</v>
       </c>
       <c r="F19" s="8">
-        <f>COUNTIF(History!A91:A190,A19)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A52:A151,A19)</f>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <f>F19*100/E19</f>
-        <v>16.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <f>COUNTIF(History!A191:C290,A19)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A152:C251,A19)</f>
+        <v>7</v>
       </c>
       <c r="I19" s="2">
-        <f>COUNTIF(History!A191:A290,A19)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A152:A251,A19)</f>
+        <v>5</v>
       </c>
       <c r="J19" s="2">
         <f>I19*100/H19</f>
-        <v>0</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="K19" s="2">
-        <f>COUNTIF(History!A288:C387,A19)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A241:C340,A19)</f>
+        <v>2</v>
       </c>
       <c r="L19" s="2">
-        <f>COUNTIF(History!A288:A387,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="e">
+        <f>COUNTIF(History!A241:A340,A19)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
         <f>L19*100/K19</f>
-        <v>#DIV/0!</v>
+        <v>50</v>
       </c>
       <c r="N19" s="2">
-        <f>COUNTIF(History!A388:C399,A19)</f>
+        <f>COUNTIF(History!A341:C399,A19)</f>
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f>COUNTIF(History!A388:A399,A19)</f>
+        <f>COUNTIF(History!A341:A399,A19)</f>
         <v>0</v>
       </c>
       <c r="P19" s="2" t="e">
@@ -12310,11 +12633,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" s="2">
-        <f>COUNTIF(History!A506:C587,A19)</f>
+        <f>COUNTIF(History!A506:C540,A19)</f>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f>COUNTIF(History!A506:A587,A19)</f>
+        <f>COUNTIF(History!A506:A540,A19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="2" t="e">
@@ -12324,103 +12647,115 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
         <f>C20*100/B20</f>
-        <v>26.666666666666668</v>
+        <v>18.75</v>
       </c>
       <c r="E20" s="8">
-        <f>COUNTIF(History!A403:C502,A20)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A9:C108,A20)</f>
+        <v>1</v>
       </c>
       <c r="F20" s="8">
-        <f>COUNTIF(History!A403:A502,A20)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="e">
+        <f>COUNTIF(History!A9:A108,A20)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
         <f>F20*100/E20</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2">
-        <f>COUNTIF(History!A503:C602,A20)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A109:C208,A20)</f>
+        <v>8</v>
       </c>
       <c r="I20" s="2">
-        <f>COUNTIF(History!A503:A602,A20)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="e">
+        <f>COUNTIF(History!A109:A208,A20)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
         <f>I20*100/H20</f>
-        <v>#DIV/0!</v>
+        <v>12.5</v>
       </c>
       <c r="K20" s="2">
-        <f>COUNTIF(History!A650:C702,A20)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A204:C303,A20)</f>
+        <v>6</v>
       </c>
       <c r="L20" s="2">
-        <f>COUNTIF(History!A650:A702,A20)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="e">
+        <f>COUNTIF(History!A204:A303,A20)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
         <f>L20*100/K20</f>
-        <v>#DIV/0!</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="N20" s="2">
-        <f>COUNTIF(History!A703:C802,A20)</f>
+        <f>COUNTIF(History!A304:C399,A20)</f>
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f>COUNTIF(History!A703:A802,A20)</f>
+        <f>COUNTIF(History!A304:A399,A20)</f>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="e">
         <f>O20*100/N20</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="Q20" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A20)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R20" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A20)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S20" s="2" t="e">
+        <f>R20*100/Q20</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
         <f>C21*100/B21</f>
-        <v>16.666666666666668</v>
+        <v>6.25</v>
       </c>
       <c r="E21" s="8">
-        <f>COUNTIF(History!A16:C115,A21)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A80:C179,A21)</f>
+        <v>6</v>
       </c>
       <c r="F21" s="8">
-        <f>COUNTIF(History!A16:A115,A21)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A80:A179,A21)</f>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <f>F21*100/E21</f>
-        <v>28.571428571428573</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H21" s="2">
-        <f>COUNTIF(History!A110:C209,A21)</f>
+        <f>COUNTIF(History!A180:C279,A21)</f>
         <v>8</v>
       </c>
       <c r="I21" s="2">
-        <f>COUNTIF(History!A110:A209,A21)</f>
+        <f>COUNTIF(History!A180:A279,A21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="2">
@@ -12428,23 +12763,23 @@
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <f>COUNTIF(History!A213:C312,A21)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A275:C374,A21)</f>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <f>COUNTIF(History!A213:A312,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+        <f>COUNTIF(History!A275:A374,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="e">
         <f>L21*100/K21</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N21" s="2">
-        <f>COUNTIF(History!A313:C399,A21)</f>
+        <f>COUNTIF(History!A375:C399,A21)</f>
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f>COUNTIF(History!A313:A399,A21)</f>
+        <f>COUNTIF(History!A375:A399,A21)</f>
         <v>0</v>
       </c>
       <c r="P21" s="2" t="e">
@@ -12452,11 +12787,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="2">
-        <f>COUNTIF(History!A506:C512,A21)</f>
+        <f>COUNTIF(History!A506:C574,A21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>COUNTIF(History!A506:A512,A21)</f>
+        <f>COUNTIF(History!A506:A574,A21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="2" t="e">
@@ -12466,7 +12801,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
@@ -12474,119 +12809,119 @@
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
         <f>C22*100/B22</f>
-        <v>20</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="E22" s="8">
-        <f>COUNTIF(History!A9:C108,A22)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A29:C128,A22)</f>
+        <v>5</v>
       </c>
       <c r="F22" s="8">
-        <f>COUNTIF(History!A9:A108,A22)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A29:A128,A22)</f>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
         <f>F22*100/E22</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H22" s="2">
-        <f>COUNTIF(History!A109:C208,A22)</f>
+        <f>COUNTIF(History!A129:C228,A22)</f>
         <v>8</v>
       </c>
       <c r="I22" s="2">
-        <f>COUNTIF(History!A109:A208,A22)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A129:A228,A22)</f>
+        <v>3</v>
       </c>
       <c r="J22" s="2">
         <f>I22*100/H22</f>
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
       <c r="K22" s="2">
-        <f>COUNTIF(History!A204:C303,A22)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A228:C327,A22)</f>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <f>COUNTIF(History!A204:A303,A22)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A228:A327,A22)</f>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <f>L22*100/K22</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
-        <f>COUNTIF(History!A304:C399,A22)</f>
+        <f>COUNTIF(History!A328:C399,A22)</f>
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f>COUNTIF(History!A304:A399,A22)</f>
+        <f>COUNTIF(History!A328:A399,A22)</f>
         <v>0</v>
       </c>
       <c r="P22" s="2" t="e">
         <f>O22*100/N22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q22" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R22" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A22)</f>
-        <v>#REF!</v>
+      <c r="Q22" s="2">
+        <f>COUNTIF(History!A506:C527,A22)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <f>COUNTIF(History!A506:A527,A22)</f>
+        <v>0</v>
       </c>
       <c r="S22" s="2" t="e">
         <f>R22*100/Q22</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
         <f>C23*100/B23</f>
-        <v>27.272727272727273</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="E23" s="8">
-        <f>COUNTIF(History!A12:C111,A23)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A30:C129,A23)</f>
+        <v>6</v>
       </c>
       <c r="F23" s="8">
-        <f>COUNTIF(History!A12:A111,A23)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A30:A129,A23)</f>
+        <v>3</v>
       </c>
       <c r="G23" s="2">
         <f>F23*100/E23</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H23" s="2">
-        <f>COUNTIF(History!A113:C212,A23)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A130:C229,A23)</f>
+        <v>2</v>
       </c>
       <c r="I23" s="2">
-        <f>COUNTIF(History!A113:A212,A23)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A130:A229,A23)</f>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
         <f>I23*100/H23</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <f>COUNTIF(History!A231:C330,A23)</f>
+        <f>COUNTIF(History!A224:C323,A23)</f>
         <v>2</v>
       </c>
       <c r="L23" s="2">
-        <f>COUNTIF(History!A231:A330,A23)</f>
+        <f>COUNTIF(History!A224:A323,A23)</f>
         <v>1</v>
       </c>
       <c r="M23" s="2">
@@ -12594,11 +12929,11 @@
         <v>50</v>
       </c>
       <c r="N23" s="2">
-        <f>COUNTIF(History!A331:C399,A23)</f>
+        <f>COUNTIF(History!A324:C399,A23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f>COUNTIF(History!A331:A399,A23)</f>
+        <f>COUNTIF(History!A324:A399,A23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="e">
@@ -12606,11 +12941,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="2">
-        <f>COUNTIF(History!A506:C530,A23)</f>
+        <f>COUNTIF(History!A506:C523,A23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>COUNTIF(History!A506:A530,A23)</f>
+        <f>COUNTIF(History!A506:A523,A23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="2" t="e">
@@ -12620,62 +12955,62 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <f>C24*100/B24</f>
-        <v>60</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="E24" s="8">
-        <f>COUNTIF(History!A17:C116,A24)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A23:C122,A24)</f>
+        <v>5</v>
       </c>
       <c r="F24" s="8">
-        <f>COUNTIF(History!A17:A116,A24)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A23:A122,A24)</f>
+        <v>4</v>
       </c>
       <c r="G24" s="2">
         <f>F24*100/E24</f>
-        <v>66.666666666666671</v>
+        <v>80</v>
       </c>
       <c r="H24" s="2">
-        <f>COUNTIF(History!A119:C218,A24)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A123:C222,A24)</f>
+        <v>2</v>
       </c>
       <c r="I24" s="2">
-        <f>COUNTIF(History!A119:A218,A24)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A123:A222,A24)</f>
+        <v>2</v>
       </c>
       <c r="J24" s="2">
         <f>I24*100/H24</f>
         <v>100</v>
       </c>
       <c r="K24" s="2">
-        <f>COUNTIF(History!A238:C337,A24)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A211:C310,A24)</f>
+        <v>3</v>
       </c>
       <c r="L24" s="2">
-        <f>COUNTIF(History!A238:A337,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="e">
+        <f>COUNTIF(History!A211:A310,A24)</f>
+        <v>2</v>
+      </c>
+      <c r="M24" s="2">
         <f>L24*100/K24</f>
-        <v>#DIV/0!</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="N24" s="2">
-        <f>COUNTIF(History!A338:C399,A24)</f>
+        <f>COUNTIF(History!A311:C399,A24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f>COUNTIF(History!A338:A399,A24)</f>
+        <f>COUNTIF(History!A311:A399,A24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="e">
@@ -12683,11 +13018,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="2">
-        <f>COUNTIF(History!A506:C537,A24)</f>
+        <f>COUNTIF(History!A506:C510,A24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <f>COUNTIF(History!A506:A537,A24)</f>
+        <f>COUNTIF(History!A506:A510,A24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="2" t="e">
@@ -12697,50 +13032,50 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C25" s="8">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2">
         <f>C25*100/B25</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E25" s="8">
-        <f>COUNTIF(History!A132:C231,A25)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A69:C168,A25)</f>
+        <v>4</v>
       </c>
       <c r="F25" s="8">
-        <f>COUNTIF(History!A132:A231,A25)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A69:A168,A25)</f>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
         <f>F25*100/E25</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <f>COUNTIF(History!A232:C331,A25)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A169:C268,A25)</f>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
-        <f>COUNTIF(History!A232:A331,A25)</f>
+        <f>COUNTIF(History!A169:A268,A25)</f>
         <v>1</v>
       </c>
       <c r="J25" s="2">
         <f>I25*100/H25</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2">
-        <f>COUNTIF(History!A330:C399,A25)</f>
+        <f>COUNTIF(History!A263:C362,A25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <f>COUNTIF(History!A330:A399,A25)</f>
+        <f>COUNTIF(History!A263:A362,A25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="e">
@@ -12748,11 +13083,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2">
-        <f>COUNTIF(History!A506:C529,A25)</f>
+        <f>COUNTIF(History!A363:C399,A25)</f>
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f>COUNTIF(History!A506:A529,A25)</f>
+        <f>COUNTIF(History!A363:A399,A25)</f>
         <v>0</v>
       </c>
       <c r="P25" s="2" t="e">
@@ -12760,11 +13095,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="2">
-        <f>COUNTIF(History!A530:C629,A25)</f>
+        <f>COUNTIF(History!A506:C562,A25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>COUNTIF(History!A530:A629,A25)</f>
+        <f>COUNTIF(History!A506:A562,A25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="2" t="e">
@@ -12774,26 +13109,26 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="8">
         <f>COUNTIF(History!A:A,A26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
         <f>C26*100/B26</f>
-        <v>20</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E26" s="8">
-        <f>COUNTIF(History!A69:C168,A26)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A6:C105,A26)</f>
+        <v>2</v>
       </c>
       <c r="F26" s="8">
-        <f>COUNTIF(History!A69:A168,A26)</f>
+        <f>COUNTIF(History!A6:A105,A26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="2">
@@ -12801,35 +13136,35 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTIF(History!A169:C268,A26)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A105:C204,A26)</f>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
-        <f>COUNTIF(History!A169:A268,A26)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A105:A204,A26)</f>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
         <f>I26*100/H26</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
-        <f>COUNTIF(History!A263:C362,A26)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A208:C307,A26)</f>
+        <v>3</v>
       </c>
       <c r="L26" s="2">
-        <f>COUNTIF(History!A263:A362,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="2" t="e">
+        <f>COUNTIF(History!A208:A307,A26)</f>
+        <v>3</v>
+      </c>
+      <c r="M26" s="2">
         <f>L26*100/K26</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="N26" s="2">
-        <f>COUNTIF(History!A363:C399,A26)</f>
+        <f>COUNTIF(History!A308:C399,A26)</f>
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f>COUNTIF(History!A363:A399,A26)</f>
+        <f>COUNTIF(History!A308:A399,A26)</f>
         <v>0</v>
       </c>
       <c r="P26" s="2" t="e">
@@ -12837,11 +13172,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="2">
-        <f>COUNTIF(History!A506:C562,A26)</f>
+        <f>COUNTIF(History!A506:C507,A26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <f>COUNTIF(History!A506:A562,A26)</f>
+        <f>COUNTIF(History!A506:A507,A26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="e">
@@ -12851,38 +13186,38 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2">
         <f>C27*100/B27</f>
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="E27" s="8">
-        <f>COUNTIF(History!A15:C114,A27)</f>
+        <f>COUNTIF(History!A75:C174,A27)</f>
         <v>2</v>
       </c>
       <c r="F27" s="8">
-        <f>COUNTIF(History!A15:A114,A27)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A75:A174,A27)</f>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
         <f>F27*100/E27</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <f>COUNTIF(History!A114:C213,A27)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A175:C274,A27)</f>
+        <v>3</v>
       </c>
       <c r="I27" s="2">
-        <f>COUNTIF(History!A114:A213,A27)</f>
+        <f>COUNTIF(History!A175:A274,A27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="2">
@@ -12890,11 +13225,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="2">
-        <f>COUNTIF(History!A210:C309,A27)</f>
+        <f>COUNTIF(History!A269:C368,A27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>COUNTIF(History!A210:A309,A27)</f>
+        <f>COUNTIF(History!A269:A368,A27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="e">
@@ -12902,11 +13237,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="2">
-        <f>COUNTIF(History!A310:C399,A27)</f>
+        <f>COUNTIF(History!A369:C399,A27)</f>
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f>COUNTIF(History!A310:A399,A27)</f>
+        <f>COUNTIF(History!A369:A399,A27)</f>
         <v>0</v>
       </c>
       <c r="P27" s="2" t="e">
@@ -12914,11 +13249,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="2">
-        <f>COUNTIF(History!A506:C509,A27)</f>
+        <f>COUNTIF(History!A506:C568,A27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <f>COUNTIF(History!A506:A509,A27)</f>
+        <f>COUNTIF(History!A506:A568,A27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="2" t="e">
@@ -12928,50 +13263,50 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28" s="8">
         <f>COUNTIF(History!A:A,A28)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2">
         <f>C28*100/B28</f>
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="E28" s="8">
-        <f>COUNTIF(History!A86:C185,A28)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A113:C212,A28)</f>
+        <v>2</v>
       </c>
       <c r="F28" s="8">
-        <f>COUNTIF(History!A86:A185,A28)</f>
+        <f>COUNTIF(History!A113:A212,A28)</f>
         <v>1</v>
       </c>
       <c r="G28" s="2">
         <f>F28*100/E28</f>
-        <v>33.333333333333336</v>
+        <v>50</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A186:C285,A28)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A213:C312,A28)</f>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
-        <f>COUNTIF(History!A186:A285,A28)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A213:A312,A28)</f>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
         <f>I28*100/H28</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A283:C382,A28)</f>
+        <f>COUNTIF(History!A311:C399,A28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>COUNTIF(History!A283:A382,A28)</f>
+        <f>COUNTIF(History!A311:A399,A28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="e">
@@ -12979,11 +13314,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="2">
-        <f>COUNTIF(History!A383:C399,A28)</f>
+        <f>COUNTIF(History!A506:C510,A28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f>COUNTIF(History!A383:A399,A28)</f>
+        <f>COUNTIF(History!A506:A510,A28)</f>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="e">
@@ -12991,11 +13326,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="2">
-        <f>COUNTIF(History!A506:C582,A28)</f>
+        <f>COUNTIF(History!A511:C610,A28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>COUNTIF(History!A506:A582,A28)</f>
+        <f>COUNTIF(History!A511:A610,A28)</f>
         <v>0</v>
       </c>
       <c r="S28" s="2" t="e">
@@ -13005,50 +13340,50 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C29" s="8">
         <f>COUNTIF(History!A:A,A29)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
         <f>C29*100/B29</f>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="E29" s="8">
-        <f>COUNTIF(History!A44:C143,A29)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A79:C178,A29)</f>
+        <v>5</v>
       </c>
       <c r="F29" s="8">
-        <f>COUNTIF(History!A44:A143,A29)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A79:A178,A29)</f>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
         <f>F29*100/E29</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <f>COUNTIF(History!A144:C243,A29)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A179:C278,A29)</f>
+        <v>3</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIF(History!A144:A243,A29)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="e">
+        <f>COUNTIF(History!A179:A278,A29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
         <f>I29*100/H29</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <f>COUNTIF(History!A237:C336,A29)</f>
+        <f>COUNTIF(History!A274:C373,A29)</f>
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f>COUNTIF(History!A237:A336,A29)</f>
+        <f>COUNTIF(History!A274:A373,A29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="e">
@@ -13056,11 +13391,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="2">
-        <f>COUNTIF(History!A337:C399,A29)</f>
+        <f>COUNTIF(History!A374:C399,A29)</f>
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f>COUNTIF(History!A337:A399,A29)</f>
+        <f>COUNTIF(History!A374:A399,A29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="e">
@@ -13068,11 +13403,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="2">
-        <f>COUNTIF(History!A506:C536,A29)</f>
+        <f>COUNTIF(History!A506:C573,A29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f>COUNTIF(History!A506:A536,A29)</f>
+        <f>COUNTIF(History!A506:A573,A29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="2" t="e">
@@ -13082,50 +13417,50 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30" s="8">
         <f>COUNTIF(History!A:A,A30)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <f>C30*100/B30</f>
         <v>66.666666666666671</v>
       </c>
       <c r="E30" s="8">
-        <f>COUNTIF(History!A14:C113,A30)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A86:C185,A30)</f>
+        <v>3</v>
       </c>
       <c r="F30" s="8">
-        <f>COUNTIF(History!A14:A113,A30)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A86:A185,A30)</f>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
         <f>F30*100/E30</f>
-        <v>100</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H30" s="2">
-        <f>COUNTIF(History!A111:C210,A30)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A186:C285,A30)</f>
+        <v>3</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIF(History!A111:A210,A30)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A186:A285,A30)</f>
+        <v>3</v>
       </c>
       <c r="J30" s="2">
         <f>I30*100/H30</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K30" s="2">
-        <f>COUNTIF(History!A212:C311,A30)</f>
+        <f>COUNTIF(History!A283:C382,A30)</f>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f>COUNTIF(History!A212:A311,A30)</f>
+        <f>COUNTIF(History!A283:A382,A30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="e">
@@ -13133,11 +13468,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="2">
-        <f>COUNTIF(History!A312:C399,A30)</f>
+        <f>COUNTIF(History!A383:C399,A30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f>COUNTIF(History!A312:A399,A30)</f>
+        <f>COUNTIF(History!A383:A399,A30)</f>
         <v>0</v>
       </c>
       <c r="P30" s="2" t="e">
@@ -13145,11 +13480,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="2">
-        <f>COUNTIF(History!A506:C511,A30)</f>
+        <f>COUNTIF(History!A506:C582,A30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f>COUNTIF(History!A506:A511,A30)</f>
+        <f>COUNTIF(History!A506:A582,A30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="2" t="e">
@@ -13159,38 +13494,38 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C31" s="8">
         <f>COUNTIF(History!A:A,A31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2">
         <f>C31*100/B31</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E31" s="8">
-        <f>COUNTIF(History!A5:C104,A31)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A17:C116,A31)</f>
+        <v>3</v>
       </c>
       <c r="F31" s="8">
-        <f>COUNTIF(History!A5:A104,A31)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A17:A116,A31)</f>
+        <v>2</v>
       </c>
       <c r="G31" s="2">
         <f>F31*100/E31</f>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H31" s="2">
-        <f>COUNTIF(History!A106:C205,A31)</f>
+        <f>COUNTIF(History!A119:C218,A31)</f>
         <v>1</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIF(History!A106:A205,A31)</f>
+        <f>COUNTIF(History!A119:A218,A31)</f>
         <v>1</v>
       </c>
       <c r="J31" s="2">
@@ -13198,23 +13533,23 @@
         <v>100</v>
       </c>
       <c r="K31" s="2">
-        <f>COUNTIF(History!A209:C308,A31)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A238:C337,A31)</f>
+        <v>1</v>
       </c>
       <c r="L31" s="2">
-        <f>COUNTIF(History!A209:A308,A31)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="2" t="e">
+        <f>COUNTIF(History!A238:A337,A31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
         <f>L31*100/K31</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <f>COUNTIF(History!A309:C399,A31)</f>
+        <f>COUNTIF(History!A338:C399,A31)</f>
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f>COUNTIF(History!A309:A399,A31)</f>
+        <f>COUNTIF(History!A338:A399,A31)</f>
         <v>0</v>
       </c>
       <c r="P31" s="2" t="e">
@@ -13222,11 +13557,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="2">
-        <f>COUNTIF(History!A506:C508,A31)</f>
+        <f>COUNTIF(History!A506:C537,A31)</f>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f>COUNTIF(History!A506:A508,A31)</f>
+        <f>COUNTIF(History!A506:A537,A31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="2" t="e">
@@ -13236,38 +13571,38 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C32" s="8">
         <f>COUNTIF(History!A:A,A32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2">
         <f>C32*100/B32</f>
-        <v>7.6923076923076925</v>
+        <v>40</v>
       </c>
       <c r="E32" s="8">
-        <f>COUNTIF(History!A80:C179,A32)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A15:C114,A32)</f>
+        <v>2</v>
       </c>
       <c r="F32" s="8">
-        <f>COUNTIF(History!A80:A179,A32)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A15:A114,A32)</f>
+        <v>2</v>
       </c>
       <c r="G32" s="2">
         <f>F32*100/E32</f>
-        <v>16.666666666666668</v>
+        <v>100</v>
       </c>
       <c r="H32" s="2">
-        <f>COUNTIF(History!A180:C279,A32)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A114:C213,A32)</f>
+        <v>1</v>
       </c>
       <c r="I32" s="2">
-        <f>COUNTIF(History!A180:A279,A32)</f>
+        <f>COUNTIF(History!A114:A213,A32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="2">
@@ -13275,23 +13610,23 @@
         <v>0</v>
       </c>
       <c r="K32" s="2">
-        <f>COUNTIF(History!A275:C374,A32)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A210:C309,A32)</f>
+        <v>1</v>
       </c>
       <c r="L32" s="2">
-        <f>COUNTIF(History!A275:A374,A32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="2" t="e">
+        <f>COUNTIF(History!A210:A309,A32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
         <f>L32*100/K32</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
-        <f>COUNTIF(History!A375:C399,A32)</f>
+        <f>COUNTIF(History!A310:C399,A32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f>COUNTIF(History!A375:A399,A32)</f>
+        <f>COUNTIF(History!A310:A399,A32)</f>
         <v>0</v>
       </c>
       <c r="P32" s="2" t="e">
@@ -13299,11 +13634,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="2">
-        <f>COUNTIF(History!A506:C574,A32)</f>
+        <f>COUNTIF(History!A506:C509,A32)</f>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f>COUNTIF(History!A506:A574,A32)</f>
+        <f>COUNTIF(History!A506:A509,A32)</f>
         <v>0</v>
       </c>
       <c r="S32" s="2" t="e">
@@ -13313,50 +13648,50 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" s="8">
         <f>COUNTIF(History!A:A,A33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
         <f>C33*100/B33</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E33" s="8">
-        <f>COUNTIF(History!A75:C174,A33)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A195:C294,A33)</f>
+        <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f>COUNTIF(History!A75:A174,A33)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
+        <f>COUNTIF(History!A195:A294,A33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="e">
         <f>F33*100/E33</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H33" s="2">
-        <f>COUNTIF(History!A175:C274,A33)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A295:C394,A33)</f>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>COUNTIF(History!A175:A274,A33)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
+        <f>COUNTIF(History!A295:A394,A33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="e">
         <f>I33*100/H33</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K33" s="2">
-        <f>COUNTIF(History!A269:C368,A33)</f>
+        <f>COUNTIF(History!A395:C399,A33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>COUNTIF(History!A269:A368,A33)</f>
+        <f>COUNTIF(History!A395:A399,A33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="e">
@@ -13364,11 +13699,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="2">
-        <f>COUNTIF(History!A369:C399,A33)</f>
+        <f>COUNTIF(History!A506:C594,A33)</f>
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f>COUNTIF(History!A369:A399,A33)</f>
+        <f>COUNTIF(History!A506:A594,A33)</f>
         <v>0</v>
       </c>
       <c r="P33" s="2" t="e">
@@ -13376,11 +13711,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="2">
-        <f>COUNTIF(History!A506:C568,A33)</f>
+        <f>COUNTIF(History!A595:C694,A33)</f>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f>COUNTIF(History!A506:A568,A33)</f>
+        <f>COUNTIF(History!A595:A694,A33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="2" t="e">
@@ -13390,50 +13725,50 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C34" s="8">
         <f>COUNTIF(History!A:A,A34)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
         <f>C34*100/B34</f>
-        <v>14.285714285714286</v>
+        <v>0</v>
       </c>
       <c r="E34" s="8">
-        <f>COUNTIF(History!A113:C212,A34)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A33:C132,A34)</f>
+        <v>3</v>
       </c>
       <c r="F34" s="8">
-        <f>COUNTIF(History!A113:A212,A34)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A33:A132,A34)</f>
+        <v>0</v>
       </c>
       <c r="G34" s="2">
         <f>F34*100/E34</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <f>COUNTIF(History!A213:C312,A34)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A133:C232,A34)</f>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>COUNTIF(History!A213:A312,A34)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
+        <f>COUNTIF(History!A133:A232,A34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="e">
         <f>I34*100/H34</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K34" s="2">
-        <f>COUNTIF(History!A311:C399,A34)</f>
+        <f>COUNTIF(History!A223:C322,A34)</f>
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f>COUNTIF(History!A311:A399,A34)</f>
+        <f>COUNTIF(History!A223:A322,A34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="2" t="e">
@@ -13441,11 +13776,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="2">
-        <f>COUNTIF(History!A506:C510,A34)</f>
+        <f>COUNTIF(History!A323:C399,A34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f>COUNTIF(History!A506:A510,A34)</f>
+        <f>COUNTIF(History!A323:A399,A34)</f>
         <v>0</v>
       </c>
       <c r="P34" s="2" t="e">
@@ -13453,11 +13788,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="2">
-        <f>COUNTIF(History!A511:C610,A34)</f>
+        <f>COUNTIF(History!A506:C522,A34)</f>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f>COUNTIF(History!A511:A610,A34)</f>
+        <f>COUNTIF(History!A506:A522,A34)</f>
         <v>0</v>
       </c>
       <c r="S34" s="2" t="e">
@@ -13467,38 +13802,38 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C35" s="8">
         <f>COUNTIF(History!A:A,A35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2">
         <f>C35*100/B35</f>
-        <v>14.285714285714286</v>
+        <v>0</v>
       </c>
       <c r="E35" s="8">
-        <f>COUNTIF(History!A6:C105,A35)</f>
+        <f>COUNTIF(History!A38:C137,A35)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <f>COUNTIF(History!A38:A137,A35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="e">
+        <f>F35*100/E35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="2">
+        <f>COUNTIF(History!A138:C237,A35)</f>
         <v>2</v>
       </c>
-      <c r="F35" s="8">
-        <f>COUNTIF(History!A6:A105,A35)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <f>F35*100/E35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <f>COUNTIF(History!A105:C204,A35)</f>
-        <v>5</v>
-      </c>
       <c r="I35" s="2">
-        <f>COUNTIF(History!A105:A204,A35)</f>
+        <f>COUNTIF(History!A138:A237,A35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2">
@@ -13506,23 +13841,23 @@
         <v>0</v>
       </c>
       <c r="K35" s="2">
-        <f>COUNTIF(History!A208:C307,A35)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A254:C353,A35)</f>
+        <v>2</v>
       </c>
       <c r="L35" s="2">
-        <f>COUNTIF(History!A208:A307,A35)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A254:A353,A35)</f>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
         <f>L35*100/K35</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2">
-        <f>COUNTIF(History!A308:C399,A35)</f>
+        <f>COUNTIF(History!A354:C399,A35)</f>
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f>COUNTIF(History!A308:A399,A35)</f>
+        <f>COUNTIF(History!A354:A399,A35)</f>
         <v>0</v>
       </c>
       <c r="P35" s="2" t="e">
@@ -13530,11 +13865,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="2">
-        <f>COUNTIF(History!A506:C507,A35)</f>
+        <f>COUNTIF(History!A506:C553,A35)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f>COUNTIF(History!A506:A507,A35)</f>
+        <f>COUNTIF(History!A506:A553,A35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="2" t="e">
@@ -13544,7 +13879,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
@@ -13552,18 +13887,18 @@
       </c>
       <c r="C36" s="8">
         <f>COUNTIF(History!A:A,A36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2">
         <f>C36*100/B36</f>
-        <v>33.333333333333336</v>
+        <v>100</v>
       </c>
       <c r="E36" s="8">
-        <f>COUNTIF(History!A134:C233,A36)</f>
+        <f>COUNTIF(History!A132:C231,A36)</f>
         <v>1</v>
       </c>
       <c r="F36" s="8">
-        <f>COUNTIF(History!A134:A233,A36)</f>
+        <f>COUNTIF(History!A132:A231,A36)</f>
         <v>1</v>
       </c>
       <c r="G36" s="2">
@@ -13571,23 +13906,23 @@
         <v>100</v>
       </c>
       <c r="H36" s="2">
-        <f>COUNTIF(History!A234:C333,A36)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A232:C331,A36)</f>
+        <v>1</v>
       </c>
       <c r="I36" s="2">
-        <f>COUNTIF(History!A234:A333,A36)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="e">
+        <f>COUNTIF(History!A232:A331,A36)</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
         <f>I36*100/H36</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="K36" s="2">
-        <f>COUNTIF(History!A332:C399,A36)</f>
+        <f>COUNTIF(History!A330:C399,A36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f>COUNTIF(History!A332:A399,A36)</f>
+        <f>COUNTIF(History!A330:A399,A36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="2" t="e">
@@ -13595,11 +13930,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="2">
-        <f>COUNTIF(History!A506:C531,A36)</f>
+        <f>COUNTIF(History!A506:C529,A36)</f>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f>COUNTIF(History!A506:A531,A36)</f>
+        <f>COUNTIF(History!A506:A529,A36)</f>
         <v>0</v>
       </c>
       <c r="P36" s="2" t="e">
@@ -13607,11 +13942,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="2">
-        <f>COUNTIF(History!A532:C631,A36)</f>
+        <f>COUNTIF(History!A530:C629,A36)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f>COUNTIF(History!A532:A631,A36)</f>
+        <f>COUNTIF(History!A530:A629,A36)</f>
         <v>0</v>
       </c>
       <c r="S36" s="2" t="e">
@@ -13621,26 +13956,26 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="8">
         <f>COUNTIF(History!A:A,A37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="2">
         <f>C37*100/B37</f>
-        <v>50</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E37" s="8">
-        <f>COUNTIF(History!A26:C125,A37)</f>
+        <f>COUNTIF(History!A44:C143,A37)</f>
         <v>1</v>
       </c>
       <c r="F37" s="8">
-        <f>COUNTIF(History!A26:A125,A37)</f>
+        <f>COUNTIF(History!A44:A143,A37)</f>
         <v>1</v>
       </c>
       <c r="G37" s="2">
@@ -13648,23 +13983,23 @@
         <v>100</v>
       </c>
       <c r="H37" s="2">
-        <f>COUNTIF(History!A126:C225,A37)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A144:C243,A37)</f>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>COUNTIF(History!A126:A225,A37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
+        <f>COUNTIF(History!A144:A243,A37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="e">
         <f>I37*100/H37</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K37" s="2">
-        <f>COUNTIF(History!A218:C317,A37)</f>
+        <f>COUNTIF(History!A237:C336,A37)</f>
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <f>COUNTIF(History!A218:A317,A37)</f>
+        <f>COUNTIF(History!A237:A336,A37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="2" t="e">
@@ -13672,11 +14007,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="2">
-        <f>COUNTIF(History!A318:C399,A37)</f>
+        <f>COUNTIF(History!A337:C399,A37)</f>
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f>COUNTIF(History!A318:A399,A37)</f>
+        <f>COUNTIF(History!A337:A399,A37)</f>
         <v>0</v>
       </c>
       <c r="P37" s="2" t="e">
@@ -13684,11 +14019,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="2">
-        <f>COUNTIF(History!A506:C517,A37)</f>
+        <f>COUNTIF(History!A506:C536,A37)</f>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f>COUNTIF(History!A506:A517,A37)</f>
+        <f>COUNTIF(History!A506:A536,A37)</f>
         <v>0</v>
       </c>
       <c r="S37" s="2" t="e">
@@ -13698,50 +14033,50 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="8">
         <f>COUNTIF(History!A:A,A38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="2">
         <f>C38*100/B38</f>
-        <v>50</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E38" s="8">
-        <f>COUNTIF(History!A22:C121,A38)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A14:C113,A38)</f>
+        <v>2</v>
       </c>
       <c r="F38" s="8">
-        <f>COUNTIF(History!A22:A121,A38)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A14:A113,A38)</f>
+        <v>2</v>
       </c>
       <c r="G38" s="2">
         <f>F38*100/E38</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H38" s="2">
-        <f>COUNTIF(History!A122:C221,A38)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A111:C210,A38)</f>
+        <v>2</v>
       </c>
       <c r="I38" s="2">
-        <f>COUNTIF(History!A122:A221,A38)</f>
+        <f>COUNTIF(History!A111:A210,A38)</f>
         <v>1</v>
       </c>
       <c r="J38" s="2">
         <f>I38*100/H38</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K38" s="2">
-        <f>COUNTIF(History!A253:C352,A38)</f>
+        <f>COUNTIF(History!A212:C311,A38)</f>
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <f>COUNTIF(History!A253:A352,A38)</f>
+        <f>COUNTIF(History!A212:A311,A38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="2" t="e">
@@ -13749,11 +14084,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="2">
-        <f>COUNTIF(History!A353:C399,A38)</f>
+        <f>COUNTIF(History!A312:C399,A38)</f>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f>COUNTIF(History!A353:A399,A38)</f>
+        <f>COUNTIF(History!A312:A399,A38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="2" t="e">
@@ -13761,11 +14096,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="2">
-        <f>COUNTIF(History!A506:C552,A38)</f>
+        <f>COUNTIF(History!A506:C511,A38)</f>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f>COUNTIF(History!A506:A552,A38)</f>
+        <f>COUNTIF(History!A506:A511,A38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="2" t="e">
@@ -13775,11 +14110,11 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="8">
         <f>COUNTIF(History!A:A,A39)</f>
@@ -13787,14 +14122,14 @@
       </c>
       <c r="D39" s="2">
         <f>C39*100/B39</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E39" s="8">
-        <f>COUNTIF(History!A78:C177,A39)</f>
+        <f>COUNTIF(History!A134:C233,A39)</f>
         <v>1</v>
       </c>
       <c r="F39" s="8">
-        <f>COUNTIF(History!A78:A177,A39)</f>
+        <f>COUNTIF(History!A134:A233,A39)</f>
         <v>1</v>
       </c>
       <c r="G39" s="2">
@@ -13802,11 +14137,11 @@
         <v>100</v>
       </c>
       <c r="H39" s="2">
-        <f>COUNTIF(History!A178:C277,A39)</f>
+        <f>COUNTIF(History!A234:C333,A39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>COUNTIF(History!A178:A277,A39)</f>
+        <f>COUNTIF(History!A234:A333,A39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2" t="e">
@@ -13814,11 +14149,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="2">
-        <f>COUNTIF(History!A273:C372,A39)</f>
+        <f>COUNTIF(History!A332:C399,A39)</f>
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <f>COUNTIF(History!A273:A372,A39)</f>
+        <f>COUNTIF(History!A332:A399,A39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="e">
@@ -13826,11 +14161,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="2">
-        <f>COUNTIF(History!A373:C399,A39)</f>
+        <f>COUNTIF(History!A506:C531,A39)</f>
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f>COUNTIF(History!A373:A399,A39)</f>
+        <f>COUNTIF(History!A506:A531,A39)</f>
         <v>0</v>
       </c>
       <c r="P39" s="2" t="e">
@@ -13838,11 +14173,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="2">
-        <f>COUNTIF(History!A506:C572,A39)</f>
+        <f>COUNTIF(History!A532:C631,A39)</f>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f>COUNTIF(History!A506:A572,A39)</f>
+        <f>COUNTIF(History!A532:A631,A39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="2" t="e">
@@ -13852,38 +14187,38 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="8">
         <f>COUNTIF(History!A:A,A40)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2">
         <f>C40*100/B40</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E40" s="8">
-        <f>COUNTIF(History!A81:C180,A40)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A18:C117,A40)</f>
+        <v>3</v>
       </c>
       <c r="F40" s="8">
-        <f>COUNTIF(History!A81:A180,A40)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A18:A117,A40)</f>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
         <f>F40*100/E40</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <f>COUNTIF(History!A181:C280,A40)</f>
+        <f>COUNTIF(History!A120:C219,A40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>COUNTIF(History!A181:A280,A40)</f>
+        <f>COUNTIF(History!A120:A219,A40)</f>
         <v>0</v>
       </c>
       <c r="J40" s="2" t="e">
@@ -13891,11 +14226,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="2">
-        <f>COUNTIF(History!A278:C377,A40)</f>
+        <f>COUNTIF(History!A216:C315,A40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <f>COUNTIF(History!A278:A377,A40)</f>
+        <f>COUNTIF(History!A216:A315,A40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="2" t="e">
@@ -13903,11 +14238,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="2">
-        <f>COUNTIF(History!A378:C399,A40)</f>
+        <f>COUNTIF(History!A316:C399,A40)</f>
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f>COUNTIF(History!A378:A399,A40)</f>
+        <f>COUNTIF(History!A316:A399,A40)</f>
         <v>0</v>
       </c>
       <c r="P40" s="2" t="e">
@@ -13915,11 +14250,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="2">
-        <f>COUNTIF(History!A506:C577,A40)</f>
+        <f>COUNTIF(History!A506:C514,A40)</f>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f>COUNTIF(History!A506:A577,A40)</f>
+        <f>COUNTIF(History!A506:A514,A40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="2" t="e">
@@ -13929,50 +14264,50 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" s="8">
         <f>COUNTIF(History!A:A,A41)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
         <f>C41*100/B41</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="8">
-        <f>COUNTIF(History!A101:C200,A41)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A43:C142,A41)</f>
+        <v>1</v>
       </c>
       <c r="F41" s="8">
-        <f>COUNTIF(History!A101:A200,A41)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="e">
+        <f>COUNTIF(History!A43:A142,A41)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
         <f>F41*100/E41</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <f>COUNTIF(History!A201:C300,A41)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A143:C242,A41)</f>
+        <v>1</v>
       </c>
       <c r="I41" s="2">
-        <f>COUNTIF(History!A201:A300,A41)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="e">
+        <f>COUNTIF(History!A143:A242,A41)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
         <f>I41*100/H41</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <f>COUNTIF(History!A298:C397,A41)</f>
+        <f>COUNTIF(History!A235:C334,A41)</f>
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>COUNTIF(History!A298:A397,A41)</f>
+        <f>COUNTIF(History!A235:A334,A41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="2" t="e">
@@ -13980,11 +14315,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="2">
-        <f>COUNTIF(History!A398:C399,A41)</f>
+        <f>COUNTIF(History!A335:C399,A41)</f>
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f>COUNTIF(History!A398:A399,A41)</f>
+        <f>COUNTIF(History!A335:A399,A41)</f>
         <v>0</v>
       </c>
       <c r="P41" s="2" t="e">
@@ -13992,11 +14327,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="2">
-        <f>COUNTIF(History!A506:C597,A41)</f>
+        <f>COUNTIF(History!A506:C534,A41)</f>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f>COUNTIF(History!A506:A597,A41)</f>
+        <f>COUNTIF(History!A506:A534,A41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="2" t="e">
@@ -14006,151 +14341,151 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="8">
         <f>COUNTIF(History!A:A,A42)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
         <f>C42*100/B42</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E42" s="8">
-        <f>COUNTIF(History!A119:C218,A42)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A3:C102,A42)</f>
+        <v>1</v>
       </c>
       <c r="F42" s="8">
-        <f>COUNTIF(History!A119:A218,A42)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="2" t="e">
+        <f>COUNTIF(History!A3:A102,A42)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
         <f>F42*100/E42</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
-        <f>COUNTIF(History!A219:C318,A42)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A104:C203,A42)</f>
+        <v>1</v>
       </c>
       <c r="I42" s="2">
-        <f>COUNTIF(History!A219:A318,A42)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="e">
+        <f>COUNTIF(History!A104:A203,A42)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
         <f>I42*100/H42</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2">
-        <f>COUNTIF(History!A317:C399,A42)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A206:C305,A42)</f>
+        <v>1</v>
       </c>
       <c r="L42" s="2">
-        <f>COUNTIF(History!A317:A399,A42)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="2" t="e">
+        <f>COUNTIF(History!A206:A305,A42)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
         <f>L42*100/K42</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
-        <f>COUNTIF(History!A506:C516,A42)</f>
+        <f>COUNTIF(History!A306:C399,A42)</f>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f>COUNTIF(History!A506:A516,A42)</f>
+        <f>COUNTIF(History!A306:A399,A42)</f>
         <v>0</v>
       </c>
       <c r="P42" s="2" t="e">
         <f>O42*100/N42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q42" s="2">
-        <f>COUNTIF(History!A517:C616,A42)</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="2">
-        <f>COUNTIF(History!A517:A616,A42)</f>
-        <v>0</v>
+      <c r="Q42" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A42)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R42" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A42)</f>
+        <v>#REF!</v>
       </c>
       <c r="S42" s="2" t="e">
         <f>R42*100/Q42</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="8">
         <f>COUNTIF(History!A:A,A43)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2">
         <f>C43*100/B43</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="8">
-        <f>COUNTIF(History!A73:C172,A43)</f>
+        <f>COUNTIF(History!A106:C205,A43)</f>
         <v>1</v>
       </c>
       <c r="F43" s="8">
-        <f>COUNTIF(History!A73:A172,A43)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A106:A205,A43)</f>
+        <v>0</v>
       </c>
       <c r="G43" s="2">
         <f>F43*100/E43</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <f>COUNTIF(History!A173:C272,A43)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A206:C305,A43)</f>
+        <v>2</v>
       </c>
       <c r="I43" s="2">
-        <f>COUNTIF(History!A173:A272,A43)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="e">
+        <f>COUNTIF(History!A206:A305,A43)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
         <f>I43*100/H43</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2">
-        <f>COUNTIF(History!A267:C366,A43)</f>
+        <f>COUNTIF(History!A303:C399,A43)</f>
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f>COUNTIF(History!A267:A366,A43)</f>
+        <f>COUNTIF(History!A303:A399,A43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="2" t="e">
         <f>L43*100/K43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N43" s="2">
-        <f>COUNTIF(History!A367:C399,A43)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <f>COUNTIF(History!A367:A399,A43)</f>
-        <v>0</v>
+      <c r="N43" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A43)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O43" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A43)</f>
+        <v>#REF!</v>
       </c>
       <c r="P43" s="2" t="e">
         <f>O43*100/N43</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="Q43" s="2">
-        <f>COUNTIF(History!A506:C566,A43)</f>
+        <f>COUNTIF(History!A506:C602,A43)</f>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f>COUNTIF(History!A506:A566,A43)</f>
+        <f>COUNTIF(History!A506:A602,A43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="2" t="e">
@@ -14160,26 +14495,26 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="8">
         <f>COUNTIF(History!A:A,A44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2">
         <f>C44*100/B44</f>
         <v>100</v>
       </c>
       <c r="E44" s="8">
-        <f>COUNTIF(History!A42:C141,A44)</f>
+        <f>COUNTIF(History!A5:C104,A44)</f>
         <v>1</v>
       </c>
       <c r="F44" s="8">
-        <f>COUNTIF(History!A42:A141,A44)</f>
+        <f>COUNTIF(History!A5:A104,A44)</f>
         <v>1</v>
       </c>
       <c r="G44" s="2">
@@ -14187,23 +14522,23 @@
         <v>100</v>
       </c>
       <c r="H44" s="2">
-        <f>COUNTIF(History!A142:C241,A44)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A106:C205,A44)</f>
+        <v>1</v>
       </c>
       <c r="I44" s="2">
-        <f>COUNTIF(History!A142:A241,A44)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="e">
+        <f>COUNTIF(History!A106:A205,A44)</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
         <f>I44*100/H44</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="K44" s="2">
-        <f>COUNTIF(History!A240:C339,A44)</f>
+        <f>COUNTIF(History!A209:C308,A44)</f>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f>COUNTIF(History!A240:A339,A44)</f>
+        <f>COUNTIF(History!A209:A308,A44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="2" t="e">
@@ -14211,11 +14546,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="2">
-        <f>COUNTIF(History!A340:C399,A44)</f>
+        <f>COUNTIF(History!A309:C399,A44)</f>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f>COUNTIF(History!A340:A399,A44)</f>
+        <f>COUNTIF(History!A309:A399,A44)</f>
         <v>0</v>
       </c>
       <c r="P44" s="2" t="e">
@@ -14223,11 +14558,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" s="2">
-        <f>COUNTIF(History!A506:C539,A44)</f>
+        <f>COUNTIF(History!A506:C508,A44)</f>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f>COUNTIF(History!A506:A539,A44)</f>
+        <f>COUNTIF(History!A506:A508,A44)</f>
         <v>0</v>
       </c>
       <c r="S44" s="2" t="e">
@@ -14237,62 +14572,62 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="8">
         <f>COUNTIF(History!A:A,A45)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="2">
         <f>C45*100/B45</f>
         <v>100</v>
       </c>
       <c r="E45" s="8">
-        <f>COUNTIF(History!A61:C160,A45)</f>
+        <f>COUNTIF(History!A34:C133,A45)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <f>COUNTIF(History!A34:A133,A45)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="e">
+        <f>F45*100/E45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="2">
+        <f>COUNTIF(History!A134:C233,A45)</f>
         <v>1</v>
       </c>
-      <c r="F45" s="8">
-        <f>COUNTIF(History!A61:A160,A45)</f>
+      <c r="I45" s="2">
+        <f>COUNTIF(History!A134:A233,A45)</f>
         <v>1</v>
       </c>
-      <c r="G45" s="2">
-        <f>F45*100/E45</f>
+      <c r="J45" s="2">
+        <f>I45*100/H45</f>
         <v>100</v>
       </c>
-      <c r="H45" s="2">
-        <f>COUNTIF(History!A161:C260,A45)</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <f>COUNTIF(History!A161:A260,A45)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="e">
-        <f>I45*100/H45</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="K45" s="2">
-        <f>COUNTIF(History!A252:C351,A45)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A232:C331,A45)</f>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
-        <f>COUNTIF(History!A252:A351,A45)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="2" t="e">
+        <f>COUNTIF(History!A232:A331,A45)</f>
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
         <f>L45*100/K45</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="N45" s="2">
-        <f>COUNTIF(History!A352:C399,A45)</f>
+        <f>COUNTIF(History!A332:C399,A45)</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f>COUNTIF(History!A352:A399,A45)</f>
+        <f>COUNTIF(History!A332:A399,A45)</f>
         <v>0</v>
       </c>
       <c r="P45" s="2" t="e">
@@ -14300,11 +14635,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="2">
-        <f>COUNTIF(History!A506:C551,A45)</f>
+        <f>COUNTIF(History!A506:C531,A45)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>COUNTIF(History!A506:A551,A45)</f>
+        <f>COUNTIF(History!A506:A531,A45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="2" t="e">
@@ -14314,11 +14649,11 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="8">
         <f>COUNTIF(History!A:A,A46)</f>
@@ -14326,14 +14661,14 @@
       </c>
       <c r="D46" s="2">
         <f>C46*100/B46</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E46" s="8">
-        <f>COUNTIF(History!A51:C150,A46)</f>
+        <f>COUNTIF(History!A26:C125,A46)</f>
         <v>1</v>
       </c>
       <c r="F46" s="8">
-        <f>COUNTIF(History!A51:A150,A46)</f>
+        <f>COUNTIF(History!A26:A125,A46)</f>
         <v>1</v>
       </c>
       <c r="G46" s="2">
@@ -14341,23 +14676,23 @@
         <v>100</v>
       </c>
       <c r="H46" s="2">
-        <f>COUNTIF(History!A151:C250,A46)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A126:C225,A46)</f>
+        <v>1</v>
       </c>
       <c r="I46" s="2">
-        <f>COUNTIF(History!A151:A250,A46)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="e">
+        <f>COUNTIF(History!A126:A225,A46)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
         <f>I46*100/H46</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2">
-        <f>COUNTIF(History!A242:C341,A46)</f>
+        <f>COUNTIF(History!A218:C317,A46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f>COUNTIF(History!A242:A341,A46)</f>
+        <f>COUNTIF(History!A218:A317,A46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="2" t="e">
@@ -14365,11 +14700,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N46" s="2">
-        <f>COUNTIF(History!A342:C399,A46)</f>
+        <f>COUNTIF(History!A318:C399,A46)</f>
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f>COUNTIF(History!A342:A399,A46)</f>
+        <f>COUNTIF(History!A318:A399,A46)</f>
         <v>0</v>
       </c>
       <c r="P46" s="2" t="e">
@@ -14377,11 +14712,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="2">
-        <f>COUNTIF(History!A506:C541,A46)</f>
+        <f>COUNTIF(History!A506:C517,A46)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>COUNTIF(History!A506:A541,A46)</f>
+        <f>COUNTIF(History!A506:A517,A46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="2" t="e">
@@ -14391,11 +14726,11 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="8">
         <f>COUNTIF(History!A:A,A47)</f>
@@ -14403,26 +14738,26 @@
       </c>
       <c r="D47" s="2">
         <f>C47*100/B47</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E47" s="8">
-        <f>COUNTIF(History!A34:C133,A47)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A22:C121,A47)</f>
+        <v>1</v>
       </c>
       <c r="F47" s="8">
-        <f>COUNTIF(History!A34:A133,A47)</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="2" t="e">
+        <f>COUNTIF(History!A22:A121,A47)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
         <f>F47*100/E47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
-        <f>COUNTIF(History!A134:C233,A47)</f>
+        <f>COUNTIF(History!A122:C221,A47)</f>
         <v>1</v>
       </c>
       <c r="I47" s="2">
-        <f>COUNTIF(History!A134:A233,A47)</f>
+        <f>COUNTIF(History!A122:A221,A47)</f>
         <v>1</v>
       </c>
       <c r="J47" s="2">
@@ -14430,11 +14765,11 @@
         <v>100</v>
       </c>
       <c r="K47" s="2">
-        <f>COUNTIF(History!A232:C331,A47)</f>
+        <f>COUNTIF(History!A253:C352,A47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>COUNTIF(History!A232:A331,A47)</f>
+        <f>COUNTIF(History!A253:A352,A47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="2" t="e">
@@ -14442,11 +14777,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N47" s="2">
-        <f>COUNTIF(History!A332:C399,A47)</f>
+        <f>COUNTIF(History!A353:C399,A47)</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f>COUNTIF(History!A332:A399,A47)</f>
+        <f>COUNTIF(History!A353:A399,A47)</f>
         <v>0</v>
       </c>
       <c r="P47" s="2" t="e">
@@ -14454,11 +14789,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q47" s="2">
-        <f>COUNTIF(History!A506:C531,A47)</f>
+        <f>COUNTIF(History!A506:C552,A47)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>COUNTIF(History!A506:A531,A47)</f>
+        <f>COUNTIF(History!A506:A552,A47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="2" t="e">
@@ -14468,50 +14803,50 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C48" s="8">
         <f>COUNTIF(History!A:A,A48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2">
         <f>C48*100/B48</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E48" s="8">
-        <f>COUNTIF(History!A79:C178,A48)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A78:C177,A48)</f>
+        <v>1</v>
       </c>
       <c r="F48" s="8">
-        <f>COUNTIF(History!A79:A178,A48)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A78:A177,A48)</f>
+        <v>1</v>
       </c>
       <c r="G48" s="2">
         <f>F48*100/E48</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="2">
-        <f>COUNTIF(History!A179:C278,A48)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A178:C277,A48)</f>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>COUNTIF(History!A179:A278,A48)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
+        <f>COUNTIF(History!A178:A277,A48)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="e">
         <f>I48*100/H48</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K48" s="2">
-        <f>COUNTIF(History!A274:C373,A48)</f>
+        <f>COUNTIF(History!A273:C372,A48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <f>COUNTIF(History!A274:A373,A48)</f>
+        <f>COUNTIF(History!A273:A372,A48)</f>
         <v>0</v>
       </c>
       <c r="M48" s="2" t="e">
@@ -14519,11 +14854,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N48" s="2">
-        <f>COUNTIF(History!A374:C399,A48)</f>
+        <f>COUNTIF(History!A373:C399,A48)</f>
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f>COUNTIF(History!A374:A399,A48)</f>
+        <f>COUNTIF(History!A373:A399,A48)</f>
         <v>0</v>
       </c>
       <c r="P48" s="2" t="e">
@@ -14531,11 +14866,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q48" s="2">
-        <f>COUNTIF(History!A506:C573,A48)</f>
+        <f>COUNTIF(History!A506:C572,A48)</f>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f>COUNTIF(History!A506:A573,A48)</f>
+        <f>COUNTIF(History!A506:A572,A48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="2" t="e">
@@ -14545,38 +14880,38 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(History!A:C,A49)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49" s="8">
         <f>COUNTIF(History!A:A,A49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2">
         <f>C49*100/B49</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E49" s="8">
-        <f>COUNTIF(History!A195:C294,A49)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A81:C180,A49)</f>
+        <v>2</v>
       </c>
       <c r="F49" s="8">
-        <f>COUNTIF(History!A195:A294,A49)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="2" t="e">
+        <f>COUNTIF(History!A81:A180,A49)</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
         <f>F49*100/E49</f>
-        <v>#DIV/0!</v>
+        <v>50</v>
       </c>
       <c r="H49" s="2">
-        <f>COUNTIF(History!A295:C394,A49)</f>
+        <f>COUNTIF(History!A181:C280,A49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f>COUNTIF(History!A295:A394,A49)</f>
+        <f>COUNTIF(History!A181:A280,A49)</f>
         <v>0</v>
       </c>
       <c r="J49" s="2" t="e">
@@ -14584,11 +14919,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K49" s="2">
-        <f>COUNTIF(History!A395:C399,A49)</f>
+        <f>COUNTIF(History!A278:C377,A49)</f>
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <f>COUNTIF(History!A395:A399,A49)</f>
+        <f>COUNTIF(History!A278:A377,A49)</f>
         <v>0</v>
       </c>
       <c r="M49" s="2" t="e">
@@ -14596,11 +14931,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N49" s="2">
-        <f>COUNTIF(History!A506:C594,A49)</f>
+        <f>COUNTIF(History!A378:C399,A49)</f>
         <v>0</v>
       </c>
       <c r="O49" s="2">
-        <f>COUNTIF(History!A506:A594,A49)</f>
+        <f>COUNTIF(History!A378:A399,A49)</f>
         <v>0</v>
       </c>
       <c r="P49" s="2" t="e">
@@ -14608,11 +14943,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q49" s="2">
-        <f>COUNTIF(History!A595:C694,A49)</f>
+        <f>COUNTIF(History!A506:C577,A49)</f>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f>COUNTIF(History!A595:A694,A49)</f>
+        <f>COUNTIF(History!A506:A577,A49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="2" t="e">
@@ -14622,11 +14957,11 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B50" s="8">
         <f>COUNTIF(History!A:C,A50)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" s="8">
         <f>COUNTIF(History!A:A,A50)</f>
@@ -14637,23 +14972,23 @@
         <v>0</v>
       </c>
       <c r="E50" s="8">
-        <f>COUNTIF(History!A33:C132,A50)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A243:C342,A50)</f>
+        <v>0</v>
       </c>
       <c r="F50" s="8">
-        <f>COUNTIF(History!A33:A132,A50)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
+        <f>COUNTIF(History!A243:A342,A50)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="e">
         <f>F50*100/E50</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H50" s="2">
-        <f>COUNTIF(History!A133:C232,A50)</f>
+        <f>COUNTIF(History!A343:C442,A50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>COUNTIF(History!A133:A232,A50)</f>
+        <f>COUNTIF(History!A343:A442,A50)</f>
         <v>0</v>
       </c>
       <c r="J50" s="2" t="e">
@@ -14661,11 +14996,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K50" s="2">
-        <f>COUNTIF(History!A223:C322,A50)</f>
+        <f>COUNTIF(History!A506:C542,A50)</f>
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <f>COUNTIF(History!A223:A322,A50)</f>
+        <f>COUNTIF(History!A506:A542,A50)</f>
         <v>0</v>
       </c>
       <c r="M50" s="2" t="e">
@@ -14673,11 +15008,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N50" s="2">
-        <f>COUNTIF(History!A323:C399,A50)</f>
+        <f>COUNTIF(History!A543:C642,A50)</f>
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <f>COUNTIF(History!A323:A399,A50)</f>
+        <f>COUNTIF(History!A543:A642,A50)</f>
         <v>0</v>
       </c>
       <c r="P50" s="2" t="e">
@@ -14685,11 +15020,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" s="2">
-        <f>COUNTIF(History!A506:C522,A50)</f>
+        <f>COUNTIF(History!A643:C742,A50)</f>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f>COUNTIF(History!A506:A522,A50)</f>
+        <f>COUNTIF(History!A643:A742,A50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="2" t="e">
@@ -14699,11 +15034,11 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="B51" s="8">
         <f>COUNTIF(History!A:C,A51)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="8">
         <f>COUNTIF(History!A:A,A51)</f>
@@ -14714,35 +15049,35 @@
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <f>COUNTIF(History!A18:C117,A51)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A93:C192,A51)</f>
+        <v>0</v>
       </c>
       <c r="F51" s="8">
-        <f>COUNTIF(History!A18:A117,A51)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
+        <f>COUNTIF(History!A93:A192,A51)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="e">
         <f>F51*100/E51</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H51" s="2">
-        <f>COUNTIF(History!A120:C219,A51)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A193:C292,A51)</f>
+        <v>1</v>
       </c>
       <c r="I51" s="2">
-        <f>COUNTIF(History!A120:A219,A51)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="e">
+        <f>COUNTIF(History!A193:A292,A51)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
         <f>I51*100/H51</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2">
-        <f>COUNTIF(History!A216:C315,A51)</f>
+        <f>COUNTIF(History!A290:C389,A51)</f>
         <v>0</v>
       </c>
       <c r="L51" s="2">
-        <f>COUNTIF(History!A216:A315,A51)</f>
+        <f>COUNTIF(History!A290:A389,A51)</f>
         <v>0</v>
       </c>
       <c r="M51" s="2" t="e">
@@ -14750,11 +15085,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N51" s="2">
-        <f>COUNTIF(History!A316:C399,A51)</f>
+        <f>COUNTIF(History!A390:C399,A51)</f>
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <f>COUNTIF(History!A316:A399,A51)</f>
+        <f>COUNTIF(History!A390:A399,A51)</f>
         <v>0</v>
       </c>
       <c r="P51" s="2" t="e">
@@ -14762,11 +15097,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" s="2">
-        <f>COUNTIF(History!A506:C514,A51)</f>
+        <f>COUNTIF(History!A506:C589,A51)</f>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f>COUNTIF(History!A506:A514,A51)</f>
+        <f>COUNTIF(History!A506:A589,A51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="2" t="e">
@@ -14776,11 +15111,11 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="B52" s="8">
         <f>COUNTIF(History!A:C,A52)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="8">
         <f>COUNTIF(History!A:A,A52)</f>
@@ -14791,23 +15126,23 @@
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <f>COUNTIF(History!A43:C142,A52)</f>
+        <f>COUNTIF(History!A114:C213,A52)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
+        <f>COUNTIF(History!A114:A213,A52)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="e">
+        <f>F52*100/E52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="2">
+        <f>COUNTIF(History!A214:C313,A52)</f>
         <v>1</v>
       </c>
-      <c r="F52" s="8">
-        <f>COUNTIF(History!A43:A142,A52)</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <f>F52*100/E52</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <f>COUNTIF(History!A143:C242,A52)</f>
-        <v>1</v>
-      </c>
       <c r="I52" s="2">
-        <f>COUNTIF(History!A143:A242,A52)</f>
+        <f>COUNTIF(History!A214:A313,A52)</f>
         <v>0</v>
       </c>
       <c r="J52" s="2">
@@ -14815,11 +15150,11 @@
         <v>0</v>
       </c>
       <c r="K52" s="2">
-        <f>COUNTIF(History!A235:C334,A52)</f>
+        <f>COUNTIF(History!A312:C399,A52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="2">
-        <f>COUNTIF(History!A235:A334,A52)</f>
+        <f>COUNTIF(History!A312:A399,A52)</f>
         <v>0</v>
       </c>
       <c r="M52" s="2" t="e">
@@ -14827,11 +15162,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N52" s="2">
-        <f>COUNTIF(History!A335:C399,A52)</f>
+        <f>COUNTIF(History!A506:C511,A52)</f>
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f>COUNTIF(History!A335:A399,A52)</f>
+        <f>COUNTIF(History!A506:A511,A52)</f>
         <v>0</v>
       </c>
       <c r="P52" s="2" t="e">
@@ -14839,11 +15174,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" s="2">
-        <f>COUNTIF(History!A506:C534,A52)</f>
+        <f>COUNTIF(History!A512:C611,A52)</f>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f>COUNTIF(History!A506:A534,A52)</f>
+        <f>COUNTIF(History!A512:A611,A52)</f>
         <v>0</v>
       </c>
       <c r="S52" s="2" t="e">
@@ -14853,11 +15188,11 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="B53" s="8">
         <f>COUNTIF(History!A:C,A53)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="8">
         <f>COUNTIF(History!A:A,A53)</f>
@@ -14868,35 +15203,35 @@
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <f>COUNTIF(History!A3:C102,A53)</f>
+        <f>COUNTIF(History!A57:C156,A53)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <f>COUNTIF(History!A57:A156,A53)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="e">
+        <f>F53*100/E53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="2">
+        <f>COUNTIF(History!A157:C256,A53)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <f>COUNTIF(History!A157:A256,A53)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="e">
+        <f>I53*100/H53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="2">
+        <f>COUNTIF(History!A248:C347,A53)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="8">
-        <f>COUNTIF(History!A3:A102,A53)</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <f>F53*100/E53</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <f>COUNTIF(History!A104:C203,A53)</f>
-        <v>1</v>
-      </c>
-      <c r="I53" s="2">
-        <f>COUNTIF(History!A104:A203,A53)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <f>I53*100/H53</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <f>COUNTIF(History!A206:C305,A53)</f>
-        <v>1</v>
-      </c>
       <c r="L53" s="2">
-        <f>COUNTIF(History!A206:A305,A53)</f>
+        <f>COUNTIF(History!A248:A347,A53)</f>
         <v>0</v>
       </c>
       <c r="M53" s="2">
@@ -14904,52 +15239,52 @@
         <v>0</v>
       </c>
       <c r="N53" s="2">
-        <f>COUNTIF(History!A306:C399,A53)</f>
+        <f>COUNTIF(History!A348:C399,A53)</f>
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <f>COUNTIF(History!A306:A399,A53)</f>
+        <f>COUNTIF(History!A348:A399,A53)</f>
         <v>0</v>
       </c>
       <c r="P53" s="2" t="e">
         <f>O53*100/N53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q53" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A53)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R53" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A53)</f>
-        <v>#REF!</v>
+      <c r="Q53" s="2">
+        <f>COUNTIF(History!A506:C547,A53)</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
+        <f>COUNTIF(History!A506:A547,A53)</f>
+        <v>0</v>
       </c>
       <c r="S53" s="2" t="e">
         <f>R53*100/Q53</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B54" s="8">
         <f>COUNTIF(History!A:C,A54)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="8">
         <f>COUNTIF(History!A:A,A54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2">
         <f>C54*100/B54</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="8">
-        <f>COUNTIF(History!A243:C342,A54)</f>
+        <f>COUNTIF(History!A101:C200,A54)</f>
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <f>COUNTIF(History!A243:A342,A54)</f>
+        <f>COUNTIF(History!A101:A200,A54)</f>
         <v>0</v>
       </c>
       <c r="G54" s="2" t="e">
@@ -14957,11 +15292,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H54" s="2">
-        <f>COUNTIF(History!A343:C442,A54)</f>
+        <f>COUNTIF(History!A201:C300,A54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f>COUNTIF(History!A343:A442,A54)</f>
+        <f>COUNTIF(History!A201:A300,A54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="2" t="e">
@@ -14969,11 +15304,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="2">
-        <f>COUNTIF(History!A506:C542,A54)</f>
+        <f>COUNTIF(History!A298:C397,A54)</f>
         <v>0</v>
       </c>
       <c r="L54" s="2">
-        <f>COUNTIF(History!A506:A542,A54)</f>
+        <f>COUNTIF(History!A298:A397,A54)</f>
         <v>0</v>
       </c>
       <c r="M54" s="2" t="e">
@@ -14981,11 +15316,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N54" s="2">
-        <f>COUNTIF(History!A543:C642,A54)</f>
+        <f>COUNTIF(History!A398:C399,A54)</f>
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <f>COUNTIF(History!A543:A642,A54)</f>
+        <f>COUNTIF(History!A398:A399,A54)</f>
         <v>0</v>
       </c>
       <c r="P54" s="2" t="e">
@@ -14993,11 +15328,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="2">
-        <f>COUNTIF(History!A643:C742,A54)</f>
+        <f>COUNTIF(History!A506:C597,A54)</f>
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <f>COUNTIF(History!A643:A742,A54)</f>
+        <f>COUNTIF(History!A506:A597,A54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="2" t="e">
@@ -15007,26 +15342,26 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="B55" s="8">
         <f>COUNTIF(History!A:C,A55)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="8">
         <f>COUNTIF(History!A:A,A55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2">
         <f>C55*100/B55</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E55" s="8">
-        <f>COUNTIF(History!A93:C192,A55)</f>
+        <f>COUNTIF(History!A119:C218,A55)</f>
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <f>COUNTIF(History!A93:A192,A55)</f>
+        <f>COUNTIF(History!A119:A218,A55)</f>
         <v>0</v>
       </c>
       <c r="G55" s="2" t="e">
@@ -15034,23 +15369,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H55" s="2">
-        <f>COUNTIF(History!A193:C292,A55)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A219:C318,A55)</f>
+        <v>0</v>
       </c>
       <c r="I55" s="2">
-        <f>COUNTIF(History!A193:A292,A55)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
+        <f>COUNTIF(History!A219:A318,A55)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="e">
         <f>I55*100/H55</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K55" s="2">
-        <f>COUNTIF(History!A290:C389,A55)</f>
+        <f>COUNTIF(History!A317:C399,A55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="2">
-        <f>COUNTIF(History!A290:A389,A55)</f>
+        <f>COUNTIF(History!A317:A399,A55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="2" t="e">
@@ -15058,11 +15393,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N55" s="2">
-        <f>COUNTIF(History!A390:C399,A55)</f>
+        <f>COUNTIF(History!A506:C516,A55)</f>
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f>COUNTIF(History!A390:A399,A55)</f>
+        <f>COUNTIF(History!A506:A516,A55)</f>
         <v>0</v>
       </c>
       <c r="P55" s="2" t="e">
@@ -15070,11 +15405,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="2">
-        <f>COUNTIF(History!A506:C589,A55)</f>
+        <f>COUNTIF(History!A517:C616,A55)</f>
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <f>COUNTIF(History!A506:A589,A55)</f>
+        <f>COUNTIF(History!A517:A616,A55)</f>
         <v>0</v>
       </c>
       <c r="S55" s="2" t="e">
@@ -15084,74 +15419,74 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="B56" s="8">
         <f>COUNTIF(History!A:C,A56)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="8">
         <f>COUNTIF(History!A:A,A56)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2">
         <f>C56*100/B56</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E56" s="8">
-        <f>COUNTIF(History!A106:C205,A56)</f>
+        <f>COUNTIF(History!A73:C172,A56)</f>
         <v>1</v>
       </c>
       <c r="F56" s="8">
-        <f>COUNTIF(History!A106:A205,A56)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A73:A172,A56)</f>
+        <v>1</v>
       </c>
       <c r="G56" s="2">
         <f>F56*100/E56</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H56" s="2">
-        <f>COUNTIF(History!A206:C305,A56)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A173:C272,A56)</f>
+        <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f>COUNTIF(History!A206:A305,A56)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="2">
+        <f>COUNTIF(History!A173:A272,A56)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="e">
         <f>I56*100/H56</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K56" s="2">
-        <f>COUNTIF(History!A303:C399,A56)</f>
+        <f>COUNTIF(History!A267:C366,A56)</f>
         <v>0</v>
       </c>
       <c r="L56" s="2">
-        <f>COUNTIF(History!A303:A399,A56)</f>
+        <f>COUNTIF(History!A267:A366,A56)</f>
         <v>0</v>
       </c>
       <c r="M56" s="2" t="e">
         <f>L56*100/K56</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N56" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A56)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O56" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A56)</f>
-        <v>#REF!</v>
+      <c r="N56" s="2">
+        <f>COUNTIF(History!A367:C399,A56)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <f>COUNTIF(History!A367:A399,A56)</f>
+        <v>0</v>
       </c>
       <c r="P56" s="2" t="e">
         <f>O56*100/N56</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="2">
-        <f>COUNTIF(History!A506:C602,A56)</f>
+        <f>COUNTIF(History!A506:C566,A56)</f>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f>COUNTIF(History!A506:A602,A56)</f>
+        <f>COUNTIF(History!A506:A566,A56)</f>
         <v>0</v>
       </c>
       <c r="S56" s="2" t="e">
@@ -15161,50 +15496,50 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="B57" s="8">
         <f>COUNTIF(History!A:C,A57)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="8">
         <f>COUNTIF(History!A:A,A57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2">
         <f>C57*100/B57</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="8">
-        <f>COUNTIF(History!A38:C137,A57)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A42:C141,A57)</f>
+        <v>1</v>
       </c>
       <c r="F57" s="8">
-        <f>COUNTIF(History!A38:A137,A57)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="2" t="e">
+        <f>COUNTIF(History!A42:A141,A57)</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
         <f>F57*100/E57</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H57" s="2">
-        <f>COUNTIF(History!A138:C237,A57)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A142:C241,A57)</f>
+        <v>0</v>
       </c>
       <c r="I57" s="2">
-        <f>COUNTIF(History!A138:A237,A57)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="2">
+        <f>COUNTIF(History!A142:A241,A57)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="e">
         <f>I57*100/H57</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K57" s="2">
-        <f>COUNTIF(History!A254:C353,A57)</f>
+        <f>COUNTIF(History!A240:C339,A57)</f>
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <f>COUNTIF(History!A254:A353,A57)</f>
+        <f>COUNTIF(History!A240:A339,A57)</f>
         <v>0</v>
       </c>
       <c r="M57" s="2" t="e">
@@ -15212,11 +15547,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N57" s="2">
-        <f>COUNTIF(History!A354:C399,A57)</f>
+        <f>COUNTIF(History!A340:C399,A57)</f>
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <f>COUNTIF(History!A354:A399,A57)</f>
+        <f>COUNTIF(History!A340:A399,A57)</f>
         <v>0</v>
       </c>
       <c r="P57" s="2" t="e">
@@ -15224,11 +15559,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q57" s="2">
-        <f>COUNTIF(History!A506:C553,A57)</f>
+        <f>COUNTIF(History!A506:C539,A57)</f>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f>COUNTIF(History!A506:A553,A57)</f>
+        <f>COUNTIF(History!A506:A539,A57)</f>
         <v>0</v>
       </c>
       <c r="S57" s="2" t="e">
@@ -15238,7 +15573,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="B58" s="8">
         <f>COUNTIF(History!A:C,A58)</f>
@@ -15246,30 +15581,30 @@
       </c>
       <c r="C58" s="8">
         <f>COUNTIF(History!A:A,A58)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2">
         <f>C58*100/B58</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="8">
-        <f>COUNTIF(History!A181:C280,A58)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A61:C160,A58)</f>
+        <v>1</v>
       </c>
       <c r="F58" s="8">
-        <f>COUNTIF(History!A181:A280,A58)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="2" t="e">
+        <f>COUNTIF(History!A61:A160,A58)</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
         <f>F58*100/E58</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H58" s="2">
-        <f>COUNTIF(History!A281:C380,A58)</f>
+        <f>COUNTIF(History!A161:C260,A58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f>COUNTIF(History!A281:A380,A58)</f>
+        <f>COUNTIF(History!A161:A260,A58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="2" t="e">
@@ -15277,11 +15612,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="2">
-        <f>COUNTIF(History!A381:C399,A58)</f>
+        <f>COUNTIF(History!A252:C351,A58)</f>
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <f>COUNTIF(History!A381:A399,A58)</f>
+        <f>COUNTIF(History!A252:A351,A58)</f>
         <v>0</v>
       </c>
       <c r="M58" s="2" t="e">
@@ -15289,11 +15624,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N58" s="2">
-        <f>COUNTIF(History!A506:C580,A58)</f>
+        <f>COUNTIF(History!A352:C399,A58)</f>
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <f>COUNTIF(History!A506:A580,A58)</f>
+        <f>COUNTIF(History!A352:A399,A58)</f>
         <v>0</v>
       </c>
       <c r="P58" s="2" t="e">
@@ -15301,11 +15636,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" s="2">
-        <f>COUNTIF(History!A581:C680,A58)</f>
+        <f>COUNTIF(History!A506:C551,A58)</f>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f>COUNTIF(History!A581:A680,A58)</f>
+        <f>COUNTIF(History!A506:A551,A58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="2" t="e">
@@ -15315,7 +15650,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="B59" s="8">
         <f>COUNTIF(History!A:C,A59)</f>
@@ -15323,30 +15658,30 @@
       </c>
       <c r="C59" s="8">
         <f>COUNTIF(History!A:A,A59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2">
         <f>C59*100/B59</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="8">
-        <f>COUNTIF(History!A207:C306,A59)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A51:C150,A59)</f>
+        <v>1</v>
       </c>
       <c r="F59" s="8">
-        <f>COUNTIF(History!A207:A306,A59)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="2" t="e">
+        <f>COUNTIF(History!A51:A150,A59)</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
         <f>F59*100/E59</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H59" s="2">
-        <f>COUNTIF(History!A307:C406,A59)</f>
+        <f>COUNTIF(History!A151:C250,A59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <f>COUNTIF(History!A307:A406,A59)</f>
+        <f>COUNTIF(History!A151:A250,A59)</f>
         <v>0</v>
       </c>
       <c r="J59" s="2" t="e">
@@ -15354,11 +15689,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="2">
-        <f>COUNTIF(History!A506:C506,A59)</f>
+        <f>COUNTIF(History!A242:C341,A59)</f>
         <v>0</v>
       </c>
       <c r="L59" s="2">
-        <f>COUNTIF(History!A506:A506,A59)</f>
+        <f>COUNTIF(History!A242:A341,A59)</f>
         <v>0</v>
       </c>
       <c r="M59" s="2" t="e">
@@ -15366,11 +15701,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N59" s="2">
-        <f>COUNTIF(History!A507:C606,A59)</f>
+        <f>COUNTIF(History!A342:C399,A59)</f>
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f>COUNTIF(History!A507:A606,A59)</f>
+        <f>COUNTIF(History!A342:A399,A59)</f>
         <v>0</v>
       </c>
       <c r="P59" s="2" t="e">
@@ -15378,11 +15713,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="2">
-        <f>COUNTIF(History!A607:C706,A59)</f>
+        <f>COUNTIF(History!A506:C541,A59)</f>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f>COUNTIF(History!A607:A706,A59)</f>
+        <f>COUNTIF(History!A506:A541,A59)</f>
         <v>0</v>
       </c>
       <c r="S59" s="2" t="e">
@@ -15392,7 +15727,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="B60" s="8">
         <f>COUNTIF(History!A:C,A60)</f>
@@ -15407,11 +15742,11 @@
         <v>0</v>
       </c>
       <c r="E60" s="8">
-        <f>COUNTIF(History!A114:C213,A60)</f>
+        <f>COUNTIF(History!A181:C280,A60)</f>
         <v>0</v>
       </c>
       <c r="F60" s="8">
-        <f>COUNTIF(History!A114:A213,A60)</f>
+        <f>COUNTIF(History!A181:A280,A60)</f>
         <v>0</v>
       </c>
       <c r="G60" s="2" t="e">
@@ -15419,11 +15754,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="2">
-        <f>COUNTIF(History!A214:C313,A60)</f>
+        <f>COUNTIF(History!A281:C380,A60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <f>COUNTIF(History!A214:A313,A60)</f>
+        <f>COUNTIF(History!A281:A380,A60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="2" t="e">
@@ -15431,11 +15766,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K60" s="2">
-        <f>COUNTIF(History!A312:C399,A60)</f>
+        <f>COUNTIF(History!A381:C399,A60)</f>
         <v>0</v>
       </c>
       <c r="L60" s="2">
-        <f>COUNTIF(History!A312:A399,A60)</f>
+        <f>COUNTIF(History!A381:A399,A60)</f>
         <v>0</v>
       </c>
       <c r="M60" s="2" t="e">
@@ -15443,11 +15778,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N60" s="2">
-        <f>COUNTIF(History!A506:C511,A60)</f>
+        <f>COUNTIF(History!A506:C580,A60)</f>
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <f>COUNTIF(History!A506:A511,A60)</f>
+        <f>COUNTIF(History!A506:A580,A60)</f>
         <v>0</v>
       </c>
       <c r="P60" s="2" t="e">
@@ -15455,11 +15790,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q60" s="2">
-        <f>COUNTIF(History!A512:C611,A60)</f>
+        <f>COUNTIF(History!A581:C680,A60)</f>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f>COUNTIF(History!A512:A611,A60)</f>
+        <f>COUNTIF(History!A581:A680,A60)</f>
         <v>0</v>
       </c>
       <c r="S60" s="2" t="e">
@@ -15469,7 +15804,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="B61" s="8">
         <f>COUNTIF(History!A:C,A61)</f>
@@ -15484,11 +15819,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="8">
-        <f>COUNTIF(History!A57:C156,A61)</f>
+        <f>COUNTIF(History!A207:C306,A61)</f>
         <v>0</v>
       </c>
       <c r="F61" s="8">
-        <f>COUNTIF(History!A57:A156,A61)</f>
+        <f>COUNTIF(History!A207:A306,A61)</f>
         <v>0</v>
       </c>
       <c r="G61" s="2" t="e">
@@ -15496,11 +15831,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="2">
-        <f>COUNTIF(History!A157:C256,A61)</f>
+        <f>COUNTIF(History!A307:C406,A61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f>COUNTIF(History!A157:A256,A61)</f>
+        <f>COUNTIF(History!A307:A406,A61)</f>
         <v>0</v>
       </c>
       <c r="J61" s="2" t="e">
@@ -15508,11 +15843,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="2">
-        <f>COUNTIF(History!A248:C347,A61)</f>
+        <f>COUNTIF(History!A506:C506,A61)</f>
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <f>COUNTIF(History!A248:A347,A61)</f>
+        <f>COUNTIF(History!A506:A506,A61)</f>
         <v>0</v>
       </c>
       <c r="M61" s="2" t="e">
@@ -15520,11 +15855,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="2">
-        <f>COUNTIF(History!A348:C399,A61)</f>
+        <f>COUNTIF(History!A507:C606,A61)</f>
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f>COUNTIF(History!A348:A399,A61)</f>
+        <f>COUNTIF(History!A507:A606,A61)</f>
         <v>0</v>
       </c>
       <c r="P61" s="2" t="e">
@@ -15532,11 +15867,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="2">
-        <f>COUNTIF(History!A506:C547,A61)</f>
+        <f>COUNTIF(History!A607:C706,A61)</f>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f>COUNTIF(History!A506:A547,A61)</f>
+        <f>COUNTIF(History!A607:A706,A61)</f>
         <v>0</v>
       </c>
       <c r="S61" s="2" t="e">
@@ -43842,7 +44177,7 @@
   </sheetData>
   <autoFilter ref="A1:S345" xr:uid="{A3F9FFB7-199D-43C8-B38B-24AA8C91A8D9}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S464">
-      <sortCondition descending="1" ref="C1:C345"/>
+      <sortCondition descending="1" ref="B1:B345"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -43855,7 +44190,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43874,139 +44209,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>azumarill:26</v>
+        <v>azumarill:27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>azumarill:26,stunfisk_galarian:23</v>
+        <v>azumarill:27,stunfisk_galarian:25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5,tropius:5</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5,meganium:3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5,tropius:5,umbreon:5</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5,meganium:3,hypno:4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5,tropius:5,umbreon:5,deoxys_defense:4</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5,meganium:3,hypno:4,scrafty:6</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5,tropius:5,umbreon:5,deoxys_defense:4,shiftry:4</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5,meganium:3,hypno:4,scrafty:6,tropius:5</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5,tropius:5,umbreon:5,deoxys_defense:4,shiftry:4,hypno:4</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5,meganium:3,hypno:4,scrafty:6,tropius:5,medicham:3</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5,tropius:5,umbreon:5,deoxys_defense:4,shiftry:4,hypno:4,meganium:3</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5,meganium:3,hypno:4,scrafty:6,tropius:5,medicham:3,sableye:1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5,tropius:5,umbreon:5,deoxys_defense:4,shiftry:4,hypno:4,meganium:3,medicham:3</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5,meganium:3,hypno:4,scrafty:6,tropius:5,medicham:3,sableye:1,drifblim:7</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5,tropius:5,umbreon:5,deoxys_defense:4,shiftry:4,hypno:4,meganium:3,medicham:3,scrafty:3</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5,meganium:3,hypno:4,scrafty:6,tropius:5,medicham:3,sableye:1,drifblim:7,umbreon:6</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>azumarill:26,stunfisk_galarian:23,swampert:19,bastiodon:17,altaria:17,galvantula:13,abomasnow:13,marowak_alolan:11,toxicroak:10,obstagoon:10,machamp:8,drifblim:7,skarmory:6,victreebel:5,tropius:5,umbreon:5,deoxys_defense:4,shiftry:4,hypno:4,meganium:3,medicham:3,scrafty:3,dewgong:3</v>
+        <v>azumarill:27,stunfisk_galarian:25,skarmory:7,marowak_alolan:12,deoxys_defense:4,altaria:21,bastiodon:17,swampert:21,galvantula:14,abomasnow:14,machamp:8,toxicroak:11,victreebel:6,shiftry:5,meganium:3,hypno:4,scrafty:6,tropius:5,medicham:3,sableye:1,drifblim:7,umbreon:6,obstagoon:10</v>
       </c>
     </row>
   </sheetData>
@@ -44019,8 +44354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB1052-0E2A-4C9F-80C2-7E88CECBAD0B}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44036,145 +44371,145 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>azumarill:112</v>
+        <v>azumarill:121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>azumarill:112,stunfisk_galarian:72</v>
+        <v>azumarill:121,stunfisk_galarian:78</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15,umbreon:13</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19,hypno:18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15,umbreon:13,deoxys_defense:34</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19,hypno:18,scrafty:17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15,umbreon:13,deoxys_defense:34,shiftry:17</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19,hypno:18,scrafty:17,tropius:16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15,umbreon:13,deoxys_defense:34,shiftry:17,hypno:15</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19,hypno:18,scrafty:17,tropius:16,medicham:16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15,umbreon:13,deoxys_defense:34,shiftry:17,hypno:15,meganium:18</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19,hypno:18,scrafty:17,tropius:16,medicham:16,sableye:16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15,umbreon:13,deoxys_defense:34,shiftry:17,hypno:15,meganium:18,medicham:15</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19,hypno:18,scrafty:17,tropius:16,medicham:16,sableye:16,drifblim:15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15,umbreon:13,deoxys_defense:34,shiftry:17,hypno:15,meganium:18,medicham:15,scrafty:11</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19,hypno:18,scrafty:17,tropius:16,medicham:16,sableye:16,drifblim:15,umbreon:14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!B24,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15,umbreon:13,deoxys_defense:34,shiftry:17,hypno:15,meganium:18,medicham:15,scrafty:11,dewgong:5</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19,hypno:18,scrafty:17,tropius:16,medicham:16,sableye:16,drifblim:15,umbreon:14,obstagoon:13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!B25,)</f>
-        <v>azumarill:112,stunfisk_galarian:72,swampert:25,bastiodon:28,altaria:26,galvantula:26,abomasnow:25,marowak_alolan:36,toxicroak:19,obstagoon:13,machamp:23,drifblim:14,skarmory:43,victreebel:18,tropius:15,umbreon:13,deoxys_defense:34,shiftry:17,hypno:15,meganium:18,medicham:15,scrafty:11,dewgong:5,mawile:3</v>
+        <v>azumarill:121,stunfisk_galarian:78,skarmory:47,marowak_alolan:39,deoxys_defense:37,altaria:31,bastiodon:29,swampert:28,galvantula:28,abomasnow:27,machamp:24,toxicroak:21,victreebel:19,shiftry:19,meganium:19,hypno:18,scrafty:17,tropius:16,medicham:16,sableye:16,drifblim:15,umbreon:14,obstagoon:13,registeel:10</v>
       </c>
     </row>
   </sheetData>
@@ -44185,10 +44520,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD94D32-7C9E-4573-8CF8-2958F19276CB}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44204,133 +44539,145 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>azumarill:86</v>
+        <v>azumarill:94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>azumarill:86,stunfisk_galarian:49</v>
+        <v>azumarill:94,stunfisk_galarian:53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37,victreebel:13</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37,victreebel:13,tropius:10</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37,victreebel:13,tropius:10,umbreon:8</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16,hypno:14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37,victreebel:13,tropius:10,umbreon:8,deoxys_defense:30</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16,hypno:14,scrafty:11</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37,victreebel:13,tropius:10,umbreon:8,deoxys_defense:30,shiftry:13</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16,hypno:14,scrafty:11,tropius:11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37,victreebel:13,tropius:10,umbreon:8,deoxys_defense:30,shiftry:13,hypno:11</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16,hypno:14,scrafty:11,tropius:11,medicham:13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37,victreebel:13,tropius:10,umbreon:8,deoxys_defense:30,shiftry:13,hypno:11,meganium:15</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16,hypno:14,scrafty:11,tropius:11,medicham:13,sableye:15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37,victreebel:13,tropius:10,umbreon:8,deoxys_defense:30,shiftry:13,hypno:11,meganium:15,medicham:12</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16,hypno:14,scrafty:11,tropius:11,medicham:13,sableye:15,drifblim:8</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>azumarill:86,stunfisk_galarian:49,swampert:6,bastiodon:11,altaria:9,galvantula:13,abomasnow:12,marowak_alolan:25,toxicroak:9,obstagoon:3,machamp:15,drifblim:7,skarmory:37,victreebel:13,tropius:10,umbreon:8,deoxys_defense:30,shiftry:13,hypno:11,meganium:15,medicham:12,scrafty:8</v>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16,hypno:14,scrafty:11,tropius:11,medicham:13,sableye:15,drifblim:8,umbreon:8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!B24-Totals!C24)</f>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16,hypno:14,scrafty:11,tropius:11,medicham:13,sableye:15,drifblim:8,umbreon:8,obstagoon:3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!B25-Totals!C25)</f>
+        <v>azumarill:94,stunfisk_galarian:53,skarmory:40,marowak_alolan:27,deoxys_defense:33,altaria:10,bastiodon:12,swampert:7,galvantula:14,abomasnow:13,machamp:16,toxicroak:10,victreebel:13,shiftry:14,meganium:16,hypno:14,scrafty:11,tropius:11,medicham:13,sableye:15,drifblim:8,umbreon:8,obstagoon:3,registeel:8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Great - Season 04.xlsx
+++ b/src/main/resources/data/Great - Season 04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D6B892-3DF9-480F-95CA-67EA14357919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D5BFA5-13D6-47A8-A0A9-C20AC2EFB52C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="897">
   <si>
     <t>Lead</t>
   </si>
@@ -2661,6 +2661,78 @@
   </si>
   <si>
     <t>akinasubito</t>
+  </si>
+  <si>
+    <t>NeverDontNotBait</t>
+  </si>
+  <si>
+    <t>Kalikori</t>
+  </si>
+  <si>
+    <t>funnel0001</t>
+  </si>
+  <si>
+    <t>GhostHusk</t>
+  </si>
+  <si>
+    <t>Welton425</t>
+  </si>
+  <si>
+    <t>atsu...</t>
+  </si>
+  <si>
+    <t>RedMon5t3r</t>
+  </si>
+  <si>
+    <t>zumitetsu</t>
+  </si>
+  <si>
+    <t>SalvadorPale</t>
+  </si>
+  <si>
+    <t>YAMan16G</t>
+  </si>
+  <si>
+    <t>Nicigomo</t>
+  </si>
+  <si>
+    <t>TheManBenny</t>
+  </si>
+  <si>
+    <t>tangyu....</t>
+  </si>
+  <si>
+    <t>ISHIKAWABOY</t>
+  </si>
+  <si>
+    <t>SirsLarsMed</t>
+  </si>
+  <si>
+    <t>yyikkiddaaruu</t>
+  </si>
+  <si>
+    <t>RVKevin0724</t>
+  </si>
+  <si>
+    <t>birdao</t>
+  </si>
+  <si>
+    <t>iamlethys</t>
+  </si>
+  <si>
+    <t>sheenku</t>
+  </si>
+  <si>
+    <t>BGreen017</t>
+  </si>
+  <si>
+    <t>Arctiguana</t>
+  </si>
+  <si>
+    <t>hackweye</t>
+  </si>
+  <si>
+    <t>R0ll1T0</t>
   </si>
 </sst>
 </file>
@@ -3072,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:F931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A328" sqref="A328"/>
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9092,25 +9164,25 @@
       <c r="C301" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D301" s="9" t="s">
+      <c r="D301" s="2" t="s">
         <v>497</v>
       </c>
       <c r="E301" s="2">
         <v>8</v>
       </c>
-      <c r="F301" s="9" t="s">
+      <c r="F301" s="2" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>497</v>
@@ -9119,38 +9191,38 @@
         <v>8</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>497</v>
+        <v>191</v>
       </c>
       <c r="E303" s="2">
         <v>8</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>488</v>
+        <v>579</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>191</v>
@@ -9159,27 +9231,27 @@
         <v>8</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>492</v>
+        <v>683</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E305" s="2">
         <v>8</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -9187,27 +9259,27 @@
         <v>519</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>683</v>
+        <v>500</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>497</v>
+        <v>191</v>
       </c>
       <c r="E306" s="2">
         <v>8</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>191</v>
@@ -9216,18 +9288,18 @@
         <v>8</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>191</v>
@@ -9236,15 +9308,15 @@
         <v>8</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>488</v>
@@ -9256,118 +9328,118 @@
         <v>8</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>488</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E310" s="2">
         <v>8</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="D311" s="2" t="s">
-        <v>497</v>
+        <v>191</v>
       </c>
       <c r="E311" s="2">
         <v>8</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E312" s="2">
         <v>8</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>492</v>
+        <v>624</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>497</v>
+        <v>191</v>
       </c>
       <c r="E313" s="2">
         <v>8</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E314" s="2">
         <v>8</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="C315" s="2" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>497</v>
@@ -9376,38 +9448,38 @@
         <v>8</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="D316" s="2" t="s">
-        <v>497</v>
+        <v>191</v>
       </c>
       <c r="E316" s="2">
         <v>8</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>191</v>
@@ -9416,18 +9488,18 @@
         <v>8</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>191</v>
@@ -9436,58 +9508,58 @@
         <v>8</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>558</v>
+        <v>492</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E319" s="2">
         <v>8</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>497</v>
+        <v>191</v>
       </c>
       <c r="E320" s="2">
         <v>8</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B321" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>191</v>
@@ -9496,15 +9568,15 @@
         <v>8</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>507</v>
+        <v>624</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>488</v>
@@ -9516,15 +9588,15 @@
         <v>8</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>624</v>
+        <v>507</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>488</v>
@@ -9536,78 +9608,78 @@
         <v>8</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>487</v>
+        <v>602</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>507</v>
+        <v>624</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E324" s="2">
         <v>8</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>602</v>
+        <v>542</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>624</v>
+        <v>503</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>497</v>
+        <v>191</v>
       </c>
       <c r="E325" s="2">
         <v>8</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D326" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D326" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E326" s="2">
         <v>8</v>
       </c>
-      <c r="F326" s="2" t="s">
-        <v>871</v>
+      <c r="F326" s="9" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>653</v>
+        <v>519</v>
       </c>
       <c r="D327" s="9" t="s">
         <v>191</v>
@@ -9616,226 +9688,490 @@
         <v>8</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="D328" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E328" s="2">
         <v>8</v>
       </c>
-      <c r="F328" s="9"/>
+      <c r="F328" s="9" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="D329" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E329" s="2">
         <v>8</v>
       </c>
-      <c r="F329" s="9"/>
+      <c r="F329" s="9" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="D330" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E330" s="2">
         <v>8</v>
       </c>
-      <c r="F330" s="9"/>
+      <c r="F330" s="9" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D331" s="9" t="s">
+      <c r="A331" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D331" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E331" s="2">
         <v>8</v>
       </c>
-      <c r="F331" s="9"/>
+      <c r="F331" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>565</v>
+      </c>
       <c r="D332" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E332" s="2">
         <v>8</v>
       </c>
-      <c r="F332" s="9"/>
+      <c r="F332" s="9" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="D333" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E333" s="2">
         <v>8</v>
       </c>
-      <c r="F333" s="9"/>
+      <c r="F333" s="9" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="D334" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E334" s="2">
         <v>8</v>
       </c>
-      <c r="F334" s="9"/>
+      <c r="F334" s="9" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>602</v>
+      </c>
       <c r="D335" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E335" s="2">
         <v>8</v>
       </c>
-      <c r="F335" s="9"/>
+      <c r="F335" s="9" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="D336" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E336" s="2">
         <v>8</v>
       </c>
-      <c r="F336" s="9"/>
-    </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F336" s="9" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="D337" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E337" s="2">
         <v>8</v>
       </c>
-      <c r="F337" s="9"/>
-    </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F337" s="9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="D338" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E338" s="2">
         <v>8</v>
       </c>
-      <c r="F338" s="9"/>
-    </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F338" s="9" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="D339" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E339" s="2">
         <v>8</v>
       </c>
-      <c r="F339" s="9"/>
-    </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F339" s="9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="D340" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E340" s="2">
         <v>8</v>
       </c>
-      <c r="F340" s="9"/>
-    </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F340" s="9" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="D341" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E341" s="2">
         <v>8</v>
       </c>
-      <c r="F341" s="9"/>
-    </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F341" s="9" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>563</v>
+      </c>
       <c r="D342" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E342" s="2">
         <v>8</v>
       </c>
-      <c r="F342" s="9"/>
-    </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F342" s="9" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="D343" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E343" s="2">
         <v>8</v>
       </c>
-      <c r="F343" s="9"/>
-    </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F343" s="9" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>505</v>
+      </c>
       <c r="D344" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E344" s="2">
         <v>8</v>
       </c>
-      <c r="F344" s="9"/>
-    </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F344" s="9" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="D345" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E345" s="2">
         <v>8</v>
       </c>
-      <c r="F345" s="9"/>
-    </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F345" s="9" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="D346" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E346" s="2">
         <v>8</v>
       </c>
-      <c r="F346" s="9"/>
-    </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F346" s="9" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>490</v>
+      </c>
       <c r="D347" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E347" s="2">
         <v>8</v>
       </c>
-      <c r="F347" s="9"/>
-    </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F347" s="9" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>582</v>
+      </c>
       <c r="D348" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E348" s="2">
         <v>8</v>
       </c>
-      <c r="F348" s="9"/>
-    </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F348" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="D349" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E349" s="2">
         <v>8</v>
       </c>
-      <c r="F349" s="9"/>
-    </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F349" s="9" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="D350" s="9" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="E350" s="2">
         <v>8</v>
       </c>
-      <c r="F350" s="9"/>
-    </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F350" s="9" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="D351" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E351" s="2">
         <v>8</v>
       </c>
-      <c r="F351" s="9"/>
-    </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F351" s="9" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D352" s="9" t="s">
         <v>191</v>
       </c>
@@ -11878,7 +12214,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A33:A42 A22:B32 A1:A21 B1:C20 B34:B41 A73 A74:B141 A60 A343:C1048576 B316:B342 A315:A342 A142:A245 A43:B59 A61:B72 A248:A274 B143:B274 C21:C342 A275:B314</xm:sqref>
+          <xm:sqref>A33:A42 A22:B32 A1:A21 B1:C20 B34:B41 A73 A74:B141 A60 A142:A245 A43:B59 A61:B72 A248:A274 B143:B274 A275:B313 C21:C331 A314:A331 B315:B331 A332:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11891,7 +12227,7 @@
   <dimension ref="A1:S464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11982,15 +12318,15 @@
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>21.98581560283688</v>
+        <v>24</v>
       </c>
       <c r="E2" s="8">
         <f>COUNTIF(History!A21:C120,A2)</f>
@@ -12018,15 +12354,15 @@
       </c>
       <c r="K2" s="2">
         <f>COUNTIF(History!A260:C359,A2)</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2">
         <f>COUNTIF(History!A260:A359,A2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M2" s="2">
         <f>L2*100/K2</f>
-        <v>18.518518518518519</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="N2" s="2">
         <f>COUNTIF(History!A360:C399,A2)</f>
@@ -12059,7 +12395,7 @@
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
@@ -12067,7 +12403,7 @@
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>30.434782608695652</v>
+        <v>29.473684210526315</v>
       </c>
       <c r="E3" s="8">
         <f>COUNTIF(History!A8:C107,A3)</f>
@@ -12094,28 +12430,28 @@
         <v>20.588235294117649</v>
       </c>
       <c r="K3" s="2">
-        <f>COUNTIF(History!A203:C302,A3)</f>
-        <v>28</v>
+        <f>COUNTIF(History!A203:C301,A3)</f>
+        <v>27</v>
       </c>
       <c r="L3" s="2">
-        <f>COUNTIF(History!A203:A302,A3)</f>
+        <f>COUNTIF(History!A203:A301,A3)</f>
         <v>7</v>
       </c>
       <c r="M3" s="2">
         <f>L3*100/K3</f>
-        <v>25</v>
+        <v>25.925925925925927</v>
       </c>
       <c r="N3" s="2">
-        <f>COUNTIF(History!A303:C399,A3)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A302:C399,A3)</f>
+        <v>8</v>
       </c>
       <c r="O3" s="2">
-        <f>COUNTIF(History!A303:A399,A3)</f>
+        <f>COUNTIF(History!A302:A399,A3)</f>
         <v>1</v>
       </c>
       <c r="P3" s="2">
         <f>O3*100/N3</f>
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="Q3" s="2" t="e">
         <f>COUNTIF(History!#REF!,A3)</f>
@@ -12136,7 +12472,7 @@
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
@@ -12144,7 +12480,7 @@
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>16.071428571428573</v>
+        <v>14.754098360655737</v>
       </c>
       <c r="E4" s="8">
         <f>COUNTIF(History!A108:C207,A4)</f>
@@ -12159,11 +12495,11 @@
         <v>22.222222222222221</v>
       </c>
       <c r="H4" s="2">
-        <f>COUNTIF(History!A208:C307,A4)</f>
+        <f>COUNTIF(History!A208:C306,A4)</f>
         <v>16</v>
       </c>
       <c r="I4" s="2">
-        <f>COUNTIF(History!A208:A307,A4)</f>
+        <f>COUNTIF(History!A208:A306,A4)</f>
         <v>2</v>
       </c>
       <c r="J4" s="2">
@@ -12171,16 +12507,16 @@
         <v>12.5</v>
       </c>
       <c r="K4" s="2">
-        <f>COUNTIF(History!A306:C399,A4)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A305:C399,A4)</f>
+        <v>7</v>
       </c>
       <c r="L4" s="2">
-        <f>COUNTIF(History!A306:A399,A4)</f>
+        <f>COUNTIF(History!A305:A399,A4)</f>
         <v>1</v>
       </c>
       <c r="M4" s="2">
         <f>L4*100/K4</f>
-        <v>50</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="N4" s="2" t="e">
         <f>COUNTIF(History!#REF!,A4)</f>
@@ -12213,15 +12549,15 @@
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>31.914893617021278</v>
+        <v>32.075471698113205</v>
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(History!A39:C138,A5)</f>
@@ -12248,11 +12584,11 @@
         <v>30.76923076923077</v>
       </c>
       <c r="K5" s="2">
-        <f>COUNTIF(History!A226:C325,A5)</f>
+        <f>COUNTIF(History!A226:C324,A5)</f>
         <v>13</v>
       </c>
       <c r="L5" s="2">
-        <f>COUNTIF(History!A226:A325,A5)</f>
+        <f>COUNTIF(History!A226:A324,A5)</f>
         <v>5</v>
       </c>
       <c r="M5" s="2">
@@ -12260,16 +12596,16 @@
         <v>38.46153846153846</v>
       </c>
       <c r="N5" s="2">
-        <f>COUNTIF(History!A326:C399,A5)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A325:C399,A5)</f>
+        <v>6</v>
       </c>
       <c r="O5" s="2">
-        <f>COUNTIF(History!A326:A399,A5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="e">
+        <f>COUNTIF(History!A325:A399,A5)</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
         <f>O5*100/N5</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Q5" s="2">
         <f>COUNTIF(History!A506:C525,A5)</f>
@@ -12290,7 +12626,7 @@
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
@@ -12298,7 +12634,7 @@
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>63.636363636363633</v>
+        <v>62.222222222222221</v>
       </c>
       <c r="E6" s="8">
         <f>COUNTIF(History!A71:C170,A6)</f>
@@ -12326,7 +12662,7 @@
       </c>
       <c r="K6" s="2">
         <f>COUNTIF(History!A265:C364,A6)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" s="2">
         <f>COUNTIF(History!A265:A364,A6)</f>
@@ -12334,7 +12670,7 @@
       </c>
       <c r="M6" s="2">
         <f>L6*100/K6</f>
-        <v>56.25</v>
+        <v>52.941176470588232</v>
       </c>
       <c r="N6" s="2">
         <f>COUNTIF(History!A365:C399,A6)</f>
@@ -12367,7 +12703,7 @@
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
@@ -12375,7 +12711,7 @@
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>12.195121951219512</v>
+        <v>11.904761904761905</v>
       </c>
       <c r="E7" s="8">
         <f>COUNTIF(History!A2:C101,A7)</f>
@@ -12402,11 +12738,11 @@
         <v>16.666666666666668</v>
       </c>
       <c r="K7" s="2">
-        <f>COUNTIF(History!A207:C306,A7)</f>
+        <f>COUNTIF(History!A207:C305,A7)</f>
         <v>18</v>
       </c>
       <c r="L7" s="2">
-        <f>COUNTIF(History!A207:A306,A7)</f>
+        <f>COUNTIF(History!A207:A305,A7)</f>
         <v>1</v>
       </c>
       <c r="M7" s="2">
@@ -12414,11 +12750,11 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="N7" s="2">
-        <f>COUNTIF(History!A307:C399,A7)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A306:C399,A7)</f>
+        <v>2</v>
       </c>
       <c r="O7" s="2">
-        <f>COUNTIF(History!A307:A399,A7)</f>
+        <f>COUNTIF(History!A306:A399,A7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="2">
@@ -12440,151 +12776,151 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>48.484848484848484</v>
+        <v>60.526315789473685</v>
       </c>
       <c r="E8" s="8">
-        <f>COUNTIF(History!A122:C221,A8)</f>
-        <v>14</v>
+        <f>COUNTIF(History!A7:C106,A8)</f>
+        <v>9</v>
       </c>
       <c r="F8" s="8">
-        <f>COUNTIF(History!A122:A221,A8)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A7:A106,A8)</f>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
         <f>F8*100/E8</f>
-        <v>42.857142857142854</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H8" s="2">
-        <f>COUNTIF(History!A222:C321,A8)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A108:C207,A8)</f>
+        <v>10</v>
       </c>
       <c r="I8" s="2">
-        <f>COUNTIF(History!A222:A321,A8)</f>
+        <f>COUNTIF(History!A108:A207,A8)</f>
         <v>4</v>
       </c>
       <c r="J8" s="2">
         <f>I8*100/H8</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2">
-        <f>COUNTIF(History!A320:C399,A8)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A205:C303,A8)</f>
+        <v>9</v>
       </c>
       <c r="L8" s="2">
-        <f>COUNTIF(History!A320:A399,A8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="e">
+        <f>COUNTIF(History!A205:A303,A8)</f>
+        <v>7</v>
+      </c>
+      <c r="M8" s="2">
         <f>L8*100/K8</f>
-        <v>#DIV/0!</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="N8" s="2">
-        <f>COUNTIF(History!A506:C519,A8)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A304:C399,A8)</f>
+        <v>10</v>
       </c>
       <c r="O8" s="2">
-        <f>COUNTIF(History!A506:A519,A8)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="e">
+        <f>COUNTIF(History!A304:A399,A8)</f>
+        <v>9</v>
+      </c>
+      <c r="P8" s="2">
         <f>O8*100/N8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="2">
-        <f>COUNTIF(History!A520:C619,A8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <f>COUNTIF(History!A520:A619,A8)</f>
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="Q8" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R8" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A8)</f>
+        <v>#REF!</v>
       </c>
       <c r="S8" s="2" t="e">
         <f>R8*100/Q8</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>78.125</v>
+        <v>61.764705882352942</v>
       </c>
       <c r="E9" s="8">
-        <f>COUNTIF(History!A60:C159,A9)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A24:C123,A9)</f>
+        <v>14</v>
       </c>
       <c r="F9" s="8">
-        <f>COUNTIF(History!A60:A159,A9)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A24:A123,A9)</f>
+        <v>8</v>
       </c>
       <c r="G9" s="2">
         <f>F9*100/E9</f>
-        <v>100</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="H9" s="2">
-        <f>COUNTIF(History!A160:C259,A9)</f>
-        <v>13</v>
+        <f>COUNTIF(History!A124:C223,A9)</f>
+        <v>11</v>
       </c>
       <c r="I9" s="2">
-        <f>COUNTIF(History!A160:A259,A9)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A124:A223,A9)</f>
+        <v>7</v>
       </c>
       <c r="J9" s="2">
         <f>I9*100/H9</f>
-        <v>69.230769230769226</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="K9" s="2">
-        <f>COUNTIF(History!A251:C350,A9)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A217:C315,A9)</f>
+        <v>2</v>
       </c>
       <c r="L9" s="2">
-        <f>COUNTIF(History!A251:A350,A9)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A217:A315,A9)</f>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <f>L9*100/K9</f>
-        <v>85.714285714285708</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <f>COUNTIF(History!A351:C399,A9)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A316:C399,A9)</f>
+        <v>5</v>
       </c>
       <c r="O9" s="2">
-        <f>COUNTIF(History!A351:A399,A9)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="e">
+        <f>COUNTIF(History!A316:A399,A9)</f>
+        <v>4</v>
+      </c>
+      <c r="P9" s="2">
         <f>O9*100/N9</f>
-        <v>#DIV/0!</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2">
-        <f>COUNTIF(History!A506:C550,A9)</f>
+        <f>COUNTIF(History!A506:C516,A9)</f>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f>COUNTIF(History!A506:A550,A9)</f>
+        <f>COUNTIF(History!A506:A516,A9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="2" t="e">
@@ -12594,151 +12930,151 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>56.25</v>
+        <v>75.757575757575751</v>
       </c>
       <c r="E10" s="8">
-        <f>COUNTIF(History!A7:C106,A10)</f>
+        <f>COUNTIF(History!A60:C159,A10)</f>
         <v>9</v>
       </c>
       <c r="F10" s="8">
-        <f>COUNTIF(History!A7:A106,A10)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A60:A159,A10)</f>
+        <v>9</v>
       </c>
       <c r="G10" s="2">
         <f>F10*100/E10</f>
-        <v>33.333333333333336</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2">
-        <f>COUNTIF(History!A108:C207,A10)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A160:C259,A10)</f>
+        <v>13</v>
       </c>
       <c r="I10" s="2">
-        <f>COUNTIF(History!A108:A207,A10)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A160:A259,A10)</f>
+        <v>9</v>
       </c>
       <c r="J10" s="2">
         <f>I10*100/H10</f>
-        <v>40</v>
+        <v>69.230769230769226</v>
       </c>
       <c r="K10" s="2">
-        <f>COUNTIF(History!A205:C304,A10)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A251:C350,A10)</f>
+        <v>8</v>
       </c>
       <c r="L10" s="2">
-        <f>COUNTIF(History!A205:A304,A10)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A251:A350,A10)</f>
+        <v>6</v>
       </c>
       <c r="M10" s="2">
         <f>L10*100/K10</f>
-        <v>77.777777777777771</v>
+        <v>75</v>
       </c>
       <c r="N10" s="2">
-        <f>COUNTIF(History!A305:C399,A10)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A351:C399,A10)</f>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <f>COUNTIF(History!A305:A399,A10)</f>
-        <v>4</v>
-      </c>
-      <c r="P10" s="2">
+        <f>COUNTIF(History!A351:A399,A10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="e">
         <f>O10*100/N10</f>
-        <v>100</v>
-      </c>
-      <c r="Q10" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R10" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A10)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>COUNTIF(History!A506:C550,A10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <f>COUNTIF(History!A506:A550,A10)</f>
+        <v>0</v>
       </c>
       <c r="S10" s="2" t="e">
         <f>R10*100/Q10</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
-        <v>60</v>
+        <v>48.484848484848484</v>
       </c>
       <c r="E11" s="8">
-        <f>COUNTIF(History!A24:C123,A11)</f>
+        <f>COUNTIF(History!A122:C221,A11)</f>
         <v>14</v>
       </c>
       <c r="F11" s="8">
-        <f>COUNTIF(History!A24:A123,A11)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A122:A221,A11)</f>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
         <f>F11*100/E11</f>
-        <v>57.142857142857146</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="H11" s="2">
-        <f>COUNTIF(History!A124:C223,A11)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A222:C320,A11)</f>
+        <v>8</v>
       </c>
       <c r="I11" s="2">
-        <f>COUNTIF(History!A124:A223,A11)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A222:A320,A11)</f>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
         <f>I11*100/H11</f>
-        <v>63.636363636363633</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
-        <f>COUNTIF(History!A217:C316,A11)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A319:C399,A11)</f>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <f>COUNTIF(History!A217:A316,A11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+        <f>COUNTIF(History!A319:A399,A11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="e">
         <f>L11*100/K11</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N11" s="2">
-        <f>COUNTIF(History!A317:C399,A11)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A506:C519,A11)</f>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>COUNTIF(History!A317:A399,A11)</f>
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
+        <f>COUNTIF(History!A506:A519,A11)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="e">
         <f>O11*100/N11</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q11" s="2">
-        <f>COUNTIF(History!A506:C516,A11)</f>
+        <f>COUNTIF(History!A520:C619,A11)</f>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f>COUNTIF(History!A506:A516,A11)</f>
+        <f>COUNTIF(History!A520:A619,A11)</f>
         <v>0</v>
       </c>
       <c r="S11" s="2" t="e">
@@ -12748,156 +13084,156 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>32.142857142857146</v>
+        <v>37.931034482758619</v>
       </c>
       <c r="E12" s="8">
-        <f>COUNTIF(History!A11:C110,A12)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A74:C173,A12)</f>
+        <v>6</v>
       </c>
       <c r="F12" s="8">
-        <f>COUNTIF(History!A11:A110,A12)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A74:A173,A12)</f>
+        <v>3</v>
       </c>
       <c r="G12" s="2">
         <f>F12*100/E12</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2">
-        <f>COUNTIF(History!A112:C211,A12)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A174:C273,A12)</f>
+        <v>7</v>
       </c>
       <c r="I12" s="2">
-        <f>COUNTIF(History!A112:A211,A12)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A174:A273,A12)</f>
+        <v>3</v>
       </c>
       <c r="J12" s="2">
         <f>I12*100/H12</f>
-        <v>45.454545454545453</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="K12" s="2">
-        <f>COUNTIF(History!A202:C301,A12)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A268:C367,A12)</f>
+        <v>9</v>
       </c>
       <c r="L12" s="2">
-        <f>COUNTIF(History!A202:A301,A12)</f>
+        <f>COUNTIF(History!A268:A367,A12)</f>
         <v>1</v>
       </c>
       <c r="M12" s="2">
         <f>L12*100/K12</f>
-        <v>16.666666666666668</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="N12" s="2">
-        <f>COUNTIF(History!A302:C399,A12)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A368:C399,A12)</f>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f>COUNTIF(History!A302:A399,A12)</f>
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
+        <f>COUNTIF(History!A368:A399,A12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="e">
         <f>O12*100/N12</f>
-        <v>50</v>
-      </c>
-      <c r="Q12" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R12" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A12)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>COUNTIF(History!A506:C567,A12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <f>COUNTIF(History!A506:A567,A12)</f>
+        <v>0</v>
       </c>
       <c r="S12" s="2" t="e">
         <f>R12*100/Q12</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <f>C13*100/B13</f>
-        <v>40.74074074074074</v>
+        <v>34.482758620689658</v>
       </c>
       <c r="E13" s="8">
-        <f>COUNTIF(History!A74:C173,A13)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A11:C110,A13)</f>
+        <v>10</v>
       </c>
       <c r="F13" s="8">
-        <f>COUNTIF(History!A74:A173,A13)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A11:A110,A13)</f>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
         <f>F13*100/E13</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2">
-        <f>COUNTIF(History!A174:C273,A13)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A112:C211,A13)</f>
+        <v>11</v>
       </c>
       <c r="I13" s="2">
-        <f>COUNTIF(History!A174:A273,A13)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A112:A211,A13)</f>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
         <f>I13*100/H13</f>
-        <v>42.857142857142854</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="K13" s="2">
-        <f>COUNTIF(History!A268:C367,A13)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A202:C300,A13)</f>
+        <v>6</v>
       </c>
       <c r="L13" s="2">
-        <f>COUNTIF(History!A268:A367,A13)</f>
+        <f>COUNTIF(History!A202:A300,A13)</f>
         <v>1</v>
       </c>
       <c r="M13" s="2">
         <f>L13*100/K13</f>
-        <v>14.285714285714286</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="N13" s="2">
-        <f>COUNTIF(History!A368:C399,A13)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A301:C399,A13)</f>
+        <v>3</v>
       </c>
       <c r="O13" s="2">
-        <f>COUNTIF(History!A368:A399,A13)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="e">
+        <f>COUNTIF(History!A301:A399,A13)</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
         <f>O13*100/N13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="2">
-        <f>COUNTIF(History!A506:C567,A13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <f>COUNTIF(History!A506:A567,A13)</f>
-        <v>0</v>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="Q13" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A13)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R13" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A13)</f>
+        <v>#REF!</v>
       </c>
       <c r="S13" s="2" t="e">
         <f>R13*100/Q13</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -12906,7 +13242,7 @@
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
@@ -12914,7 +13250,7 @@
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>26.923076923076923</v>
+        <v>25.925925925925927</v>
       </c>
       <c r="E14" s="8">
         <f>COUNTIF(History!A403:C502,A14)</f>
@@ -12971,15 +13307,15 @@
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
         <f>C15*100/B15</f>
-        <v>36.363636363636367</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8">
         <f>COUNTIF(History!A32:C131,A15)</f>
@@ -13006,11 +13342,11 @@
         <v>37.5</v>
       </c>
       <c r="K15" s="2">
-        <f>COUNTIF(History!A221:C320,A15)</f>
+        <f>COUNTIF(History!A221:C319,A15)</f>
         <v>4</v>
       </c>
       <c r="L15" s="2">
-        <f>COUNTIF(History!A221:A320,A15)</f>
+        <f>COUNTIF(History!A221:A319,A15)</f>
         <v>3</v>
       </c>
       <c r="M15" s="2">
@@ -13018,16 +13354,16 @@
         <v>75</v>
       </c>
       <c r="N15" s="2">
-        <f>COUNTIF(History!A321:C399,A15)</f>
+        <f>COUNTIF(History!A320:C399,A15)</f>
+        <v>4</v>
+      </c>
+      <c r="O15" s="2">
+        <f>COUNTIF(History!A320:A399,A15)</f>
         <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <f>COUNTIF(History!A321:A399,A15)</f>
-        <v>0</v>
       </c>
       <c r="P15" s="2">
         <f>O15*100/N15</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="2">
         <f>COUNTIF(History!A506:C520,A15)</f>
@@ -13048,15 +13384,15 @@
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>28.571428571428573</v>
+        <v>29.166666666666668</v>
       </c>
       <c r="E16" s="8">
         <f>COUNTIF(History!A91:C190,A16)</f>
@@ -13084,15 +13420,15 @@
       </c>
       <c r="K16" s="2">
         <f>COUNTIF(History!A288:C387,A16)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L16" s="2">
         <f>COUNTIF(History!A288:A387,A16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="2">
         <f>L16*100/K16</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N16" s="2">
         <f>COUNTIF(History!A388:C399,A16)</f>
@@ -13121,38 +13457,38 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <f>C17*100/B17</f>
-        <v>15</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="E17" s="8">
-        <f>COUNTIF(History!A16:C115,A17)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A80:C179,A17)</f>
+        <v>6</v>
       </c>
       <c r="F17" s="8">
-        <f>COUNTIF(History!A16:A115,A17)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A80:A179,A17)</f>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <f>F17*100/E17</f>
-        <v>28.571428571428573</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H17" s="2">
-        <f>COUNTIF(History!A110:C209,A17)</f>
+        <f>COUNTIF(History!A180:C279,A17)</f>
         <v>8</v>
       </c>
       <c r="I17" s="2">
-        <f>COUNTIF(History!A110:A209,A17)</f>
+        <f>COUNTIF(History!A180:A279,A17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="2">
@@ -13160,11 +13496,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <f>COUNTIF(History!A213:C312,A17)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A275:C374,A17)</f>
+        <v>8</v>
       </c>
       <c r="L17" s="2">
-        <f>COUNTIF(History!A213:A312,A17)</f>
+        <f>COUNTIF(History!A275:A374,A17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="2">
@@ -13172,11 +13508,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <f>COUNTIF(History!A313:C399,A17)</f>
+        <f>COUNTIF(History!A375:C399,A17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f>COUNTIF(History!A313:A399,A17)</f>
+        <f>COUNTIF(History!A375:A399,A17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="2" t="e">
@@ -13184,11 +13520,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="2">
-        <f>COUNTIF(History!A506:C512,A17)</f>
+        <f>COUNTIF(History!A506:C574,A17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f>COUNTIF(History!A506:A512,A17)</f>
+        <f>COUNTIF(History!A506:A574,A17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="2" t="e">
@@ -13198,38 +13534,38 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
         <f>C18*100/B18</f>
-        <v>5</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="E18" s="8">
-        <f>COUNTIF(History!A80:C179,A18)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A16:C115,A18)</f>
+        <v>7</v>
       </c>
       <c r="F18" s="8">
-        <f>COUNTIF(History!A80:A179,A18)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A16:A115,A18)</f>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
         <f>F18*100/E18</f>
-        <v>16.666666666666668</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="H18" s="2">
-        <f>COUNTIF(History!A180:C279,A18)</f>
+        <f>COUNTIF(History!A110:C209,A18)</f>
         <v>8</v>
       </c>
       <c r="I18" s="2">
-        <f>COUNTIF(History!A180:A279,A18)</f>
+        <f>COUNTIF(History!A110:A209,A18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="2">
@@ -13237,11 +13573,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <f>COUNTIF(History!A275:C374,A18)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A213:C311,A18)</f>
+        <v>3</v>
       </c>
       <c r="L18" s="2">
-        <f>COUNTIF(History!A275:A374,A18)</f>
+        <f>COUNTIF(History!A213:A311,A18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="2">
@@ -13249,23 +13585,23 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <f>COUNTIF(History!A375:C399,A18)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A312:C399,A18)</f>
+        <v>2</v>
       </c>
       <c r="O18" s="2">
-        <f>COUNTIF(History!A375:A399,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="e">
+        <f>COUNTIF(History!A312:A399,A18)</f>
+        <v>2</v>
+      </c>
+      <c r="P18" s="2">
         <f>O18*100/N18</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="2">
-        <f>COUNTIF(History!A506:C574,A18)</f>
+        <f>COUNTIF(History!A506:C512,A18)</f>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>COUNTIF(History!A506:A574,A18)</f>
+        <f>COUNTIF(History!A506:A512,A18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="2" t="e">
@@ -13279,7 +13615,7 @@
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
@@ -13287,7 +13623,7 @@
       </c>
       <c r="D19" s="2">
         <f>C19*100/B19</f>
-        <v>33.333333333333336</v>
+        <v>30</v>
       </c>
       <c r="E19" s="8">
         <f>COUNTIF(History!A12:C111,A19)</f>
@@ -13314,11 +13650,11 @@
         <v>20</v>
       </c>
       <c r="K19" s="2">
-        <f>COUNTIF(History!A231:C330,A19)</f>
+        <f>COUNTIF(History!A231:C329,A19)</f>
         <v>9</v>
       </c>
       <c r="L19" s="2">
-        <f>COUNTIF(History!A231:A330,A19)</f>
+        <f>COUNTIF(History!A231:A329,A19)</f>
         <v>4</v>
       </c>
       <c r="M19" s="2">
@@ -13326,16 +13662,16 @@
         <v>44.444444444444443</v>
       </c>
       <c r="N19" s="2">
-        <f>COUNTIF(History!A331:C399,A19)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A330:C399,A19)</f>
+        <v>2</v>
       </c>
       <c r="O19" s="2">
-        <f>COUNTIF(History!A331:A399,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="e">
+        <f>COUNTIF(History!A330:A399,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
         <f>O19*100/N19</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <f>COUNTIF(History!A506:C530,A19)</f>
@@ -13356,7 +13692,7 @@
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
@@ -13364,7 +13700,7 @@
       </c>
       <c r="D20" s="2">
         <f>C20*100/B20</f>
-        <v>16.666666666666668</v>
+        <v>15</v>
       </c>
       <c r="E20" s="8">
         <f>COUNTIF(History!A9:C108,A20)</f>
@@ -13391,11 +13727,11 @@
         <v>12.5</v>
       </c>
       <c r="K20" s="2">
-        <f>COUNTIF(History!A204:C303,A20)</f>
+        <f>COUNTIF(History!A204:C302,A20)</f>
         <v>6</v>
       </c>
       <c r="L20" s="2">
-        <f>COUNTIF(History!A204:A303,A20)</f>
+        <f>COUNTIF(History!A204:A302,A20)</f>
         <v>1</v>
       </c>
       <c r="M20" s="2">
@@ -13403,11 +13739,11 @@
         <v>16.666666666666668</v>
       </c>
       <c r="N20" s="2">
-        <f>COUNTIF(History!A304:C399,A20)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A303:C399,A20)</f>
+        <v>4</v>
       </c>
       <c r="O20" s="2">
-        <f>COUNTIF(History!A304:A399,A20)</f>
+        <f>COUNTIF(History!A303:A399,A20)</f>
         <v>0</v>
       </c>
       <c r="P20" s="2">
@@ -13429,11 +13765,11 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
@@ -13441,50 +13777,50 @@
       </c>
       <c r="D21" s="2">
         <f>C21*100/B21</f>
-        <v>41.176470588235297</v>
+        <v>36.842105263157897</v>
       </c>
       <c r="E21" s="8">
-        <f>COUNTIF(History!A29:C128,A21)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A52:C151,A21)</f>
+        <v>6</v>
       </c>
       <c r="F21" s="8">
-        <f>COUNTIF(History!A29:A128,A21)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A52:A151,A21)</f>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
         <f>F21*100/E21</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>COUNTIF(History!A129:C228,A21)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A152:C251,A21)</f>
+        <v>7</v>
       </c>
       <c r="I21" s="2">
-        <f>COUNTIF(History!A129:A228,A21)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A152:A251,A21)</f>
+        <v>5</v>
       </c>
       <c r="J21" s="2">
         <f>I21*100/H21</f>
-        <v>37.5</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="K21" s="2">
-        <f>COUNTIF(History!A228:C327,A21)</f>
+        <f>COUNTIF(History!A241:C340,A21)</f>
+        <v>5</v>
+      </c>
+      <c r="L21" s="2">
+        <f>COUNTIF(History!A241:A340,A21)</f>
         <v>3</v>
-      </c>
-      <c r="L21" s="2">
-        <f>COUNTIF(History!A228:A327,A21)</f>
-        <v>0</v>
       </c>
       <c r="M21" s="2">
         <f>L21*100/K21</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N21" s="2">
-        <f>COUNTIF(History!A328:C399,A21)</f>
+        <f>COUNTIF(History!A341:C399,A21)</f>
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f>COUNTIF(History!A328:A399,A21)</f>
+        <f>COUNTIF(History!A341:A399,A21)</f>
         <v>0</v>
       </c>
       <c r="P21" s="2" t="e">
@@ -13492,11 +13828,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="2">
-        <f>COUNTIF(History!A506:C527,A21)</f>
+        <f>COUNTIF(History!A506:C540,A21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>COUNTIF(History!A506:A527,A21)</f>
+        <f>COUNTIF(History!A506:A540,A21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="2" t="e">
@@ -13506,7 +13842,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
@@ -13514,54 +13850,54 @@
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
         <f>C22*100/B22</f>
-        <v>35.294117647058826</v>
+        <v>41.176470588235297</v>
       </c>
       <c r="E22" s="8">
-        <f>COUNTIF(History!A52:C151,A22)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A29:C128,A22)</f>
+        <v>5</v>
       </c>
       <c r="F22" s="8">
-        <f>COUNTIF(History!A52:A151,A22)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A29:A128,A22)</f>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
         <f>F22*100/E22</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H22" s="2">
-        <f>COUNTIF(History!A152:C251,A22)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A129:C228,A22)</f>
+        <v>8</v>
       </c>
       <c r="I22" s="2">
-        <f>COUNTIF(History!A152:A251,A22)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A129:A228,A22)</f>
+        <v>3</v>
       </c>
       <c r="J22" s="2">
         <f>I22*100/H22</f>
-        <v>71.428571428571431</v>
+        <v>37.5</v>
       </c>
       <c r="K22" s="2">
-        <f>COUNTIF(History!A241:C340,A22)</f>
+        <f>COUNTIF(History!A228:C326,A22)</f>
         <v>3</v>
       </c>
       <c r="L22" s="2">
-        <f>COUNTIF(History!A241:A340,A22)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A228:A326,A22)</f>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <f>L22*100/K22</f>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
-        <f>COUNTIF(History!A341:C399,A22)</f>
+        <f>COUNTIF(History!A327:C399,A22)</f>
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f>COUNTIF(History!A341:A399,A22)</f>
+        <f>COUNTIF(History!A327:A399,A22)</f>
         <v>0</v>
       </c>
       <c r="P22" s="2" t="e">
@@ -13569,11 +13905,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="2">
-        <f>COUNTIF(History!A506:C540,A22)</f>
+        <f>COUNTIF(History!A506:C527,A22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>COUNTIF(History!A506:A540,A22)</f>
+        <f>COUNTIF(History!A506:A527,A22)</f>
         <v>0</v>
       </c>
       <c r="S22" s="2" t="e">
@@ -13583,62 +13919,62 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <f>C23*100/B23</f>
-        <v>78.571428571428569</v>
+        <v>20</v>
       </c>
       <c r="E23" s="8">
-        <f>COUNTIF(History!A23:C122,A23)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A69:C168,A23)</f>
+        <v>4</v>
       </c>
       <c r="F23" s="8">
-        <f>COUNTIF(History!A23:A122,A23)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A69:A168,A23)</f>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <f>F23*100/E23</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <f>COUNTIF(History!A123:C222,A23)</f>
+        <f>COUNTIF(History!A169:C268,A23)</f>
         <v>2</v>
       </c>
       <c r="I23" s="2">
-        <f>COUNTIF(History!A123:A222,A23)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A169:A268,A23)</f>
+        <v>1</v>
       </c>
       <c r="J23" s="2">
         <f>I23*100/H23</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K23" s="2">
-        <f>COUNTIF(History!A211:C310,A23)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A263:C362,A23)</f>
+        <v>5</v>
       </c>
       <c r="L23" s="2">
-        <f>COUNTIF(History!A211:A310,A23)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A263:A362,A23)</f>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <f>L23*100/K23</f>
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N23" s="2">
-        <f>COUNTIF(History!A311:C399,A23)</f>
+        <f>COUNTIF(History!A363:C399,A23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f>COUNTIF(History!A311:A399,A23)</f>
+        <f>COUNTIF(History!A363:A399,A23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="e">
@@ -13646,11 +13982,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="2">
-        <f>COUNTIF(History!A506:C510,A23)</f>
+        <f>COUNTIF(History!A506:C562,A23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>COUNTIF(History!A506:A510,A23)</f>
+        <f>COUNTIF(History!A506:A562,A23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="2" t="e">
@@ -13660,7 +13996,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
@@ -13668,54 +14004,54 @@
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
         <f>C24*100/B24</f>
-        <v>42.857142857142854</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="E24" s="8">
-        <f>COUNTIF(History!A30:C129,A24)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A23:C122,A24)</f>
+        <v>5</v>
       </c>
       <c r="F24" s="8">
-        <f>COUNTIF(History!A30:A129,A24)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A23:A122,A24)</f>
+        <v>4</v>
       </c>
       <c r="G24" s="2">
         <f>F24*100/E24</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H24" s="2">
-        <f>COUNTIF(History!A130:C229,A24)</f>
+        <f>COUNTIF(History!A123:C222,A24)</f>
         <v>2</v>
       </c>
       <c r="I24" s="2">
-        <f>COUNTIF(History!A130:A229,A24)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A123:A222,A24)</f>
+        <v>2</v>
       </c>
       <c r="J24" s="2">
         <f>I24*100/H24</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="2">
-        <f>COUNTIF(History!A224:C323,A24)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A211:C309,A24)</f>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
-        <f>COUNTIF(History!A224:A323,A24)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A211:A309,A24)</f>
+        <v>3</v>
       </c>
       <c r="M24" s="2">
         <f>L24*100/K24</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N24" s="2">
-        <f>COUNTIF(History!A324:C399,A24)</f>
+        <f>COUNTIF(History!A310:C399,A24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f>COUNTIF(History!A324:A399,A24)</f>
+        <f>COUNTIF(History!A310:A399,A24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="e">
@@ -13723,11 +14059,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="2">
-        <f>COUNTIF(History!A506:C523,A24)</f>
+        <f>COUNTIF(History!A506:C510,A24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <f>COUNTIF(History!A506:A523,A24)</f>
+        <f>COUNTIF(History!A506:A510,A24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="2" t="e">
@@ -13737,7 +14073,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
@@ -13745,18 +14081,18 @@
       </c>
       <c r="C25" s="8">
         <f>COUNTIF(History!A:A,A25)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2">
         <f>C25*100/B25</f>
-        <v>14.285714285714286</v>
+        <v>50</v>
       </c>
       <c r="E25" s="8">
-        <f>COUNTIF(History!A69:C168,A25)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A6:C105,A25)</f>
+        <v>2</v>
       </c>
       <c r="F25" s="8">
-        <f>COUNTIF(History!A69:A168,A25)</f>
+        <f>COUNTIF(History!A6:A105,A25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="2">
@@ -13764,47 +14100,47 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <f>COUNTIF(History!A169:C268,A25)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A105:C204,A25)</f>
+        <v>5</v>
       </c>
       <c r="I25" s="2">
-        <f>COUNTIF(History!A169:A268,A25)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A105:A204,A25)</f>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
         <f>I25*100/H25</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
-        <f>COUNTIF(History!A263:C362,A25)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A208:C306,A25)</f>
+        <v>6</v>
       </c>
       <c r="L25" s="2">
-        <f>COUNTIF(History!A263:A362,A25)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A208:A306,A25)</f>
+        <v>6</v>
       </c>
       <c r="M25" s="2">
         <f>L25*100/K25</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N25" s="2">
-        <f>COUNTIF(History!A363:C399,A25)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A307:C399,A25)</f>
+        <v>2</v>
       </c>
       <c r="O25" s="2">
-        <f>COUNTIF(History!A363:A399,A25)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="e">
+        <f>COUNTIF(History!A307:A399,A25)</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
         <f>O25*100/N25</f>
-        <v>#DIV/0!</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="2">
-        <f>COUNTIF(History!A506:C562,A25)</f>
+        <f>COUNTIF(History!A506:C507,A25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>COUNTIF(History!A506:A562,A25)</f>
+        <f>COUNTIF(History!A506:A507,A25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="2" t="e">
@@ -13814,38 +14150,38 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="8">
         <f>COUNTIF(History!A:A,A26)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2">
         <f>C26*100/B26</f>
-        <v>53.846153846153847</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="E26" s="8">
-        <f>COUNTIF(History!A6:C105,A26)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A30:C129,A26)</f>
+        <v>6</v>
       </c>
       <c r="F26" s="8">
-        <f>COUNTIF(History!A6:A105,A26)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A30:A129,A26)</f>
+        <v>3</v>
       </c>
       <c r="G26" s="2">
         <f>F26*100/E26</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTIF(History!A105:C204,A26)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A130:C229,A26)</f>
+        <v>2</v>
       </c>
       <c r="I26" s="2">
-        <f>COUNTIF(History!A105:A204,A26)</f>
+        <f>COUNTIF(History!A130:A229,A26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="2">
@@ -13853,35 +14189,35 @@
         <v>0</v>
       </c>
       <c r="K26" s="2">
-        <f>COUNTIF(History!A208:C307,A26)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A224:C322,A26)</f>
+        <v>2</v>
       </c>
       <c r="L26" s="2">
-        <f>COUNTIF(History!A208:A307,A26)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A224:A322,A26)</f>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <f>L26*100/K26</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N26" s="2">
-        <f>COUNTIF(History!A308:C399,A26)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A323:C399,A26)</f>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f>COUNTIF(History!A308:A399,A26)</f>
-        <v>1</v>
-      </c>
-      <c r="P26" s="2">
+        <f>COUNTIF(History!A323:A399,A26)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="e">
         <f>O26*100/N26</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="2">
-        <f>COUNTIF(History!A506:C507,A26)</f>
+        <f>COUNTIF(History!A506:C523,A26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <f>COUNTIF(History!A506:A507,A26)</f>
+        <f>COUNTIF(History!A506:A523,A26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="e">
@@ -13895,7 +14231,7 @@
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
@@ -13931,7 +14267,7 @@
       </c>
       <c r="K27" s="2">
         <f>COUNTIF(History!A274:C373,A27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L27" s="2">
         <f>COUNTIF(History!A274:A373,A27)</f>
@@ -13972,15 +14308,15 @@
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" s="8">
         <f>COUNTIF(History!A:A,A28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2">
         <f>C28*100/B28</f>
-        <v>9.0909090909090917</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="E28" s="8">
         <f>COUNTIF(History!A113:C212,A28)</f>
@@ -13995,11 +14331,11 @@
         <v>50</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A213:C312,A28)</f>
+        <f>COUNTIF(History!A213:C311,A28)</f>
         <v>4</v>
       </c>
       <c r="I28" s="2">
-        <f>COUNTIF(History!A213:A312,A28)</f>
+        <f>COUNTIF(History!A213:A311,A28)</f>
         <v>0</v>
       </c>
       <c r="J28" s="2">
@@ -14007,16 +14343,16 @@
         <v>0</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A311:C399,A28)</f>
+        <f>COUNTIF(History!A310:C399,A28)</f>
+        <v>3</v>
+      </c>
+      <c r="L28" s="2">
+        <f>COUNTIF(History!A310:A399,A28)</f>
         <v>1</v>
-      </c>
-      <c r="L28" s="2">
-        <f>COUNTIF(History!A311:A399,A28)</f>
-        <v>0</v>
       </c>
       <c r="M28" s="2">
         <f>L28*100/K28</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N28" s="2">
         <f>COUNTIF(History!A506:C510,A28)</f>
@@ -14045,7 +14381,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
@@ -14053,54 +14389,54 @@
       </c>
       <c r="C29" s="8">
         <f>COUNTIF(History!A:A,A29)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
         <f>C29*100/B29</f>
-        <v>22.222222222222221</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="E29" s="8">
-        <f>COUNTIF(History!A75:C174,A29)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A86:C185,A29)</f>
+        <v>3</v>
       </c>
       <c r="F29" s="8">
-        <f>COUNTIF(History!A75:A174,A29)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A86:A185,A29)</f>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
         <f>F29*100/E29</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H29" s="2">
-        <f>COUNTIF(History!A175:C274,A29)</f>
+        <f>COUNTIF(History!A186:C285,A29)</f>
         <v>3</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIF(History!A175:A274,A29)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A186:A285,A29)</f>
+        <v>3</v>
       </c>
       <c r="J29" s="2">
         <f>I29*100/H29</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K29" s="2">
-        <f>COUNTIF(History!A269:C368,A29)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A283:C382,A29)</f>
+        <v>3</v>
       </c>
       <c r="L29" s="2">
-        <f>COUNTIF(History!A269:A368,A29)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A283:A382,A29)</f>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <f>L29*100/K29</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <f>COUNTIF(History!A369:C399,A29)</f>
+        <f>COUNTIF(History!A383:C399,A29)</f>
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f>COUNTIF(History!A369:A399,A29)</f>
+        <f>COUNTIF(History!A383:A399,A29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="e">
@@ -14108,11 +14444,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="2">
-        <f>COUNTIF(History!A506:C568,A29)</f>
+        <f>COUNTIF(History!A506:C582,A29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f>COUNTIF(History!A506:A568,A29)</f>
+        <f>COUNTIF(History!A506:A582,A29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="2" t="e">
@@ -14122,62 +14458,62 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="8">
         <f>COUNTIF(History!A:A,A30)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
         <f>C30*100/B30</f>
-        <v>57.142857142857146</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="E30" s="8">
-        <f>COUNTIF(History!A86:C185,A30)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A75:C174,A30)</f>
+        <v>2</v>
       </c>
       <c r="F30" s="8">
-        <f>COUNTIF(History!A86:A185,A30)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A75:A174,A30)</f>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
         <f>F30*100/E30</f>
-        <v>33.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
-        <f>COUNTIF(History!A186:C285,A30)</f>
+        <f>COUNTIF(History!A175:C274,A30)</f>
         <v>3</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIF(History!A186:A285,A30)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A175:A274,A30)</f>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
         <f>I30*100/H30</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
-        <f>COUNTIF(History!A283:C382,A30)</f>
+        <f>COUNTIF(History!A269:C368,A30)</f>
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <f>COUNTIF(History!A283:A382,A30)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A269:A368,A30)</f>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <f>L30*100/K30</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N30" s="2">
-        <f>COUNTIF(History!A383:C399,A30)</f>
+        <f>COUNTIF(History!A369:C399,A30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f>COUNTIF(History!A383:A399,A30)</f>
+        <f>COUNTIF(History!A369:A399,A30)</f>
         <v>0</v>
       </c>
       <c r="P30" s="2" t="e">
@@ -14185,11 +14521,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="2">
-        <f>COUNTIF(History!A506:C582,A30)</f>
+        <f>COUNTIF(History!A506:C568,A30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f>COUNTIF(History!A506:A582,A30)</f>
+        <f>COUNTIF(History!A506:A568,A30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="2" t="e">
@@ -14203,7 +14539,7 @@
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="8">
         <f>COUNTIF(History!A:A,A31)</f>
@@ -14211,7 +14547,7 @@
       </c>
       <c r="D31" s="2">
         <f>C31*100/B31</f>
-        <v>50</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="E31" s="8">
         <f>COUNTIF(History!A17:C116,A31)</f>
@@ -14239,7 +14575,7 @@
       </c>
       <c r="K31" s="2">
         <f>COUNTIF(History!A238:C337,A31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="2">
         <f>COUNTIF(History!A238:A337,A31)</f>
@@ -14315,11 +14651,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="2">
-        <f>COUNTIF(History!A210:C309,A32)</f>
+        <f>COUNTIF(History!A210:C308,A32)</f>
         <v>2</v>
       </c>
       <c r="L32" s="2">
-        <f>COUNTIF(History!A210:A309,A32)</f>
+        <f>COUNTIF(History!A210:A308,A32)</f>
         <v>1</v>
       </c>
       <c r="M32" s="2">
@@ -14327,11 +14663,11 @@
         <v>50</v>
       </c>
       <c r="N32" s="2">
-        <f>COUNTIF(History!A310:C399,A32)</f>
+        <f>COUNTIF(History!A309:C399,A32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f>COUNTIF(History!A310:A399,A32)</f>
+        <f>COUNTIF(History!A309:A399,A32)</f>
         <v>0</v>
       </c>
       <c r="P32" s="2" t="e">
@@ -14353,7 +14689,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
@@ -14368,11 +14704,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="8">
-        <f>COUNTIF(History!A33:C132,A33)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A3:C102,A33)</f>
+        <v>1</v>
       </c>
       <c r="F33" s="8">
-        <f>COUNTIF(History!A33:A132,A33)</f>
+        <f>COUNTIF(History!A3:A102,A33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2">
@@ -14380,23 +14716,23 @@
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <f>COUNTIF(History!A133:C232,A33)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A104:C203,A33)</f>
+        <v>1</v>
       </c>
       <c r="I33" s="2">
-        <f>COUNTIF(History!A133:A232,A33)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="e">
+        <f>COUNTIF(History!A104:A203,A33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
         <f>I33*100/H33</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2">
-        <f>COUNTIF(History!A223:C322,A33)</f>
+        <f>COUNTIF(History!A206:C304,A33)</f>
         <v>2</v>
       </c>
       <c r="L33" s="2">
-        <f>COUNTIF(History!A223:A322,A33)</f>
+        <f>COUNTIF(History!A206:A304,A33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="2">
@@ -14404,33 +14740,33 @@
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <f>COUNTIF(History!A323:C399,A33)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A305:C399,A33)</f>
+        <v>2</v>
       </c>
       <c r="O33" s="2">
-        <f>COUNTIF(History!A323:A399,A33)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="2" t="e">
+        <f>COUNTIF(History!A305:A399,A33)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
         <f>O33*100/N33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" s="2">
-        <f>COUNTIF(History!A506:C522,A33)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="2">
-        <f>COUNTIF(History!A506:A522,A33)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R33" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A33)</f>
+        <v>#REF!</v>
       </c>
       <c r="S33" s="2" t="e">
         <f>R33*100/Q33</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -14445,11 +14781,11 @@
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <f>COUNTIF(History!A3:C102,A34)</f>
+        <f>COUNTIF(History!A43:C142,A34)</f>
         <v>1</v>
       </c>
       <c r="F34" s="8">
-        <f>COUNTIF(History!A3:A102,A34)</f>
+        <f>COUNTIF(History!A43:A142,A34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
@@ -14457,11 +14793,11 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <f>COUNTIF(History!A104:C203,A34)</f>
+        <f>COUNTIF(History!A143:C242,A34)</f>
         <v>1</v>
       </c>
       <c r="I34" s="2">
-        <f>COUNTIF(History!A104:A203,A34)</f>
+        <f>COUNTIF(History!A143:A242,A34)</f>
         <v>0</v>
       </c>
       <c r="J34" s="2">
@@ -14469,11 +14805,11 @@
         <v>0</v>
       </c>
       <c r="K34" s="2">
-        <f>COUNTIF(History!A206:C305,A34)</f>
+        <f>COUNTIF(History!A235:C334,A34)</f>
         <v>2</v>
       </c>
       <c r="L34" s="2">
-        <f>COUNTIF(History!A206:A305,A34)</f>
+        <f>COUNTIF(History!A235:A334,A34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="2">
@@ -14481,33 +14817,33 @@
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <f>COUNTIF(History!A306:C399,A34)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A335:C399,A34)</f>
+        <v>1</v>
       </c>
       <c r="O34" s="2">
-        <f>COUNTIF(History!A306:A399,A34)</f>
+        <f>COUNTIF(History!A335:A399,A34)</f>
         <v>0</v>
       </c>
       <c r="P34" s="2">
         <f>O34*100/N34</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A34)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R34" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A34)</f>
-        <v>#REF!</v>
+      <c r="Q34" s="2">
+        <f>COUNTIF(History!A506:C534,A34)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <f>COUNTIF(History!A506:A534,A34)</f>
+        <v>0</v>
       </c>
       <c r="S34" s="2" t="e">
         <f>R34*100/Q34</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -14515,54 +14851,54 @@
       </c>
       <c r="C35" s="8">
         <f>COUNTIF(History!A:A,A35)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2">
         <f>C35*100/B35</f>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E35" s="8">
-        <f>COUNTIF(History!A195:C294,A35)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A132:C231,A35)</f>
+        <v>1</v>
       </c>
       <c r="F35" s="8">
-        <f>COUNTIF(History!A195:A294,A35)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="2" t="e">
+        <f>COUNTIF(History!A132:A231,A35)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
         <f>F35*100/E35</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H35" s="2">
-        <f>COUNTIF(History!A295:C394,A35)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A232:C330,A35)</f>
+        <v>2</v>
       </c>
       <c r="I35" s="2">
-        <f>COUNTIF(History!A295:A394,A35)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A232:A330,A35)</f>
+        <v>2</v>
       </c>
       <c r="J35" s="2">
         <f>I35*100/H35</f>
         <v>100</v>
       </c>
       <c r="K35" s="2">
-        <f>COUNTIF(History!A395:C399,A35)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A329:C399,A35)</f>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
-        <f>COUNTIF(History!A395:A399,A35)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="2" t="e">
+        <f>COUNTIF(History!A329:A399,A35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
         <f>L35*100/K35</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2">
-        <f>COUNTIF(History!A506:C594,A35)</f>
+        <f>COUNTIF(History!A506:C529,A35)</f>
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f>COUNTIF(History!A506:A594,A35)</f>
+        <f>COUNTIF(History!A506:A529,A35)</f>
         <v>0</v>
       </c>
       <c r="P35" s="2" t="e">
@@ -14570,11 +14906,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="2">
-        <f>COUNTIF(History!A595:C694,A35)</f>
+        <f>COUNTIF(History!A530:C629,A35)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f>COUNTIF(History!A595:A694,A35)</f>
+        <f>COUNTIF(History!A530:A629,A35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="2" t="e">
@@ -14584,26 +14920,26 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="8">
         <f>COUNTIF(History!A:A,A36)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2">
         <f>C36*100/B36</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E36" s="8">
-        <f>COUNTIF(History!A132:C231,A36)</f>
+        <f>COUNTIF(History!A78:C177,A36)</f>
         <v>1</v>
       </c>
       <c r="F36" s="8">
-        <f>COUNTIF(History!A132:A231,A36)</f>
+        <f>COUNTIF(History!A78:A177,A36)</f>
         <v>1</v>
       </c>
       <c r="G36" s="2">
@@ -14611,35 +14947,35 @@
         <v>100</v>
       </c>
       <c r="H36" s="2">
-        <f>COUNTIF(History!A232:C331,A36)</f>
+        <f>COUNTIF(History!A178:C277,A36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <f>COUNTIF(History!A178:A277,A36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="e">
+        <f>I36*100/H36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="2">
+        <f>COUNTIF(History!A273:C372,A36)</f>
+        <v>3</v>
+      </c>
+      <c r="L36" s="2">
+        <f>COUNTIF(History!A273:A372,A36)</f>
         <v>2</v>
       </c>
-      <c r="I36" s="2">
-        <f>COUNTIF(History!A232:A331,A36)</f>
-        <v>2</v>
-      </c>
-      <c r="J36" s="2">
-        <f>I36*100/H36</f>
-        <v>100</v>
-      </c>
-      <c r="K36" s="2">
-        <f>COUNTIF(History!A330:C399,A36)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <f>COUNTIF(History!A330:A399,A36)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="2" t="e">
+      <c r="M36" s="2">
         <f>L36*100/K36</f>
-        <v>#DIV/0!</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="N36" s="2">
-        <f>COUNTIF(History!A506:C529,A36)</f>
+        <f>COUNTIF(History!A373:C399,A36)</f>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f>COUNTIF(History!A506:A529,A36)</f>
+        <f>COUNTIF(History!A373:A399,A36)</f>
         <v>0</v>
       </c>
       <c r="P36" s="2" t="e">
@@ -14647,11 +14983,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="2">
-        <f>COUNTIF(History!A530:C629,A36)</f>
+        <f>COUNTIF(History!A506:C572,A36)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f>COUNTIF(History!A530:A629,A36)</f>
+        <f>COUNTIF(History!A506:A572,A36)</f>
         <v>0</v>
       </c>
       <c r="S36" s="2" t="e">
@@ -14661,26 +14997,26 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="8">
         <f>COUNTIF(History!A:A,A37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2">
         <f>C37*100/B37</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E37" s="8">
-        <f>COUNTIF(History!A38:C137,A37)</f>
+        <f>COUNTIF(History!A195:C294,A37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f>COUNTIF(History!A38:A137,A37)</f>
+        <f>COUNTIF(History!A195:A294,A37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="2" t="e">
@@ -14688,35 +15024,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="2">
-        <f>COUNTIF(History!A138:C237,A37)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A295:C394,A37)</f>
+        <v>1</v>
       </c>
       <c r="I37" s="2">
-        <f>COUNTIF(History!A138:A237,A37)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A295:A394,A37)</f>
+        <v>1</v>
       </c>
       <c r="J37" s="2">
         <f>I37*100/H37</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K37" s="2">
-        <f>COUNTIF(History!A254:C353,A37)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A395:C399,A37)</f>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
-        <f>COUNTIF(History!A254:A353,A37)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+        <f>COUNTIF(History!A395:A399,A37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="e">
         <f>L37*100/K37</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N37" s="2">
-        <f>COUNTIF(History!A354:C399,A37)</f>
+        <f>COUNTIF(History!A506:C594,A37)</f>
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f>COUNTIF(History!A354:A399,A37)</f>
+        <f>COUNTIF(History!A506:A594,A37)</f>
         <v>0</v>
       </c>
       <c r="P37" s="2" t="e">
@@ -14724,11 +15060,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="2">
-        <f>COUNTIF(History!A506:C553,A37)</f>
+        <f>COUNTIF(History!A595:C694,A37)</f>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f>COUNTIF(History!A506:A553,A37)</f>
+        <f>COUNTIF(History!A595:A694,A37)</f>
         <v>0</v>
       </c>
       <c r="S37" s="2" t="e">
@@ -14738,11 +15074,11 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" s="8">
         <f>COUNTIF(History!A:A,A38)</f>
@@ -14753,11 +15089,11 @@
         <v>0</v>
       </c>
       <c r="E38" s="8">
-        <f>COUNTIF(History!A43:C142,A38)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A33:C132,A38)</f>
+        <v>3</v>
       </c>
       <c r="F38" s="8">
-        <f>COUNTIF(History!A43:A142,A38)</f>
+        <f>COUNTIF(History!A33:A132,A38)</f>
         <v>0</v>
       </c>
       <c r="G38" s="2">
@@ -14765,23 +15101,23 @@
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <f>COUNTIF(History!A143:C242,A38)</f>
+        <f>COUNTIF(History!A133:C232,A38)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <f>COUNTIF(History!A133:A232,A38)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="e">
+        <f>I38*100/H38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="2">
+        <f>COUNTIF(History!A223:C321,A38)</f>
         <v>1</v>
       </c>
-      <c r="I38" s="2">
-        <f>COUNTIF(History!A143:A242,A38)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <f>I38*100/H38</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <f>COUNTIF(History!A235:C334,A38)</f>
-        <v>1</v>
-      </c>
       <c r="L38" s="2">
-        <f>COUNTIF(History!A235:A334,A38)</f>
+        <f>COUNTIF(History!A223:A321,A38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="2">
@@ -14789,11 +15125,11 @@
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <f>COUNTIF(History!A335:C399,A38)</f>
+        <f>COUNTIF(History!A322:C399,A38)</f>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f>COUNTIF(History!A335:A399,A38)</f>
+        <f>COUNTIF(History!A322:A399,A38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="2" t="e">
@@ -14801,11 +15137,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="2">
-        <f>COUNTIF(History!A506:C534,A38)</f>
+        <f>COUNTIF(History!A506:C522,A38)</f>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f>COUNTIF(History!A506:A534,A38)</f>
+        <f>COUNTIF(History!A506:A522,A38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="2" t="e">
@@ -14815,26 +15151,26 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="8">
         <f>COUNTIF(History!A:A,A39)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2">
         <f>C39*100/B39</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E39" s="8">
-        <f>COUNTIF(History!A34:C133,A39)</f>
+        <f>COUNTIF(History!A38:C137,A39)</f>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>COUNTIF(History!A34:A133,A39)</f>
+        <f>COUNTIF(History!A38:A137,A39)</f>
         <v>0</v>
       </c>
       <c r="G39" s="2" t="e">
@@ -14842,35 +15178,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="2">
-        <f>COUNTIF(History!A134:C233,A39)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A138:C237,A39)</f>
+        <v>2</v>
       </c>
       <c r="I39" s="2">
-        <f>COUNTIF(History!A134:A233,A39)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A138:A237,A39)</f>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
         <f>I39*100/H39</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
-        <f>COUNTIF(History!A232:C331,A39)</f>
+        <f>COUNTIF(History!A254:C353,A39)</f>
         <v>2</v>
       </c>
       <c r="L39" s="2">
-        <f>COUNTIF(History!A232:A331,A39)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A254:A353,A39)</f>
+        <v>0</v>
       </c>
       <c r="M39" s="2">
         <f>L39*100/K39</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2">
-        <f>COUNTIF(History!A332:C399,A39)</f>
+        <f>COUNTIF(History!A354:C399,A39)</f>
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f>COUNTIF(History!A332:A399,A39)</f>
+        <f>COUNTIF(History!A354:A399,A39)</f>
         <v>0</v>
       </c>
       <c r="P39" s="2" t="e">
@@ -14878,11 +15214,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="2">
-        <f>COUNTIF(History!A506:C531,A39)</f>
+        <f>COUNTIF(History!A506:C553,A39)</f>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f>COUNTIF(History!A506:A531,A39)</f>
+        <f>COUNTIF(History!A506:A553,A39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="2" t="e">
@@ -14892,7 +15228,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -14900,54 +15236,54 @@
       </c>
       <c r="C40" s="8">
         <f>COUNTIF(History!A:A,A40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2">
         <f>C40*100/B40</f>
-        <v>66.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="E40" s="8">
-        <f>COUNTIF(History!A44:C143,A40)</f>
+        <f>COUNTIF(History!A34:C133,A40)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <f>COUNTIF(History!A34:A133,A40)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="e">
+        <f>F40*100/E40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="2">
+        <f>COUNTIF(History!A134:C233,A40)</f>
         <v>1</v>
       </c>
-      <c r="F40" s="8">
-        <f>COUNTIF(History!A44:A143,A40)</f>
+      <c r="I40" s="2">
+        <f>COUNTIF(History!A134:A233,A40)</f>
         <v>1</v>
       </c>
-      <c r="G40" s="2">
-        <f>F40*100/E40</f>
+      <c r="J40" s="2">
+        <f>I40*100/H40</f>
         <v>100</v>
       </c>
-      <c r="H40" s="2">
-        <f>COUNTIF(History!A144:C243,A40)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <f>COUNTIF(History!A144:A243,A40)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="e">
-        <f>I40*100/H40</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="K40" s="2">
-        <f>COUNTIF(History!A237:C336,A40)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A232:C330,A40)</f>
+        <v>2</v>
       </c>
       <c r="L40" s="2">
-        <f>COUNTIF(History!A237:A336,A40)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="2" t="e">
+        <f>COUNTIF(History!A232:A330,A40)</f>
+        <v>2</v>
+      </c>
+      <c r="M40" s="2">
         <f>L40*100/K40</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="N40" s="2">
-        <f>COUNTIF(History!A337:C399,A40)</f>
+        <f>COUNTIF(History!A332:C399,A40)</f>
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f>COUNTIF(History!A337:A399,A40)</f>
+        <f>COUNTIF(History!A332:A399,A40)</f>
         <v>0</v>
       </c>
       <c r="P40" s="2" t="e">
@@ -14955,11 +15291,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="2">
-        <f>COUNTIF(History!A506:C536,A40)</f>
+        <f>COUNTIF(History!A506:C531,A40)</f>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f>COUNTIF(History!A506:A536,A40)</f>
+        <f>COUNTIF(History!A506:A531,A40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="2" t="e">
@@ -14969,7 +15305,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
@@ -14984,35 +15320,35 @@
         <v>66.666666666666671</v>
       </c>
       <c r="E41" s="8">
-        <f>COUNTIF(History!A14:C113,A41)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A44:C143,A41)</f>
+        <v>1</v>
       </c>
       <c r="F41" s="8">
-        <f>COUNTIF(History!A14:A113,A41)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A44:A143,A41)</f>
+        <v>1</v>
       </c>
       <c r="G41" s="2">
         <f>F41*100/E41</f>
         <v>100</v>
       </c>
       <c r="H41" s="2">
-        <f>COUNTIF(History!A111:C210,A41)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A144:C243,A41)</f>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>COUNTIF(History!A111:A210,A41)</f>
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
+        <f>COUNTIF(History!A144:A243,A41)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="e">
         <f>I41*100/H41</f>
-        <v>50</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K41" s="2">
-        <f>COUNTIF(History!A212:C311,A41)</f>
+        <f>COUNTIF(History!A237:C336,A41)</f>
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>COUNTIF(History!A212:A311,A41)</f>
+        <f>COUNTIF(History!A237:A336,A41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="2" t="e">
@@ -15020,11 +15356,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="2">
-        <f>COUNTIF(History!A312:C399,A41)</f>
+        <f>COUNTIF(History!A337:C399,A41)</f>
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f>COUNTIF(History!A312:A399,A41)</f>
+        <f>COUNTIF(History!A337:A399,A41)</f>
         <v>0</v>
       </c>
       <c r="P41" s="2" t="e">
@@ -15032,11 +15368,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="2">
-        <f>COUNTIF(History!A506:C511,A41)</f>
+        <f>COUNTIF(History!A506:C536,A41)</f>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f>COUNTIF(History!A506:A511,A41)</f>
+        <f>COUNTIF(History!A506:A536,A41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="2" t="e">
@@ -15046,7 +15382,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -15061,47 +15397,47 @@
         <v>66.666666666666671</v>
       </c>
       <c r="E42" s="8">
-        <f>COUNTIF(History!A78:C177,A42)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A14:C113,A42)</f>
+        <v>2</v>
       </c>
       <c r="F42" s="8">
-        <f>COUNTIF(History!A78:A177,A42)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A14:A113,A42)</f>
+        <v>2</v>
       </c>
       <c r="G42" s="2">
         <f>F42*100/E42</f>
         <v>100</v>
       </c>
       <c r="H42" s="2">
-        <f>COUNTIF(History!A178:C277,A42)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A111:C210,A42)</f>
+        <v>2</v>
       </c>
       <c r="I42" s="2">
-        <f>COUNTIF(History!A178:A277,A42)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="e">
+        <f>COUNTIF(History!A111:A210,A42)</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
         <f>I42*100/H42</f>
-        <v>#DIV/0!</v>
+        <v>50</v>
       </c>
       <c r="K42" s="2">
-        <f>COUNTIF(History!A273:C372,A42)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A212:C310,A42)</f>
+        <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f>COUNTIF(History!A273:A372,A42)</f>
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
+        <f>COUNTIF(History!A212:A310,A42)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="e">
         <f>L42*100/K42</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N42" s="2">
-        <f>COUNTIF(History!A373:C399,A42)</f>
+        <f>COUNTIF(History!A311:C399,A42)</f>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f>COUNTIF(History!A373:A399,A42)</f>
+        <f>COUNTIF(History!A311:A399,A42)</f>
         <v>0</v>
       </c>
       <c r="P42" s="2" t="e">
@@ -15109,11 +15445,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="2">
-        <f>COUNTIF(History!A506:C572,A42)</f>
+        <f>COUNTIF(History!A506:C511,A42)</f>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f>COUNTIF(History!A506:A572,A42)</f>
+        <f>COUNTIF(History!A506:A511,A42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="2" t="e">
@@ -15239,11 +15575,11 @@
         <v>0</v>
       </c>
       <c r="K44" s="2">
-        <f>COUNTIF(History!A218:C317,A44)</f>
+        <f>COUNTIF(History!A218:C316,A44)</f>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f>COUNTIF(History!A218:A317,A44)</f>
+        <f>COUNTIF(History!A218:A316,A44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="2" t="e">
@@ -15251,11 +15587,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="2">
-        <f>COUNTIF(History!A318:C399,A44)</f>
+        <f>COUNTIF(History!A317:C399,A44)</f>
         <v>1</v>
       </c>
       <c r="O44" s="2">
-        <f>COUNTIF(History!A318:A399,A44)</f>
+        <f>COUNTIF(History!A317:A399,A44)</f>
         <v>0</v>
       </c>
       <c r="P44" s="2">
@@ -15277,7 +15613,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
@@ -15285,30 +15621,30 @@
       </c>
       <c r="C45" s="8">
         <f>COUNTIF(History!A:A,A45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2">
         <f>C45*100/B45</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E45" s="8">
-        <f>COUNTIF(History!A18:C117,A45)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A81:C180,A45)</f>
+        <v>2</v>
       </c>
       <c r="F45" s="8">
-        <f>COUNTIF(History!A18:A117,A45)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A81:A180,A45)</f>
+        <v>1</v>
       </c>
       <c r="G45" s="2">
         <f>F45*100/E45</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H45" s="2">
-        <f>COUNTIF(History!A120:C219,A45)</f>
+        <f>COUNTIF(History!A181:C280,A45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>COUNTIF(History!A120:A219,A45)</f>
+        <f>COUNTIF(History!A181:A280,A45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2" t="e">
@@ -15316,23 +15652,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="2">
-        <f>COUNTIF(History!A216:C315,A45)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A278:C377,A45)</f>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
-        <f>COUNTIF(History!A216:A315,A45)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="2" t="e">
+        <f>COUNTIF(History!A278:A377,A45)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
         <f>L45*100/K45</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2">
-        <f>COUNTIF(History!A316:C399,A45)</f>
+        <f>COUNTIF(History!A378:C399,A45)</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f>COUNTIF(History!A316:A399,A45)</f>
+        <f>COUNTIF(History!A378:A399,A45)</f>
         <v>0</v>
       </c>
       <c r="P45" s="2" t="e">
@@ -15340,11 +15676,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="2">
-        <f>COUNTIF(History!A506:C514,A45)</f>
+        <f>COUNTIF(History!A506:C577,A45)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>COUNTIF(History!A506:A514,A45)</f>
+        <f>COUNTIF(History!A506:A577,A45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="2" t="e">
@@ -15354,7 +15690,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
@@ -15369,11 +15705,11 @@
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <f>COUNTIF(History!A106:C205,A46)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A18:C117,A46)</f>
+        <v>3</v>
       </c>
       <c r="F46" s="8">
-        <f>COUNTIF(History!A106:A205,A46)</f>
+        <f>COUNTIF(History!A18:A117,A46)</f>
         <v>0</v>
       </c>
       <c r="G46" s="2">
@@ -15381,47 +15717,47 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <f>COUNTIF(History!A206:C305,A46)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A120:C219,A46)</f>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>COUNTIF(History!A206:A305,A46)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
+        <f>COUNTIF(History!A120:A219,A46)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="e">
         <f>I46*100/H46</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K46" s="2">
-        <f>COUNTIF(History!A303:C399,A46)</f>
+        <f>COUNTIF(History!A216:C314,A46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f>COUNTIF(History!A303:A399,A46)</f>
+        <f>COUNTIF(History!A216:A314,A46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="2" t="e">
         <f>L46*100/K46</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N46" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O46" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A46)</f>
-        <v>#REF!</v>
+      <c r="N46" s="2">
+        <f>COUNTIF(History!A315:C399,A46)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <f>COUNTIF(History!A315:A399,A46)</f>
+        <v>0</v>
       </c>
       <c r="P46" s="2" t="e">
         <f>O46*100/N46</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="2">
-        <f>COUNTIF(History!A506:C602,A46)</f>
+        <f>COUNTIF(History!A506:C514,A46)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>COUNTIF(History!A506:A602,A46)</f>
+        <f>COUNTIF(History!A506:A514,A46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="2" t="e">
@@ -15431,74 +15767,74 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="8">
         <f>COUNTIF(History!A:A,A47)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2">
         <f>C47*100/B47</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="8">
-        <f>COUNTIF(History!A5:C104,A47)</f>
+        <f>COUNTIF(History!A106:C205,A47)</f>
         <v>1</v>
       </c>
       <c r="F47" s="8">
-        <f>COUNTIF(History!A5:A104,A47)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A106:A205,A47)</f>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
         <f>F47*100/E47</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
-        <f>COUNTIF(History!A106:C205,A47)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A206:C304,A47)</f>
+        <v>2</v>
       </c>
       <c r="I47" s="2">
-        <f>COUNTIF(History!A106:A205,A47)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A206:A304,A47)</f>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
         <f>I47*100/H47</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
-        <f>COUNTIF(History!A209:C308,A47)</f>
+        <f>COUNTIF(History!A302:C399,A47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>COUNTIF(History!A209:A308,A47)</f>
+        <f>COUNTIF(History!A302:A399,A47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="2" t="e">
         <f>L47*100/K47</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N47" s="2">
-        <f>COUNTIF(History!A309:C399,A47)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="2">
-        <f>COUNTIF(History!A309:A399,A47)</f>
-        <v>0</v>
+      <c r="N47" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O47" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A47)</f>
+        <v>#REF!</v>
       </c>
       <c r="P47" s="2" t="e">
         <f>O47*100/N47</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="Q47" s="2">
-        <f>COUNTIF(History!A506:C508,A47)</f>
+        <f>COUNTIF(History!A506:C602,A47)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>COUNTIF(History!A506:A508,A47)</f>
+        <f>COUNTIF(History!A506:A602,A47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="2" t="e">
@@ -15508,62 +15844,62 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="8">
         <f>COUNTIF(History!A:A,A48)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2">
         <f>C48*100/B48</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="8">
-        <f>COUNTIF(History!A61:C160,A48)</f>
+        <f>COUNTIF(History!A114:C213,A48)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <f>COUNTIF(History!A114:A213,A48)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="e">
+        <f>F48*100/E48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="2">
+        <f>COUNTIF(History!A214:C312,A48)</f>
         <v>1</v>
       </c>
-      <c r="F48" s="8">
-        <f>COUNTIF(History!A61:A160,A48)</f>
+      <c r="I48" s="2">
+        <f>COUNTIF(History!A214:A312,A48)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <f>I48*100/H48</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <f>COUNTIF(History!A311:C399,A48)</f>
         <v>1</v>
       </c>
-      <c r="G48" s="2">
-        <f>F48*100/E48</f>
-        <v>100</v>
-      </c>
-      <c r="H48" s="2">
-        <f>COUNTIF(History!A161:C260,A48)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <f>COUNTIF(History!A161:A260,A48)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="e">
-        <f>I48*100/H48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="2">
-        <f>COUNTIF(History!A252:C351,A48)</f>
-        <v>1</v>
-      </c>
       <c r="L48" s="2">
-        <f>COUNTIF(History!A252:A351,A48)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A311:A399,A48)</f>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
         <f>L48*100/K48</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2">
-        <f>COUNTIF(History!A352:C399,A48)</f>
+        <f>COUNTIF(History!A506:C511,A48)</f>
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f>COUNTIF(History!A352:A399,A48)</f>
+        <f>COUNTIF(History!A506:A511,A48)</f>
         <v>0</v>
       </c>
       <c r="P48" s="2" t="e">
@@ -15571,11 +15907,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q48" s="2">
-        <f>COUNTIF(History!A506:C551,A48)</f>
+        <f>COUNTIF(History!A512:C611,A48)</f>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f>COUNTIF(History!A506:A551,A48)</f>
+        <f>COUNTIF(History!A512:A611,A48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="2" t="e">
@@ -15585,7 +15921,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(History!A:C,A49)</f>
@@ -15593,30 +15929,30 @@
       </c>
       <c r="C49" s="8">
         <f>COUNTIF(History!A:A,A49)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2">
         <f>C49*100/B49</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E49" s="8">
-        <f>COUNTIF(History!A22:C121,A49)</f>
+        <f>COUNTIF(History!A5:C104,A49)</f>
         <v>1</v>
       </c>
       <c r="F49" s="8">
-        <f>COUNTIF(History!A22:A121,A49)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A5:A104,A49)</f>
+        <v>1</v>
       </c>
       <c r="G49" s="2">
         <f>F49*100/E49</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H49" s="2">
-        <f>COUNTIF(History!A122:C221,A49)</f>
+        <f>COUNTIF(History!A106:C205,A49)</f>
         <v>1</v>
       </c>
       <c r="I49" s="2">
-        <f>COUNTIF(History!A122:A221,A49)</f>
+        <f>COUNTIF(History!A106:A205,A49)</f>
         <v>1</v>
       </c>
       <c r="J49" s="2">
@@ -15624,11 +15960,11 @@
         <v>100</v>
       </c>
       <c r="K49" s="2">
-        <f>COUNTIF(History!A253:C352,A49)</f>
+        <f>COUNTIF(History!A209:C307,A49)</f>
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <f>COUNTIF(History!A253:A352,A49)</f>
+        <f>COUNTIF(History!A209:A307,A49)</f>
         <v>0</v>
       </c>
       <c r="M49" s="2" t="e">
@@ -15636,11 +15972,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N49" s="2">
-        <f>COUNTIF(History!A353:C399,A49)</f>
+        <f>COUNTIF(History!A308:C399,A49)</f>
         <v>0</v>
       </c>
       <c r="O49" s="2">
-        <f>COUNTIF(History!A353:A399,A49)</f>
+        <f>COUNTIF(History!A308:A399,A49)</f>
         <v>0</v>
       </c>
       <c r="P49" s="2" t="e">
@@ -15648,11 +15984,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q49" s="2">
-        <f>COUNTIF(History!A506:C552,A49)</f>
+        <f>COUNTIF(History!A506:C508,A49)</f>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f>COUNTIF(History!A506:A552,A49)</f>
+        <f>COUNTIF(History!A506:A508,A49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="2" t="e">
@@ -15662,7 +15998,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="B50" s="8">
         <f>COUNTIF(History!A:C,A50)</f>
@@ -15670,30 +16006,30 @@
       </c>
       <c r="C50" s="8">
         <f>COUNTIF(History!A:A,A50)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2">
         <f>C50*100/B50</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E50" s="8">
-        <f>COUNTIF(History!A81:C180,A50)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A61:C160,A50)</f>
+        <v>1</v>
       </c>
       <c r="F50" s="8">
-        <f>COUNTIF(History!A81:A180,A50)</f>
+        <f>COUNTIF(History!A61:A160,A50)</f>
         <v>1</v>
       </c>
       <c r="G50" s="2">
         <f>F50*100/E50</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H50" s="2">
-        <f>COUNTIF(History!A181:C280,A50)</f>
+        <f>COUNTIF(History!A161:C260,A50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>COUNTIF(History!A181:A280,A50)</f>
+        <f>COUNTIF(History!A161:A260,A50)</f>
         <v>0</v>
       </c>
       <c r="J50" s="2" t="e">
@@ -15701,23 +16037,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K50" s="2">
-        <f>COUNTIF(History!A278:C377,A50)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A252:C351,A50)</f>
+        <v>1</v>
       </c>
       <c r="L50" s="2">
-        <f>COUNTIF(History!A278:A377,A50)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="2" t="e">
+        <f>COUNTIF(History!A252:A351,A50)</f>
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
         <f>L50*100/K50</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="N50" s="2">
-        <f>COUNTIF(History!A378:C399,A50)</f>
+        <f>COUNTIF(History!A352:C399,A50)</f>
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <f>COUNTIF(History!A378:A399,A50)</f>
+        <f>COUNTIF(History!A352:A399,A50)</f>
         <v>0</v>
       </c>
       <c r="P50" s="2" t="e">
@@ -15725,11 +16061,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" s="2">
-        <f>COUNTIF(History!A506:C577,A50)</f>
+        <f>COUNTIF(History!A506:C551,A50)</f>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f>COUNTIF(History!A506:A577,A50)</f>
+        <f>COUNTIF(History!A506:A551,A50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="2" t="e">
@@ -15739,7 +16075,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="B51" s="8">
         <f>COUNTIF(History!A:C,A51)</f>
@@ -15747,42 +16083,42 @@
       </c>
       <c r="C51" s="8">
         <f>COUNTIF(History!A:A,A51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2">
         <f>C51*100/B51</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E51" s="8">
-        <f>COUNTIF(History!A243:C342,A51)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A22:C121,A51)</f>
+        <v>1</v>
       </c>
       <c r="F51" s="8">
-        <f>COUNTIF(History!A243:A342,A51)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="2" t="e">
+        <f>COUNTIF(History!A22:A121,A51)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
         <f>F51*100/E51</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2">
-        <f>COUNTIF(History!A343:C442,A51)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A122:C221,A51)</f>
+        <v>1</v>
       </c>
       <c r="I51" s="2">
-        <f>COUNTIF(History!A343:A442,A51)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="e">
+        <f>COUNTIF(History!A122:A221,A51)</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
         <f>I51*100/H51</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="K51" s="2">
-        <f>COUNTIF(History!A506:C542,A51)</f>
+        <f>COUNTIF(History!A253:C352,A51)</f>
         <v>0</v>
       </c>
       <c r="L51" s="2">
-        <f>COUNTIF(History!A506:A542,A51)</f>
+        <f>COUNTIF(History!A253:A352,A51)</f>
         <v>0</v>
       </c>
       <c r="M51" s="2" t="e">
@@ -15790,11 +16126,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N51" s="2">
-        <f>COUNTIF(History!A543:C642,A51)</f>
+        <f>COUNTIF(History!A353:C399,A51)</f>
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <f>COUNTIF(History!A543:A642,A51)</f>
+        <f>COUNTIF(History!A353:A399,A51)</f>
         <v>0</v>
       </c>
       <c r="P51" s="2" t="e">
@@ -15802,11 +16138,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" s="2">
-        <f>COUNTIF(History!A643:C742,A51)</f>
+        <f>COUNTIF(History!A506:C552,A51)</f>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f>COUNTIF(History!A643:A742,A51)</f>
+        <f>COUNTIF(History!A506:A552,A51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="2" t="e">
@@ -15816,7 +16152,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B52" s="8">
         <f>COUNTIF(History!A:C,A52)</f>
@@ -15831,11 +16167,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="8">
-        <f>COUNTIF(History!A93:C192,A52)</f>
+        <f>COUNTIF(History!A243:C342,A52)</f>
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <f>COUNTIF(History!A93:A192,A52)</f>
+        <f>COUNTIF(History!A243:A342,A52)</f>
         <v>0</v>
       </c>
       <c r="G52" s="2" t="e">
@@ -15843,23 +16179,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H52" s="2">
-        <f>COUNTIF(History!A193:C292,A52)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A343:C442,A52)</f>
+        <v>0</v>
       </c>
       <c r="I52" s="2">
-        <f>COUNTIF(History!A193:A292,A52)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
+        <f>COUNTIF(History!A343:A442,A52)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="e">
         <f>I52*100/H52</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K52" s="2">
-        <f>COUNTIF(History!A290:C389,A52)</f>
+        <f>COUNTIF(History!A506:C542,A52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="2">
-        <f>COUNTIF(History!A290:A389,A52)</f>
+        <f>COUNTIF(History!A506:A542,A52)</f>
         <v>0</v>
       </c>
       <c r="M52" s="2" t="e">
@@ -15867,11 +16203,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N52" s="2">
-        <f>COUNTIF(History!A390:C399,A52)</f>
+        <f>COUNTIF(History!A543:C642,A52)</f>
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f>COUNTIF(History!A390:A399,A52)</f>
+        <f>COUNTIF(History!A543:A642,A52)</f>
         <v>0</v>
       </c>
       <c r="P52" s="2" t="e">
@@ -15879,11 +16215,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" s="2">
-        <f>COUNTIF(History!A506:C589,A52)</f>
+        <f>COUNTIF(History!A643:C742,A52)</f>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f>COUNTIF(History!A506:A589,A52)</f>
+        <f>COUNTIF(History!A643:A742,A52)</f>
         <v>0</v>
       </c>
       <c r="S52" s="2" t="e">
@@ -15893,7 +16229,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B53" s="8">
         <f>COUNTIF(History!A:C,A53)</f>
@@ -15908,11 +16244,11 @@
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <f>COUNTIF(History!A114:C213,A53)</f>
+        <f>COUNTIF(History!A93:C192,A53)</f>
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <f>COUNTIF(History!A114:A213,A53)</f>
+        <f>COUNTIF(History!A93:A192,A53)</f>
         <v>0</v>
       </c>
       <c r="G53" s="2" t="e">
@@ -15920,11 +16256,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H53" s="2">
-        <f>COUNTIF(History!A214:C313,A53)</f>
+        <f>COUNTIF(History!A193:C292,A53)</f>
         <v>1</v>
       </c>
       <c r="I53" s="2">
-        <f>COUNTIF(History!A214:A313,A53)</f>
+        <f>COUNTIF(History!A193:A292,A53)</f>
         <v>0</v>
       </c>
       <c r="J53" s="2">
@@ -15932,11 +16268,11 @@
         <v>0</v>
       </c>
       <c r="K53" s="2">
-        <f>COUNTIF(History!A312:C399,A53)</f>
+        <f>COUNTIF(History!A290:C389,A53)</f>
         <v>0</v>
       </c>
       <c r="L53" s="2">
-        <f>COUNTIF(History!A312:A399,A53)</f>
+        <f>COUNTIF(History!A290:A389,A53)</f>
         <v>0</v>
       </c>
       <c r="M53" s="2" t="e">
@@ -15944,11 +16280,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N53" s="2">
-        <f>COUNTIF(History!A506:C511,A53)</f>
+        <f>COUNTIF(History!A390:C399,A53)</f>
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <f>COUNTIF(History!A506:A511,A53)</f>
+        <f>COUNTIF(History!A390:A399,A53)</f>
         <v>0</v>
       </c>
       <c r="P53" s="2" t="e">
@@ -15956,11 +16292,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="2">
-        <f>COUNTIF(History!A512:C611,A53)</f>
+        <f>COUNTIF(History!A506:C589,A53)</f>
         <v>0</v>
       </c>
       <c r="R53" s="2">
-        <f>COUNTIF(History!A512:A611,A53)</f>
+        <f>COUNTIF(History!A506:A589,A53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="2" t="e">
@@ -16305,11 +16641,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H58" s="2">
-        <f>COUNTIF(History!A219:C318,A58)</f>
+        <f>COUNTIF(History!A219:C317,A58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f>COUNTIF(History!A219:A318,A58)</f>
+        <f>COUNTIF(History!A219:A317,A58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="2" t="e">
@@ -16317,11 +16653,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="2">
-        <f>COUNTIF(History!A317:C399,A58)</f>
+        <f>COUNTIF(History!A316:C399,A58)</f>
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <f>COUNTIF(History!A317:A399,A58)</f>
+        <f>COUNTIF(History!A316:A399,A58)</f>
         <v>0</v>
       </c>
       <c r="M58" s="2" t="e">
@@ -16678,11 +17014,11 @@
         <v>0</v>
       </c>
       <c r="E63" s="8">
-        <f>COUNTIF(History!A207:C306,A63)</f>
+        <f>COUNTIF(History!A207:C305,A63)</f>
         <v>0</v>
       </c>
       <c r="F63" s="8">
-        <f>COUNTIF(History!A207:A306,A63)</f>
+        <f>COUNTIF(History!A207:A305,A63)</f>
         <v>0</v>
       </c>
       <c r="G63" s="2" t="e">
@@ -16690,11 +17026,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="2">
-        <f>COUNTIF(History!A307:C406,A63)</f>
+        <f>COUNTIF(History!A306:C406,A63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <f>COUNTIF(History!A307:A406,A63)</f>
+        <f>COUNTIF(History!A306:A406,A63)</f>
         <v>0</v>
       </c>
       <c r="J63" s="2" t="e">
@@ -17229,11 +17565,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K70" s="2">
-        <f>COUNTIF(History!A225:C324,A70)</f>
+        <f>COUNTIF(History!A225:C323,A70)</f>
         <v>1</v>
       </c>
       <c r="L70" s="2">
-        <f>COUNTIF(History!A225:A324,A70)</f>
+        <f>COUNTIF(History!A225:A323,A70)</f>
         <v>0</v>
       </c>
       <c r="M70" s="2">
@@ -17241,11 +17577,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="2">
-        <f>COUNTIF(History!A325:C399,A70)</f>
+        <f>COUNTIF(History!A324:C399,A70)</f>
         <v>0</v>
       </c>
       <c r="O70" s="2">
-        <f>COUNTIF(History!A325:A399,A70)</f>
+        <f>COUNTIF(History!A324:A399,A70)</f>
         <v>0</v>
       </c>
       <c r="P70" s="2" t="e">
@@ -17371,11 +17707,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H72" s="2">
-        <f>COUNTIF(History!A210:C309,A72)</f>
+        <f>COUNTIF(History!A210:C308,A72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="2">
-        <f>COUNTIF(History!A210:A309,A72)</f>
+        <f>COUNTIF(History!A210:A308,A72)</f>
         <v>0</v>
       </c>
       <c r="J72" s="2" t="e">
@@ -17383,11 +17719,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K72" s="2">
-        <f>COUNTIF(History!A308:C399,A72)</f>
+        <f>COUNTIF(History!A307:C399,A72)</f>
         <v>0</v>
       </c>
       <c r="L72" s="2">
-        <f>COUNTIF(History!A308:A399,A72)</f>
+        <f>COUNTIF(History!A307:A399,A72)</f>
         <v>0</v>
       </c>
       <c r="M72" s="2" t="e">
@@ -17460,11 +17796,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K73" s="2">
-        <f>COUNTIF(History!A229:C328,A73)</f>
+        <f>COUNTIF(History!A229:C327,A73)</f>
         <v>0</v>
       </c>
       <c r="L73" s="2">
-        <f>COUNTIF(History!A229:A328,A73)</f>
+        <f>COUNTIF(History!A229:A327,A73)</f>
         <v>0</v>
       </c>
       <c r="M73" s="2" t="e">
@@ -17472,11 +17808,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N73" s="2">
-        <f>COUNTIF(History!A329:C399,A73)</f>
+        <f>COUNTIF(History!A328:C399,A73)</f>
         <v>0</v>
       </c>
       <c r="O73" s="2">
-        <f>COUNTIF(History!A329:A399,A73)</f>
+        <f>COUNTIF(History!A328:A399,A73)</f>
         <v>0</v>
       </c>
       <c r="P73" s="2" t="e">
@@ -18052,11 +18388,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E81" s="8">
-        <f>COUNTIF(History!A220:C319,A81)</f>
+        <f>COUNTIF(History!A220:C318,A81)</f>
         <v>0</v>
       </c>
       <c r="F81" s="8">
-        <f>COUNTIF(History!A220:A319,A81)</f>
+        <f>COUNTIF(History!A220:A318,A81)</f>
         <v>0</v>
       </c>
       <c r="G81" s="2" t="e">
@@ -18064,11 +18400,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="2">
-        <f>COUNTIF(History!A320:C419,A81)</f>
+        <f>COUNTIF(History!A319:C419,A81)</f>
         <v>0</v>
       </c>
       <c r="I81" s="2">
-        <f>COUNTIF(History!A320:A419,A81)</f>
+        <f>COUNTIF(History!A319:A419,A81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="2" t="e">
@@ -18615,11 +18951,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K88" s="2">
-        <f>COUNTIF(History!A230:C329,A88)</f>
+        <f>COUNTIF(History!A230:C328,A88)</f>
         <v>0</v>
       </c>
       <c r="L88" s="2">
-        <f>COUNTIF(History!A230:A329,A88)</f>
+        <f>COUNTIF(History!A230:A328,A88)</f>
         <v>0</v>
       </c>
       <c r="M88" s="2" t="e">
@@ -18627,11 +18963,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N88" s="2">
-        <f>COUNTIF(History!A330:C399,A88)</f>
+        <f>COUNTIF(History!A329:C399,A88)</f>
         <v>0</v>
       </c>
       <c r="O88" s="2">
-        <f>COUNTIF(History!A330:A399,A88)</f>
+        <f>COUNTIF(History!A329:A399,A88)</f>
         <v>0</v>
       </c>
       <c r="P88" s="2" t="e">
@@ -18769,11 +19105,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K90" s="2">
-        <f>COUNTIF(History!A220:C319,A90)</f>
+        <f>COUNTIF(History!A220:C318,A90)</f>
         <v>0</v>
       </c>
       <c r="L90" s="2">
-        <f>COUNTIF(History!A220:A319,A90)</f>
+        <f>COUNTIF(History!A220:A318,A90)</f>
         <v>0</v>
       </c>
       <c r="M90" s="2" t="e">
@@ -18781,11 +19117,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N90" s="2">
-        <f>COUNTIF(History!A320:C399,A90)</f>
+        <f>COUNTIF(History!A319:C399,A90)</f>
         <v>0</v>
       </c>
       <c r="O90" s="2">
-        <f>COUNTIF(History!A320:A399,A90)</f>
+        <f>COUNTIF(History!A319:A399,A90)</f>
         <v>0</v>
       </c>
       <c r="P90" s="2" t="e">
@@ -18846,11 +19182,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K91" s="2">
-        <f>COUNTIF(History!A222:C321,A91)</f>
+        <f>COUNTIF(History!A222:C320,A91)</f>
         <v>0</v>
       </c>
       <c r="L91" s="2">
-        <f>COUNTIF(History!A222:A321,A91)</f>
+        <f>COUNTIF(History!A222:A320,A91)</f>
         <v>0</v>
       </c>
       <c r="M91" s="2" t="e">
@@ -18858,11 +19194,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N91" s="2">
-        <f>COUNTIF(History!A322:C399,A91)</f>
+        <f>COUNTIF(History!A321:C399,A91)</f>
         <v>0</v>
       </c>
       <c r="O91" s="2">
-        <f>COUNTIF(History!A322:A399,A91)</f>
+        <f>COUNTIF(History!A321:A399,A91)</f>
         <v>0</v>
       </c>
       <c r="P91" s="2" t="e">
@@ -19077,11 +19413,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K94" s="2">
-        <f>COUNTIF(History!A214:C313,A94)</f>
+        <f>COUNTIF(History!A214:C312,A94)</f>
         <v>0</v>
       </c>
       <c r="L94" s="2">
-        <f>COUNTIF(History!A214:A313,A94)</f>
+        <f>COUNTIF(History!A214:A312,A94)</f>
         <v>0</v>
       </c>
       <c r="M94" s="2" t="e">
@@ -19089,11 +19425,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N94" s="2">
-        <f>COUNTIF(History!A314:C399,A94)</f>
+        <f>COUNTIF(History!A313:C399,A94)</f>
         <v>0</v>
       </c>
       <c r="O94" s="2">
-        <f>COUNTIF(History!A314:A399,A94)</f>
+        <f>COUNTIF(History!A313:A399,A94)</f>
         <v>0</v>
       </c>
       <c r="P94" s="2" t="e">
@@ -19296,11 +19632,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H97" s="2">
-        <f>COUNTIF(History!A226:C325,A97)</f>
+        <f>COUNTIF(History!A226:C324,A97)</f>
         <v>0</v>
       </c>
       <c r="I97" s="2">
-        <f>COUNTIF(History!A226:A325,A97)</f>
+        <f>COUNTIF(History!A226:A324,A97)</f>
         <v>0</v>
       </c>
       <c r="J97" s="2" t="e">
@@ -19308,11 +19644,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="2">
-        <f>COUNTIF(History!A324:C399,A97)</f>
+        <f>COUNTIF(History!A323:C399,A97)</f>
         <v>0</v>
       </c>
       <c r="L97" s="2">
-        <f>COUNTIF(History!A324:A399,A97)</f>
+        <f>COUNTIF(History!A323:A399,A97)</f>
         <v>0</v>
       </c>
       <c r="M97" s="2" t="e">
@@ -19373,11 +19709,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H98" s="2">
-        <f>COUNTIF(History!A228:C327,A98)</f>
+        <f>COUNTIF(History!A228:C326,A98)</f>
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <f>COUNTIF(History!A228:A327,A98)</f>
+        <f>COUNTIF(History!A228:A326,A98)</f>
         <v>0</v>
       </c>
       <c r="J98" s="2" t="e">
@@ -19385,11 +19721,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K98" s="2">
-        <f>COUNTIF(History!A326:C399,A98)</f>
+        <f>COUNTIF(History!A325:C399,A98)</f>
         <v>0</v>
       </c>
       <c r="L98" s="2">
-        <f>COUNTIF(History!A326:A399,A98)</f>
+        <f>COUNTIF(History!A325:A399,A98)</f>
         <v>0</v>
       </c>
       <c r="M98" s="2" t="e">
@@ -19758,11 +20094,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H103" s="2">
-        <f>COUNTIF(History!A227:C326,A103)</f>
+        <f>COUNTIF(History!A227:C325,A103)</f>
         <v>0</v>
       </c>
       <c r="I103" s="2">
-        <f>COUNTIF(History!A227:A326,A103)</f>
+        <f>COUNTIF(History!A227:A325,A103)</f>
         <v>0</v>
       </c>
       <c r="J103" s="2" t="e">
@@ -19770,11 +20106,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K103" s="2">
-        <f>COUNTIF(History!A325:C399,A103)</f>
+        <f>COUNTIF(History!A324:C399,A103)</f>
         <v>0</v>
       </c>
       <c r="L103" s="2">
-        <f>COUNTIF(History!A325:A399,A103)</f>
+        <f>COUNTIF(History!A324:A399,A103)</f>
         <v>0</v>
       </c>
       <c r="M103" s="2" t="e">
@@ -19823,11 +20159,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E104" s="8">
-        <f>COUNTIF(History!A325:C424,A104)</f>
+        <f>COUNTIF(History!A324:C424,A104)</f>
         <v>0</v>
       </c>
       <c r="F104" s="8">
-        <f>COUNTIF(History!A325:A424,A104)</f>
+        <f>COUNTIF(History!A324:A424,A104)</f>
         <v>0</v>
       </c>
       <c r="G104" s="2" t="e">
@@ -20285,11 +20621,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K110" s="2">
-        <f>COUNTIF(History!A219:C318,A110)</f>
+        <f>COUNTIF(History!A219:C317,A110)</f>
         <v>0</v>
       </c>
       <c r="L110" s="2">
-        <f>COUNTIF(History!A219:A318,A110)</f>
+        <f>COUNTIF(History!A219:A317,A110)</f>
         <v>0</v>
       </c>
       <c r="M110" s="2" t="e">
@@ -20297,11 +20633,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N110" s="2">
-        <f>COUNTIF(History!A319:C399,A110)</f>
+        <f>COUNTIF(History!A318:C399,A110)</f>
         <v>0</v>
       </c>
       <c r="O110" s="2">
-        <f>COUNTIF(History!A319:A399,A110)</f>
+        <f>COUNTIF(History!A318:A399,A110)</f>
         <v>0</v>
       </c>
       <c r="P110" s="2" t="e">
@@ -20439,11 +20775,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K112" s="2">
-        <f>COUNTIF(History!A215:C314,A112)</f>
+        <f>COUNTIF(History!A215:C313,A112)</f>
         <v>0</v>
       </c>
       <c r="L112" s="2">
-        <f>COUNTIF(History!A215:A314,A112)</f>
+        <f>COUNTIF(History!A215:A313,A112)</f>
         <v>0</v>
       </c>
       <c r="M112" s="2" t="e">
@@ -20451,11 +20787,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N112" s="2">
-        <f>COUNTIF(History!A315:C399,A112)</f>
+        <f>COUNTIF(History!A314:C399,A112)</f>
         <v>0</v>
       </c>
       <c r="O112" s="2">
-        <f>COUNTIF(History!A315:A399,A112)</f>
+        <f>COUNTIF(History!A314:A399,A112)</f>
         <v>0</v>
       </c>
       <c r="P112" s="2" t="e">
@@ -20516,11 +20852,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K113" s="2">
-        <f>COUNTIF(History!A227:C326,A113)</f>
+        <f>COUNTIF(History!A227:C325,A113)</f>
         <v>0</v>
       </c>
       <c r="L113" s="2">
-        <f>COUNTIF(History!A227:A326,A113)</f>
+        <f>COUNTIF(History!A227:A325,A113)</f>
         <v>0</v>
       </c>
       <c r="M113" s="2" t="e">
@@ -20528,11 +20864,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N113" s="2">
-        <f>COUNTIF(History!A327:C399,A113)</f>
+        <f>COUNTIF(History!A326:C399,A113)</f>
         <v>0</v>
       </c>
       <c r="O113" s="2">
-        <f>COUNTIF(History!A327:A399,A113)</f>
+        <f>COUNTIF(History!A326:A399,A113)</f>
         <v>0</v>
       </c>
       <c r="P113" s="2" t="e">
@@ -20670,11 +21006,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K115" s="2">
-        <f>COUNTIF(History!A304:C399,A115)</f>
+        <f>COUNTIF(History!A303:C399,A115)</f>
         <v>0</v>
       </c>
       <c r="L115" s="2">
-        <f>COUNTIF(History!A304:A399,A115)</f>
+        <f>COUNTIF(History!A303:A399,A115)</f>
         <v>0</v>
       </c>
       <c r="M115" s="2" t="e">
@@ -22044,11 +22380,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H133" s="2">
-        <f>COUNTIF(History!A202:C301,A133)</f>
+        <f>COUNTIF(History!A202:C300,A133)</f>
         <v>0</v>
       </c>
       <c r="I133" s="2">
-        <f>COUNTIF(History!A202:A301,A133)</f>
+        <f>COUNTIF(History!A202:A300,A133)</f>
         <v>0</v>
       </c>
       <c r="J133" s="2" t="e">
@@ -22121,11 +22457,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H134" s="2">
-        <f>COUNTIF(History!A203:C302,A134)</f>
+        <f>COUNTIF(History!A203:C301,A134)</f>
         <v>0</v>
       </c>
       <c r="I134" s="2">
-        <f>COUNTIF(History!A203:A302,A134)</f>
+        <f>COUNTIF(History!A203:A301,A134)</f>
         <v>0</v>
       </c>
       <c r="J134" s="2" t="e">
@@ -22198,11 +22534,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H135" s="2">
-        <f>COUNTIF(History!A204:C303,A135)</f>
+        <f>COUNTIF(History!A204:C302,A135)</f>
         <v>0</v>
       </c>
       <c r="I135" s="2">
-        <f>COUNTIF(History!A204:A303,A135)</f>
+        <f>COUNTIF(History!A204:A302,A135)</f>
         <v>0</v>
       </c>
       <c r="J135" s="2" t="e">
@@ -22275,11 +22611,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H136" s="2">
-        <f>COUNTIF(History!A205:C304,A136)</f>
+        <f>COUNTIF(History!A205:C303,A136)</f>
         <v>0</v>
       </c>
       <c r="I136" s="2">
-        <f>COUNTIF(History!A205:A304,A136)</f>
+        <f>COUNTIF(History!A205:A303,A136)</f>
         <v>0</v>
       </c>
       <c r="J136" s="2" t="e">
@@ -22287,11 +22623,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K136" s="2">
-        <f>COUNTIF(History!A302:C399,A136)</f>
+        <f>COUNTIF(History!A301:C399,A136)</f>
         <v>0</v>
       </c>
       <c r="L136" s="2">
-        <f>COUNTIF(History!A302:A399,A136)</f>
+        <f>COUNTIF(History!A301:A399,A136)</f>
         <v>0</v>
       </c>
       <c r="M136" s="2" t="e">
@@ -22352,11 +22688,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H137" s="2">
-        <f>COUNTIF(History!A207:C306,A137)</f>
+        <f>COUNTIF(History!A207:C305,A137)</f>
         <v>0</v>
       </c>
       <c r="I137" s="2">
-        <f>COUNTIF(History!A207:A306,A137)</f>
+        <f>COUNTIF(History!A207:A305,A137)</f>
         <v>0</v>
       </c>
       <c r="J137" s="2" t="e">
@@ -22364,11 +22700,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K137" s="2">
-        <f>COUNTIF(History!A305:C399,A137)</f>
+        <f>COUNTIF(History!A304:C399,A137)</f>
         <v>0</v>
       </c>
       <c r="L137" s="2">
-        <f>COUNTIF(History!A305:A399,A137)</f>
+        <f>COUNTIF(History!A304:A399,A137)</f>
         <v>0</v>
       </c>
       <c r="M137" s="2" t="e">
@@ -22429,11 +22765,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H138" s="2">
-        <f>COUNTIF(History!A209:C308,A138)</f>
+        <f>COUNTIF(History!A209:C307,A138)</f>
         <v>0</v>
       </c>
       <c r="I138" s="2">
-        <f>COUNTIF(History!A209:A308,A138)</f>
+        <f>COUNTIF(History!A209:A307,A138)</f>
         <v>0</v>
       </c>
       <c r="J138" s="2" t="e">
@@ -22441,11 +22777,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K138" s="2">
-        <f>COUNTIF(History!A307:C399,A138)</f>
+        <f>COUNTIF(History!A306:C399,A138)</f>
         <v>0</v>
       </c>
       <c r="L138" s="2">
-        <f>COUNTIF(History!A307:A399,A138)</f>
+        <f>COUNTIF(History!A306:A399,A138)</f>
         <v>0</v>
       </c>
       <c r="M138" s="2" t="e">
@@ -22506,11 +22842,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H139" s="2">
-        <f>COUNTIF(History!A211:C310,A139)</f>
+        <f>COUNTIF(History!A211:C309,A139)</f>
         <v>0</v>
       </c>
       <c r="I139" s="2">
-        <f>COUNTIF(History!A211:A310,A139)</f>
+        <f>COUNTIF(History!A211:A309,A139)</f>
         <v>0</v>
       </c>
       <c r="J139" s="2" t="e">
@@ -22518,11 +22854,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K139" s="2">
-        <f>COUNTIF(History!A309:C399,A139)</f>
+        <f>COUNTIF(History!A308:C399,A139)</f>
         <v>0</v>
       </c>
       <c r="L139" s="2">
-        <f>COUNTIF(History!A309:A399,A139)</f>
+        <f>COUNTIF(History!A308:A399,A139)</f>
         <v>0</v>
       </c>
       <c r="M139" s="2" t="e">
@@ -22583,11 +22919,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H140" s="2">
-        <f>COUNTIF(History!A212:C311,A140)</f>
+        <f>COUNTIF(History!A212:C310,A140)</f>
         <v>0</v>
       </c>
       <c r="I140" s="2">
-        <f>COUNTIF(History!A212:A311,A140)</f>
+        <f>COUNTIF(History!A212:A310,A140)</f>
         <v>0</v>
       </c>
       <c r="J140" s="2" t="e">
@@ -22595,11 +22931,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K140" s="2">
-        <f>COUNTIF(History!A310:C399,A140)</f>
+        <f>COUNTIF(History!A309:C399,A140)</f>
         <v>0</v>
       </c>
       <c r="L140" s="2">
-        <f>COUNTIF(History!A310:A399,A140)</f>
+        <f>COUNTIF(History!A309:A399,A140)</f>
         <v>0</v>
       </c>
       <c r="M140" s="2" t="e">
@@ -22660,11 +22996,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H141" s="2">
-        <f>COUNTIF(History!A215:C314,A141)</f>
+        <f>COUNTIF(History!A215:C313,A141)</f>
         <v>0</v>
       </c>
       <c r="I141" s="2">
-        <f>COUNTIF(History!A215:A314,A141)</f>
+        <f>COUNTIF(History!A215:A313,A141)</f>
         <v>0</v>
       </c>
       <c r="J141" s="2" t="e">
@@ -22672,11 +23008,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K141" s="2">
-        <f>COUNTIF(History!A313:C399,A141)</f>
+        <f>COUNTIF(History!A312:C399,A141)</f>
         <v>0</v>
       </c>
       <c r="L141" s="2">
-        <f>COUNTIF(History!A313:A399,A141)</f>
+        <f>COUNTIF(History!A312:A399,A141)</f>
         <v>0</v>
       </c>
       <c r="M141" s="2" t="e">
@@ -22737,11 +23073,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H142" s="2">
-        <f>COUNTIF(History!A216:C315,A142)</f>
+        <f>COUNTIF(History!A216:C314,A142)</f>
         <v>0</v>
       </c>
       <c r="I142" s="2">
-        <f>COUNTIF(History!A216:A315,A142)</f>
+        <f>COUNTIF(History!A216:A314,A142)</f>
         <v>0</v>
       </c>
       <c r="J142" s="2" t="e">
@@ -22749,11 +23085,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K142" s="2">
-        <f>COUNTIF(History!A314:C399,A142)</f>
+        <f>COUNTIF(History!A313:C399,A142)</f>
         <v>0</v>
       </c>
       <c r="L142" s="2">
-        <f>COUNTIF(History!A314:A399,A142)</f>
+        <f>COUNTIF(History!A313:A399,A142)</f>
         <v>0</v>
       </c>
       <c r="M142" s="2" t="e">
@@ -22814,11 +23150,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H143" s="2">
-        <f>COUNTIF(History!A217:C316,A143)</f>
+        <f>COUNTIF(History!A217:C315,A143)</f>
         <v>0</v>
       </c>
       <c r="I143" s="2">
-        <f>COUNTIF(History!A217:A316,A143)</f>
+        <f>COUNTIF(History!A217:A315,A143)</f>
         <v>0</v>
       </c>
       <c r="J143" s="2" t="e">
@@ -22826,11 +23162,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K143" s="2">
-        <f>COUNTIF(History!A315:C399,A143)</f>
+        <f>COUNTIF(History!A314:C399,A143)</f>
         <v>0</v>
       </c>
       <c r="L143" s="2">
-        <f>COUNTIF(History!A315:A399,A143)</f>
+        <f>COUNTIF(History!A314:A399,A143)</f>
         <v>0</v>
       </c>
       <c r="M143" s="2" t="e">
@@ -22891,11 +23227,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H144" s="2">
-        <f>COUNTIF(History!A218:C317,A144)</f>
+        <f>COUNTIF(History!A218:C316,A144)</f>
         <v>0</v>
       </c>
       <c r="I144" s="2">
-        <f>COUNTIF(History!A218:A317,A144)</f>
+        <f>COUNTIF(History!A218:A316,A144)</f>
         <v>0</v>
       </c>
       <c r="J144" s="2" t="e">
@@ -22903,11 +23239,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K144" s="2">
-        <f>COUNTIF(History!A316:C399,A144)</f>
+        <f>COUNTIF(History!A315:C399,A144)</f>
         <v>0</v>
       </c>
       <c r="L144" s="2">
-        <f>COUNTIF(History!A316:A399,A144)</f>
+        <f>COUNTIF(History!A315:A399,A144)</f>
         <v>0</v>
       </c>
       <c r="M144" s="2" t="e">
@@ -22968,11 +23304,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H145" s="2">
-        <f>COUNTIF(History!A220:C319,A145)</f>
+        <f>COUNTIF(History!A220:C318,A145)</f>
         <v>0</v>
       </c>
       <c r="I145" s="2">
-        <f>COUNTIF(History!A220:A319,A145)</f>
+        <f>COUNTIF(History!A220:A318,A145)</f>
         <v>0</v>
       </c>
       <c r="J145" s="2" t="e">
@@ -22980,11 +23316,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K145" s="2">
-        <f>COUNTIF(History!A318:C399,A145)</f>
+        <f>COUNTIF(History!A317:C399,A145)</f>
         <v>0</v>
       </c>
       <c r="L145" s="2">
-        <f>COUNTIF(History!A318:A399,A145)</f>
+        <f>COUNTIF(History!A317:A399,A145)</f>
         <v>0</v>
       </c>
       <c r="M145" s="2" t="e">
@@ -23045,11 +23381,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H146" s="2">
-        <f>COUNTIF(History!A221:C320,A146)</f>
+        <f>COUNTIF(History!A221:C319,A146)</f>
         <v>0</v>
       </c>
       <c r="I146" s="2">
-        <f>COUNTIF(History!A221:A320,A146)</f>
+        <f>COUNTIF(History!A221:A319,A146)</f>
         <v>0</v>
       </c>
       <c r="J146" s="2" t="e">
@@ -23057,11 +23393,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K146" s="2">
-        <f>COUNTIF(History!A319:C399,A146)</f>
+        <f>COUNTIF(History!A318:C399,A146)</f>
         <v>0</v>
       </c>
       <c r="L146" s="2">
-        <f>COUNTIF(History!A319:A399,A146)</f>
+        <f>COUNTIF(History!A318:A399,A146)</f>
         <v>0</v>
       </c>
       <c r="M146" s="2" t="e">
@@ -23122,11 +23458,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H147" s="2">
-        <f>COUNTIF(History!A223:C322,A147)</f>
+        <f>COUNTIF(History!A223:C321,A147)</f>
         <v>0</v>
       </c>
       <c r="I147" s="2">
-        <f>COUNTIF(History!A223:A322,A147)</f>
+        <f>COUNTIF(History!A223:A321,A147)</f>
         <v>0</v>
       </c>
       <c r="J147" s="2" t="e">
@@ -23134,11 +23470,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K147" s="2">
-        <f>COUNTIF(History!A321:C399,A147)</f>
+        <f>COUNTIF(History!A320:C399,A147)</f>
         <v>0</v>
       </c>
       <c r="L147" s="2">
-        <f>COUNTIF(History!A321:A399,A147)</f>
+        <f>COUNTIF(History!A320:A399,A147)</f>
         <v>0</v>
       </c>
       <c r="M147" s="2" t="e">
@@ -23199,11 +23535,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H148" s="2">
-        <f>COUNTIF(History!A224:C323,A148)</f>
+        <f>COUNTIF(History!A224:C322,A148)</f>
         <v>0</v>
       </c>
       <c r="I148" s="2">
-        <f>COUNTIF(History!A224:A323,A148)</f>
+        <f>COUNTIF(History!A224:A322,A148)</f>
         <v>0</v>
       </c>
       <c r="J148" s="2" t="e">
@@ -23211,11 +23547,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K148" s="2">
-        <f>COUNTIF(History!A322:C399,A148)</f>
+        <f>COUNTIF(History!A321:C399,A148)</f>
         <v>0</v>
       </c>
       <c r="L148" s="2">
-        <f>COUNTIF(History!A322:A399,A148)</f>
+        <f>COUNTIF(History!A321:A399,A148)</f>
         <v>0</v>
       </c>
       <c r="M148" s="2" t="e">
@@ -23276,11 +23612,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H149" s="2">
-        <f>COUNTIF(History!A225:C324,A149)</f>
+        <f>COUNTIF(History!A225:C323,A149)</f>
         <v>0</v>
       </c>
       <c r="I149" s="2">
-        <f>COUNTIF(History!A225:A324,A149)</f>
+        <f>COUNTIF(History!A225:A323,A149)</f>
         <v>0</v>
       </c>
       <c r="J149" s="2" t="e">
@@ -23288,11 +23624,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K149" s="2">
-        <f>COUNTIF(History!A323:C399,A149)</f>
+        <f>COUNTIF(History!A322:C399,A149)</f>
         <v>0</v>
       </c>
       <c r="L149" s="2">
-        <f>COUNTIF(History!A323:A399,A149)</f>
+        <f>COUNTIF(History!A322:A399,A149)</f>
         <v>0</v>
       </c>
       <c r="M149" s="2" t="e">
@@ -23353,11 +23689,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H150" s="2">
-        <f>COUNTIF(History!A229:C328,A150)</f>
+        <f>COUNTIF(History!A229:C327,A150)</f>
         <v>0</v>
       </c>
       <c r="I150" s="2">
-        <f>COUNTIF(History!A229:A328,A150)</f>
+        <f>COUNTIF(History!A229:A327,A150)</f>
         <v>0</v>
       </c>
       <c r="J150" s="2" t="e">
@@ -23365,11 +23701,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K150" s="2">
-        <f>COUNTIF(History!A327:C399,A150)</f>
+        <f>COUNTIF(History!A326:C399,A150)</f>
         <v>0</v>
       </c>
       <c r="L150" s="2">
-        <f>COUNTIF(History!A327:A399,A150)</f>
+        <f>COUNTIF(History!A326:A399,A150)</f>
         <v>0</v>
       </c>
       <c r="M150" s="2" t="e">
@@ -23430,11 +23766,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H151" s="2">
-        <f>COUNTIF(History!A230:C329,A151)</f>
+        <f>COUNTIF(History!A230:C328,A151)</f>
         <v>0</v>
       </c>
       <c r="I151" s="2">
-        <f>COUNTIF(History!A230:A329,A151)</f>
+        <f>COUNTIF(History!A230:A328,A151)</f>
         <v>0</v>
       </c>
       <c r="J151" s="2" t="e">
@@ -23442,11 +23778,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K151" s="2">
-        <f>COUNTIF(History!A328:C399,A151)</f>
+        <f>COUNTIF(History!A327:C399,A151)</f>
         <v>0</v>
       </c>
       <c r="L151" s="2">
-        <f>COUNTIF(History!A328:A399,A151)</f>
+        <f>COUNTIF(History!A327:A399,A151)</f>
         <v>0</v>
       </c>
       <c r="M151" s="2" t="e">
@@ -23507,11 +23843,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H152" s="2">
-        <f>COUNTIF(History!A231:C330,A152)</f>
+        <f>COUNTIF(History!A231:C329,A152)</f>
         <v>0</v>
       </c>
       <c r="I152" s="2">
-        <f>COUNTIF(History!A231:A330,A152)</f>
+        <f>COUNTIF(History!A231:A329,A152)</f>
         <v>0</v>
       </c>
       <c r="J152" s="2" t="e">
@@ -23519,11 +23855,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K152" s="2">
-        <f>COUNTIF(History!A329:C399,A152)</f>
+        <f>COUNTIF(History!A328:C399,A152)</f>
         <v>0</v>
       </c>
       <c r="L152" s="2">
-        <f>COUNTIF(History!A329:A399,A152)</f>
+        <f>COUNTIF(History!A328:A399,A152)</f>
         <v>0</v>
       </c>
       <c r="M152" s="2" t="e">
@@ -23596,11 +23932,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K153" s="2">
-        <f>COUNTIF(History!A331:C399,A153)</f>
+        <f>COUNTIF(History!A330:C399,A153)</f>
         <v>0</v>
       </c>
       <c r="L153" s="2">
-        <f>COUNTIF(History!A331:A399,A153)</f>
+        <f>COUNTIF(History!A330:A399,A153)</f>
         <v>0</v>
       </c>
       <c r="M153" s="2" t="e">
@@ -28115,11 +28451,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E212" s="8">
-        <f>COUNTIF(History!A202:C301,A212)</f>
+        <f>COUNTIF(History!A202:C300,A212)</f>
         <v>0</v>
       </c>
       <c r="F212" s="8">
-        <f>COUNTIF(History!A202:A301,A212)</f>
+        <f>COUNTIF(History!A202:A300,A212)</f>
         <v>0</v>
       </c>
       <c r="G212" s="2" t="e">
@@ -28127,11 +28463,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H212" s="2">
-        <f>COUNTIF(History!A302:C401,A212)</f>
+        <f>COUNTIF(History!A301:C401,A212)</f>
         <v>0</v>
       </c>
       <c r="I212" s="2">
-        <f>COUNTIF(History!A302:A401,A212)</f>
+        <f>COUNTIF(History!A301:A401,A212)</f>
         <v>0</v>
       </c>
       <c r="J212" s="2" t="e">
@@ -28192,11 +28528,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E213" s="8">
-        <f>COUNTIF(History!A203:C302,A213)</f>
+        <f>COUNTIF(History!A203:C301,A213)</f>
         <v>0</v>
       </c>
       <c r="F213" s="8">
-        <f>COUNTIF(History!A203:A302,A213)</f>
+        <f>COUNTIF(History!A203:A301,A213)</f>
         <v>0</v>
       </c>
       <c r="G213" s="2" t="e">
@@ -28204,11 +28540,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H213" s="2">
-        <f>COUNTIF(History!A303:C402,A213)</f>
+        <f>COUNTIF(History!A302:C402,A213)</f>
         <v>0</v>
       </c>
       <c r="I213" s="2">
-        <f>COUNTIF(History!A303:A402,A213)</f>
+        <f>COUNTIF(History!A302:A402,A213)</f>
         <v>0</v>
       </c>
       <c r="J213" s="2" t="e">
@@ -28269,11 +28605,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E214" s="8">
-        <f>COUNTIF(History!A204:C303,A214)</f>
+        <f>COUNTIF(History!A204:C302,A214)</f>
         <v>0</v>
       </c>
       <c r="F214" s="8">
-        <f>COUNTIF(History!A204:A303,A214)</f>
+        <f>COUNTIF(History!A204:A302,A214)</f>
         <v>0</v>
       </c>
       <c r="G214" s="2" t="e">
@@ -28281,11 +28617,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H214" s="2">
-        <f>COUNTIF(History!A304:C403,A214)</f>
+        <f>COUNTIF(History!A303:C403,A214)</f>
         <v>0</v>
       </c>
       <c r="I214" s="2">
-        <f>COUNTIF(History!A304:A403,A214)</f>
+        <f>COUNTIF(History!A303:A403,A214)</f>
         <v>0</v>
       </c>
       <c r="J214" s="2" t="e">
@@ -28346,11 +28682,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E215" s="8">
-        <f>COUNTIF(History!A205:C304,A215)</f>
+        <f>COUNTIF(History!A205:C303,A215)</f>
         <v>0</v>
       </c>
       <c r="F215" s="8">
-        <f>COUNTIF(History!A205:A304,A215)</f>
+        <f>COUNTIF(History!A205:A303,A215)</f>
         <v>0</v>
       </c>
       <c r="G215" s="2" t="e">
@@ -28358,11 +28694,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H215" s="2">
-        <f>COUNTIF(History!A305:C404,A215)</f>
+        <f>COUNTIF(History!A304:C404,A215)</f>
         <v>0</v>
       </c>
       <c r="I215" s="2">
-        <f>COUNTIF(History!A305:A404,A215)</f>
+        <f>COUNTIF(History!A304:A404,A215)</f>
         <v>0</v>
       </c>
       <c r="J215" s="2" t="e">
@@ -28423,11 +28759,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E216" s="8">
-        <f>COUNTIF(History!A206:C305,A216)</f>
+        <f>COUNTIF(History!A206:C304,A216)</f>
         <v>0</v>
       </c>
       <c r="F216" s="8">
-        <f>COUNTIF(History!A206:A305,A216)</f>
+        <f>COUNTIF(History!A206:A304,A216)</f>
         <v>0</v>
       </c>
       <c r="G216" s="2" t="e">
@@ -28435,11 +28771,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H216" s="2">
-        <f>COUNTIF(History!A306:C405,A216)</f>
+        <f>COUNTIF(History!A305:C405,A216)</f>
         <v>0</v>
       </c>
       <c r="I216" s="2">
-        <f>COUNTIF(History!A306:A405,A216)</f>
+        <f>COUNTIF(History!A305:A405,A216)</f>
         <v>0</v>
       </c>
       <c r="J216" s="2" t="e">
@@ -28500,11 +28836,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E217" s="8">
-        <f>COUNTIF(History!A208:C307,A217)</f>
+        <f>COUNTIF(History!A208:C306,A217)</f>
         <v>0</v>
       </c>
       <c r="F217" s="8">
-        <f>COUNTIF(History!A208:A307,A217)</f>
+        <f>COUNTIF(History!A208:A306,A217)</f>
         <v>0</v>
       </c>
       <c r="G217" s="2" t="e">
@@ -28512,11 +28848,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H217" s="2">
-        <f>COUNTIF(History!A308:C407,A217)</f>
+        <f>COUNTIF(History!A307:C407,A217)</f>
         <v>0</v>
       </c>
       <c r="I217" s="2">
-        <f>COUNTIF(History!A308:A407,A217)</f>
+        <f>COUNTIF(History!A307:A407,A217)</f>
         <v>0</v>
       </c>
       <c r="J217" s="2" t="e">
@@ -28577,11 +28913,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E218" s="8">
-        <f>COUNTIF(History!A209:C308,A218)</f>
+        <f>COUNTIF(History!A209:C307,A218)</f>
         <v>0</v>
       </c>
       <c r="F218" s="8">
-        <f>COUNTIF(History!A209:A308,A218)</f>
+        <f>COUNTIF(History!A209:A307,A218)</f>
         <v>0</v>
       </c>
       <c r="G218" s="2" t="e">
@@ -28589,11 +28925,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H218" s="2">
-        <f>COUNTIF(History!A309:C408,A218)</f>
+        <f>COUNTIF(History!A308:C408,A218)</f>
         <v>0</v>
       </c>
       <c r="I218" s="2">
-        <f>COUNTIF(History!A309:A408,A218)</f>
+        <f>COUNTIF(History!A308:A408,A218)</f>
         <v>0</v>
       </c>
       <c r="J218" s="2" t="e">
@@ -28654,11 +28990,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E219" s="8">
-        <f>COUNTIF(History!A210:C309,A219)</f>
+        <f>COUNTIF(History!A210:C308,A219)</f>
         <v>0</v>
       </c>
       <c r="F219" s="8">
-        <f>COUNTIF(History!A210:A309,A219)</f>
+        <f>COUNTIF(History!A210:A308,A219)</f>
         <v>0</v>
       </c>
       <c r="G219" s="2" t="e">
@@ -28666,11 +29002,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H219" s="2">
-        <f>COUNTIF(History!A310:C409,A219)</f>
+        <f>COUNTIF(History!A309:C409,A219)</f>
         <v>0</v>
       </c>
       <c r="I219" s="2">
-        <f>COUNTIF(History!A310:A409,A219)</f>
+        <f>COUNTIF(History!A309:A409,A219)</f>
         <v>0</v>
       </c>
       <c r="J219" s="2" t="e">
@@ -28731,11 +29067,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E220" s="8">
-        <f>COUNTIF(History!A211:C310,A220)</f>
+        <f>COUNTIF(History!A211:C309,A220)</f>
         <v>0</v>
       </c>
       <c r="F220" s="8">
-        <f>COUNTIF(History!A211:A310,A220)</f>
+        <f>COUNTIF(History!A211:A309,A220)</f>
         <v>0</v>
       </c>
       <c r="G220" s="2" t="e">
@@ -28743,11 +29079,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H220" s="2">
-        <f>COUNTIF(History!A311:C410,A220)</f>
+        <f>COUNTIF(History!A310:C410,A220)</f>
         <v>0</v>
       </c>
       <c r="I220" s="2">
-        <f>COUNTIF(History!A311:A410,A220)</f>
+        <f>COUNTIF(History!A310:A410,A220)</f>
         <v>0</v>
       </c>
       <c r="J220" s="2" t="e">
@@ -28808,11 +29144,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E221" s="8">
-        <f>COUNTIF(History!A212:C311,A221)</f>
+        <f>COUNTIF(History!A212:C310,A221)</f>
         <v>0</v>
       </c>
       <c r="F221" s="8">
-        <f>COUNTIF(History!A212:A311,A221)</f>
+        <f>COUNTIF(History!A212:A310,A221)</f>
         <v>0</v>
       </c>
       <c r="G221" s="2" t="e">
@@ -28820,11 +29156,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H221" s="2">
-        <f>COUNTIF(History!A312:C411,A221)</f>
+        <f>COUNTIF(History!A311:C411,A221)</f>
         <v>0</v>
       </c>
       <c r="I221" s="2">
-        <f>COUNTIF(History!A312:A411,A221)</f>
+        <f>COUNTIF(History!A311:A411,A221)</f>
         <v>0</v>
       </c>
       <c r="J221" s="2" t="e">
@@ -28885,11 +29221,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E222" s="8">
-        <f>COUNTIF(History!A213:C312,A222)</f>
+        <f>COUNTIF(History!A213:C311,A222)</f>
         <v>0</v>
       </c>
       <c r="F222" s="8">
-        <f>COUNTIF(History!A213:A312,A222)</f>
+        <f>COUNTIF(History!A213:A311,A222)</f>
         <v>0</v>
       </c>
       <c r="G222" s="2" t="e">
@@ -28897,11 +29233,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H222" s="2">
-        <f>COUNTIF(History!A313:C412,A222)</f>
+        <f>COUNTIF(History!A312:C412,A222)</f>
         <v>0</v>
       </c>
       <c r="I222" s="2">
-        <f>COUNTIF(History!A313:A412,A222)</f>
+        <f>COUNTIF(History!A312:A412,A222)</f>
         <v>0</v>
       </c>
       <c r="J222" s="2" t="e">
@@ -28962,11 +29298,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E223" s="8">
-        <f>COUNTIF(History!A214:C313,A223)</f>
+        <f>COUNTIF(History!A214:C312,A223)</f>
         <v>0</v>
       </c>
       <c r="F223" s="8">
-        <f>COUNTIF(History!A214:A313,A223)</f>
+        <f>COUNTIF(History!A214:A312,A223)</f>
         <v>0</v>
       </c>
       <c r="G223" s="2" t="e">
@@ -28974,11 +29310,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H223" s="2">
-        <f>COUNTIF(History!A314:C413,A223)</f>
+        <f>COUNTIF(History!A313:C413,A223)</f>
         <v>0</v>
       </c>
       <c r="I223" s="2">
-        <f>COUNTIF(History!A314:A413,A223)</f>
+        <f>COUNTIF(History!A313:A413,A223)</f>
         <v>0</v>
       </c>
       <c r="J223" s="2" t="e">
@@ -29039,11 +29375,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E224" s="8">
-        <f>COUNTIF(History!A215:C314,A224)</f>
+        <f>COUNTIF(History!A215:C313,A224)</f>
         <v>0</v>
       </c>
       <c r="F224" s="8">
-        <f>COUNTIF(History!A215:A314,A224)</f>
+        <f>COUNTIF(History!A215:A313,A224)</f>
         <v>0</v>
       </c>
       <c r="G224" s="2" t="e">
@@ -29051,11 +29387,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H224" s="2">
-        <f>COUNTIF(History!A315:C414,A224)</f>
+        <f>COUNTIF(History!A314:C414,A224)</f>
         <v>0</v>
       </c>
       <c r="I224" s="2">
-        <f>COUNTIF(History!A315:A414,A224)</f>
+        <f>COUNTIF(History!A314:A414,A224)</f>
         <v>0</v>
       </c>
       <c r="J224" s="2" t="e">
@@ -29116,11 +29452,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E225" s="8">
-        <f>COUNTIF(History!A216:C315,A225)</f>
+        <f>COUNTIF(History!A216:C314,A225)</f>
         <v>0</v>
       </c>
       <c r="F225" s="8">
-        <f>COUNTIF(History!A216:A315,A225)</f>
+        <f>COUNTIF(History!A216:A314,A225)</f>
         <v>0</v>
       </c>
       <c r="G225" s="2" t="e">
@@ -29128,11 +29464,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H225" s="2">
-        <f>COUNTIF(History!A316:C415,A225)</f>
+        <f>COUNTIF(History!A315:C415,A225)</f>
         <v>0</v>
       </c>
       <c r="I225" s="2">
-        <f>COUNTIF(History!A316:A415,A225)</f>
+        <f>COUNTIF(History!A315:A415,A225)</f>
         <v>0</v>
       </c>
       <c r="J225" s="2" t="e">
@@ -29193,11 +29529,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E226" s="8">
-        <f>COUNTIF(History!A217:C316,A226)</f>
+        <f>COUNTIF(History!A217:C315,A226)</f>
         <v>0</v>
       </c>
       <c r="F226" s="8">
-        <f>COUNTIF(History!A217:A316,A226)</f>
+        <f>COUNTIF(History!A217:A315,A226)</f>
         <v>0</v>
       </c>
       <c r="G226" s="2" t="e">
@@ -29205,11 +29541,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H226" s="2">
-        <f>COUNTIF(History!A317:C416,A226)</f>
+        <f>COUNTIF(History!A316:C416,A226)</f>
         <v>0</v>
       </c>
       <c r="I226" s="2">
-        <f>COUNTIF(History!A317:A416,A226)</f>
+        <f>COUNTIF(History!A316:A416,A226)</f>
         <v>0</v>
       </c>
       <c r="J226" s="2" t="e">
@@ -29270,11 +29606,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E227" s="8">
-        <f>COUNTIF(History!A218:C317,A227)</f>
+        <f>COUNTIF(History!A218:C316,A227)</f>
         <v>0</v>
       </c>
       <c r="F227" s="8">
-        <f>COUNTIF(History!A218:A317,A227)</f>
+        <f>COUNTIF(History!A218:A316,A227)</f>
         <v>0</v>
       </c>
       <c r="G227" s="2" t="e">
@@ -29282,11 +29618,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H227" s="2">
-        <f>COUNTIF(History!A318:C417,A227)</f>
+        <f>COUNTIF(History!A317:C417,A227)</f>
         <v>0</v>
       </c>
       <c r="I227" s="2">
-        <f>COUNTIF(History!A318:A417,A227)</f>
+        <f>COUNTIF(History!A317:A417,A227)</f>
         <v>0</v>
       </c>
       <c r="J227" s="2" t="e">
@@ -29347,11 +29683,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E228" s="8">
-        <f>COUNTIF(History!A219:C318,A228)</f>
+        <f>COUNTIF(History!A219:C317,A228)</f>
         <v>0</v>
       </c>
       <c r="F228" s="8">
-        <f>COUNTIF(History!A219:A318,A228)</f>
+        <f>COUNTIF(History!A219:A317,A228)</f>
         <v>0</v>
       </c>
       <c r="G228" s="2" t="e">
@@ -29359,11 +29695,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H228" s="2">
-        <f>COUNTIF(History!A319:C418,A228)</f>
+        <f>COUNTIF(History!A318:C418,A228)</f>
         <v>0</v>
       </c>
       <c r="I228" s="2">
-        <f>COUNTIF(History!A319:A418,A228)</f>
+        <f>COUNTIF(History!A318:A418,A228)</f>
         <v>0</v>
       </c>
       <c r="J228" s="2" t="e">
@@ -29424,11 +29760,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E229" s="8">
-        <f>COUNTIF(History!A221:C320,A229)</f>
+        <f>COUNTIF(History!A221:C319,A229)</f>
         <v>0</v>
       </c>
       <c r="F229" s="8">
-        <f>COUNTIF(History!A221:A320,A229)</f>
+        <f>COUNTIF(History!A221:A319,A229)</f>
         <v>0</v>
       </c>
       <c r="G229" s="2" t="e">
@@ -29436,11 +29772,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H229" s="2">
-        <f>COUNTIF(History!A321:C420,A229)</f>
+        <f>COUNTIF(History!A320:C420,A229)</f>
         <v>0</v>
       </c>
       <c r="I229" s="2">
-        <f>COUNTIF(History!A321:A420,A229)</f>
+        <f>COUNTIF(History!A320:A420,A229)</f>
         <v>0</v>
       </c>
       <c r="J229" s="2" t="e">
@@ -29501,11 +29837,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E230" s="8">
-        <f>COUNTIF(History!A222:C321,A230)</f>
+        <f>COUNTIF(History!A222:C320,A230)</f>
         <v>0</v>
       </c>
       <c r="F230" s="8">
-        <f>COUNTIF(History!A222:A321,A230)</f>
+        <f>COUNTIF(History!A222:A320,A230)</f>
         <v>0</v>
       </c>
       <c r="G230" s="2" t="e">
@@ -29513,11 +29849,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H230" s="2">
-        <f>COUNTIF(History!A322:C421,A230)</f>
+        <f>COUNTIF(History!A321:C421,A230)</f>
         <v>0</v>
       </c>
       <c r="I230" s="2">
-        <f>COUNTIF(History!A322:A421,A230)</f>
+        <f>COUNTIF(History!A321:A421,A230)</f>
         <v>0</v>
       </c>
       <c r="J230" s="2" t="e">
@@ -29578,11 +29914,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E231" s="8">
-        <f>COUNTIF(History!A223:C322,A231)</f>
+        <f>COUNTIF(History!A223:C321,A231)</f>
         <v>0</v>
       </c>
       <c r="F231" s="8">
-        <f>COUNTIF(History!A223:A322,A231)</f>
+        <f>COUNTIF(History!A223:A321,A231)</f>
         <v>0</v>
       </c>
       <c r="G231" s="2" t="e">
@@ -29590,11 +29926,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H231" s="2">
-        <f>COUNTIF(History!A323:C422,A231)</f>
+        <f>COUNTIF(History!A322:C422,A231)</f>
         <v>0</v>
       </c>
       <c r="I231" s="2">
-        <f>COUNTIF(History!A323:A422,A231)</f>
+        <f>COUNTIF(History!A322:A422,A231)</f>
         <v>0</v>
       </c>
       <c r="J231" s="2" t="e">
@@ -29655,11 +29991,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E232" s="8">
-        <f>COUNTIF(History!A224:C323,A232)</f>
+        <f>COUNTIF(History!A224:C322,A232)</f>
         <v>0</v>
       </c>
       <c r="F232" s="8">
-        <f>COUNTIF(History!A224:A323,A232)</f>
+        <f>COUNTIF(History!A224:A322,A232)</f>
         <v>0</v>
       </c>
       <c r="G232" s="2" t="e">
@@ -29667,11 +30003,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H232" s="2">
-        <f>COUNTIF(History!A324:C423,A232)</f>
+        <f>COUNTIF(History!A323:C423,A232)</f>
         <v>0</v>
       </c>
       <c r="I232" s="2">
-        <f>COUNTIF(History!A324:A423,A232)</f>
+        <f>COUNTIF(History!A323:A423,A232)</f>
         <v>0</v>
       </c>
       <c r="J232" s="2" t="e">
@@ -29732,11 +30068,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E233" s="8">
-        <f>COUNTIF(History!A225:C324,A233)</f>
+        <f>COUNTIF(History!A225:C323,A233)</f>
         <v>0</v>
       </c>
       <c r="F233" s="8">
-        <f>COUNTIF(History!A225:A324,A233)</f>
+        <f>COUNTIF(History!A225:A323,A233)</f>
         <v>0</v>
       </c>
       <c r="G233" s="2" t="e">
@@ -29744,11 +30080,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H233" s="2">
-        <f>COUNTIF(History!A325:C424,A233)</f>
+        <f>COUNTIF(History!A324:C424,A233)</f>
         <v>0</v>
       </c>
       <c r="I233" s="2">
-        <f>COUNTIF(History!A325:A424,A233)</f>
+        <f>COUNTIF(History!A324:A424,A233)</f>
         <v>0</v>
       </c>
       <c r="J233" s="2" t="e">
@@ -29809,11 +30145,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E234" s="8">
-        <f>COUNTIF(History!A226:C325,A234)</f>
+        <f>COUNTIF(History!A226:C324,A234)</f>
         <v>0</v>
       </c>
       <c r="F234" s="8">
-        <f>COUNTIF(History!A226:A325,A234)</f>
+        <f>COUNTIF(History!A226:A324,A234)</f>
         <v>0</v>
       </c>
       <c r="G234" s="2" t="e">
@@ -29821,11 +30157,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H234" s="2">
-        <f>COUNTIF(History!A326:C425,A234)</f>
+        <f>COUNTIF(History!A325:C425,A234)</f>
         <v>0</v>
       </c>
       <c r="I234" s="2">
-        <f>COUNTIF(History!A326:A425,A234)</f>
+        <f>COUNTIF(History!A325:A425,A234)</f>
         <v>0</v>
       </c>
       <c r="J234" s="2" t="e">
@@ -29886,11 +30222,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E235" s="8">
-        <f>COUNTIF(History!A227:C326,A235)</f>
+        <f>COUNTIF(History!A227:C325,A235)</f>
         <v>0</v>
       </c>
       <c r="F235" s="8">
-        <f>COUNTIF(History!A227:A326,A235)</f>
+        <f>COUNTIF(History!A227:A325,A235)</f>
         <v>0</v>
       </c>
       <c r="G235" s="2" t="e">
@@ -29898,11 +30234,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H235" s="2">
-        <f>COUNTIF(History!A327:C426,A235)</f>
+        <f>COUNTIF(History!A326:C426,A235)</f>
         <v>0</v>
       </c>
       <c r="I235" s="2">
-        <f>COUNTIF(History!A327:A426,A235)</f>
+        <f>COUNTIF(History!A326:A426,A235)</f>
         <v>0</v>
       </c>
       <c r="J235" s="2" t="e">
@@ -29963,11 +30299,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E236" s="8">
-        <f>COUNTIF(History!A228:C327,A236)</f>
+        <f>COUNTIF(History!A228:C326,A236)</f>
         <v>0</v>
       </c>
       <c r="F236" s="8">
-        <f>COUNTIF(History!A228:A327,A236)</f>
+        <f>COUNTIF(History!A228:A326,A236)</f>
         <v>0</v>
       </c>
       <c r="G236" s="2" t="e">
@@ -29975,11 +30311,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H236" s="2">
-        <f>COUNTIF(History!A328:C427,A236)</f>
+        <f>COUNTIF(History!A327:C427,A236)</f>
         <v>0</v>
       </c>
       <c r="I236" s="2">
-        <f>COUNTIF(History!A328:A427,A236)</f>
+        <f>COUNTIF(History!A327:A427,A236)</f>
         <v>0</v>
       </c>
       <c r="J236" s="2" t="e">
@@ -30040,11 +30376,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E237" s="8">
-        <f>COUNTIF(History!A229:C328,A237)</f>
+        <f>COUNTIF(History!A229:C327,A237)</f>
         <v>0</v>
       </c>
       <c r="F237" s="8">
-        <f>COUNTIF(History!A229:A328,A237)</f>
+        <f>COUNTIF(History!A229:A327,A237)</f>
         <v>0</v>
       </c>
       <c r="G237" s="2" t="e">
@@ -30052,11 +30388,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H237" s="2">
-        <f>COUNTIF(History!A329:C428,A237)</f>
+        <f>COUNTIF(History!A328:C428,A237)</f>
         <v>0</v>
       </c>
       <c r="I237" s="2">
-        <f>COUNTIF(History!A329:A428,A237)</f>
+        <f>COUNTIF(History!A328:A428,A237)</f>
         <v>0</v>
       </c>
       <c r="J237" s="2" t="e">
@@ -30117,11 +30453,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E238" s="8">
-        <f>COUNTIF(History!A230:C329,A238)</f>
+        <f>COUNTIF(History!A230:C328,A238)</f>
         <v>0</v>
       </c>
       <c r="F238" s="8">
-        <f>COUNTIF(History!A230:A329,A238)</f>
+        <f>COUNTIF(History!A230:A328,A238)</f>
         <v>0</v>
       </c>
       <c r="G238" s="2" t="e">
@@ -30129,11 +30465,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H238" s="2">
-        <f>COUNTIF(History!A330:C429,A238)</f>
+        <f>COUNTIF(History!A329:C429,A238)</f>
         <v>0</v>
       </c>
       <c r="I238" s="2">
-        <f>COUNTIF(History!A330:A429,A238)</f>
+        <f>COUNTIF(History!A329:A429,A238)</f>
         <v>0</v>
       </c>
       <c r="J238" s="2" t="e">
@@ -30194,11 +30530,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E239" s="8">
-        <f>COUNTIF(History!A231:C330,A239)</f>
+        <f>COUNTIF(History!A231:C329,A239)</f>
         <v>0</v>
       </c>
       <c r="F239" s="8">
-        <f>COUNTIF(History!A231:A330,A239)</f>
+        <f>COUNTIF(History!A231:A329,A239)</f>
         <v>0</v>
       </c>
       <c r="G239" s="2" t="e">
@@ -30206,11 +30542,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H239" s="2">
-        <f>COUNTIF(History!A331:C430,A239)</f>
+        <f>COUNTIF(History!A330:C430,A239)</f>
         <v>0</v>
       </c>
       <c r="I239" s="2">
-        <f>COUNTIF(History!A331:A430,A239)</f>
+        <f>COUNTIF(History!A330:A430,A239)</f>
         <v>0</v>
       </c>
       <c r="J239" s="2" t="e">
@@ -30271,11 +30607,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E240" s="8">
-        <f>COUNTIF(History!A232:C331,A240)</f>
+        <f>COUNTIF(History!A232:C330,A240)</f>
         <v>0</v>
       </c>
       <c r="F240" s="8">
-        <f>COUNTIF(History!A232:A331,A240)</f>
+        <f>COUNTIF(History!A232:A330,A240)</f>
         <v>0</v>
       </c>
       <c r="G240" s="2" t="e">
@@ -34784,11 +35120,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E305" s="8">
-        <f>COUNTIF(History!A302:C401,A305)</f>
+        <f>COUNTIF(History!A301:C401,A305)</f>
         <v>0</v>
       </c>
       <c r="F305" s="8">
-        <f>COUNTIF(History!A302:A401,A305)</f>
+        <f>COUNTIF(History!A301:A401,A305)</f>
         <v>0</v>
       </c>
       <c r="G305" s="2" t="e">
@@ -34849,11 +35185,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E306" s="8">
-        <f>COUNTIF(History!A303:C402,A306)</f>
+        <f>COUNTIF(History!A302:C402,A306)</f>
         <v>0</v>
       </c>
       <c r="F306" s="8">
-        <f>COUNTIF(History!A303:A402,A306)</f>
+        <f>COUNTIF(History!A302:A402,A306)</f>
         <v>0</v>
       </c>
       <c r="G306" s="2" t="e">
@@ -34914,11 +35250,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E307" s="8">
-        <f>COUNTIF(History!A304:C403,A307)</f>
+        <f>COUNTIF(History!A303:C403,A307)</f>
         <v>0</v>
       </c>
       <c r="F307" s="8">
-        <f>COUNTIF(History!A304:A403,A307)</f>
+        <f>COUNTIF(History!A303:A403,A307)</f>
         <v>0</v>
       </c>
       <c r="G307" s="2" t="e">
@@ -34979,11 +35315,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E308" s="8">
-        <f>COUNTIF(History!A305:C404,A308)</f>
+        <f>COUNTIF(History!A304:C404,A308)</f>
         <v>0</v>
       </c>
       <c r="F308" s="8">
-        <f>COUNTIF(History!A305:A404,A308)</f>
+        <f>COUNTIF(History!A304:A404,A308)</f>
         <v>0</v>
       </c>
       <c r="G308" s="2" t="e">
@@ -35044,11 +35380,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E309" s="8">
-        <f>COUNTIF(History!A306:C405,A309)</f>
+        <f>COUNTIF(History!A305:C405,A309)</f>
         <v>0</v>
       </c>
       <c r="F309" s="8">
-        <f>COUNTIF(History!A306:A405,A309)</f>
+        <f>COUNTIF(History!A305:A405,A309)</f>
         <v>0</v>
       </c>
       <c r="G309" s="2" t="e">
@@ -35109,11 +35445,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E310" s="8">
-        <f>COUNTIF(History!A307:C406,A310)</f>
+        <f>COUNTIF(History!A306:C406,A310)</f>
         <v>0</v>
       </c>
       <c r="F310" s="8">
-        <f>COUNTIF(History!A307:A406,A310)</f>
+        <f>COUNTIF(History!A306:A406,A310)</f>
         <v>0</v>
       </c>
       <c r="G310" s="2" t="e">
@@ -35174,11 +35510,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E311" s="8">
-        <f>COUNTIF(History!A308:C407,A311)</f>
+        <f>COUNTIF(History!A307:C407,A311)</f>
         <v>0</v>
       </c>
       <c r="F311" s="8">
-        <f>COUNTIF(History!A308:A407,A311)</f>
+        <f>COUNTIF(History!A307:A407,A311)</f>
         <v>0</v>
       </c>
       <c r="G311" s="2" t="e">
@@ -35239,11 +35575,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E312" s="8">
-        <f>COUNTIF(History!A309:C408,A312)</f>
+        <f>COUNTIF(History!A308:C408,A312)</f>
         <v>0</v>
       </c>
       <c r="F312" s="8">
-        <f>COUNTIF(History!A309:A408,A312)</f>
+        <f>COUNTIF(History!A308:A408,A312)</f>
         <v>0</v>
       </c>
       <c r="G312" s="2" t="e">
@@ -35304,11 +35640,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E313" s="8">
-        <f>COUNTIF(History!A310:C409,A313)</f>
+        <f>COUNTIF(History!A309:C409,A313)</f>
         <v>0</v>
       </c>
       <c r="F313" s="8">
-        <f>COUNTIF(History!A310:A409,A313)</f>
+        <f>COUNTIF(History!A309:A409,A313)</f>
         <v>0</v>
       </c>
       <c r="G313" s="2" t="e">
@@ -35369,11 +35705,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E314" s="8">
-        <f>COUNTIF(History!A311:C410,A314)</f>
+        <f>COUNTIF(History!A310:C410,A314)</f>
         <v>0</v>
       </c>
       <c r="F314" s="8">
-        <f>COUNTIF(History!A311:A410,A314)</f>
+        <f>COUNTIF(History!A310:A410,A314)</f>
         <v>0</v>
       </c>
       <c r="G314" s="2" t="e">
@@ -35434,11 +35770,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E315" s="8">
-        <f>COUNTIF(History!A312:C411,A315)</f>
+        <f>COUNTIF(History!A311:C411,A315)</f>
         <v>0</v>
       </c>
       <c r="F315" s="8">
-        <f>COUNTIF(History!A312:A411,A315)</f>
+        <f>COUNTIF(History!A311:A411,A315)</f>
         <v>0</v>
       </c>
       <c r="G315" s="2" t="e">
@@ -35499,11 +35835,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E316" s="8">
-        <f>COUNTIF(History!A313:C412,A316)</f>
+        <f>COUNTIF(History!A312:C412,A316)</f>
         <v>0</v>
       </c>
       <c r="F316" s="8">
-        <f>COUNTIF(History!A313:A412,A316)</f>
+        <f>COUNTIF(History!A312:A412,A316)</f>
         <v>0</v>
       </c>
       <c r="G316" s="2" t="e">
@@ -35564,11 +35900,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E317" s="8">
-        <f>COUNTIF(History!A314:C413,A317)</f>
+        <f>COUNTIF(History!A313:C413,A317)</f>
         <v>0</v>
       </c>
       <c r="F317" s="8">
-        <f>COUNTIF(History!A314:A413,A317)</f>
+        <f>COUNTIF(History!A313:A413,A317)</f>
         <v>0</v>
       </c>
       <c r="G317" s="2" t="e">
@@ -35629,11 +35965,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E318" s="8">
-        <f>COUNTIF(History!A315:C414,A318)</f>
+        <f>COUNTIF(History!A314:C414,A318)</f>
         <v>0</v>
       </c>
       <c r="F318" s="8">
-        <f>COUNTIF(History!A315:A414,A318)</f>
+        <f>COUNTIF(History!A314:A414,A318)</f>
         <v>0</v>
       </c>
       <c r="G318" s="2" t="e">
@@ -35694,11 +36030,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E319" s="8">
-        <f>COUNTIF(History!A316:C415,A319)</f>
+        <f>COUNTIF(History!A315:C415,A319)</f>
         <v>0</v>
       </c>
       <c r="F319" s="8">
-        <f>COUNTIF(History!A316:A415,A319)</f>
+        <f>COUNTIF(History!A315:A415,A319)</f>
         <v>0</v>
       </c>
       <c r="G319" s="2" t="e">
@@ -35759,11 +36095,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E320" s="8">
-        <f>COUNTIF(History!A317:C416,A320)</f>
+        <f>COUNTIF(History!A316:C416,A320)</f>
         <v>0</v>
       </c>
       <c r="F320" s="8">
-        <f>COUNTIF(History!A317:A416,A320)</f>
+        <f>COUNTIF(History!A316:A416,A320)</f>
         <v>0</v>
       </c>
       <c r="G320" s="2" t="e">
@@ -35824,11 +36160,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E321" s="8">
-        <f>COUNTIF(History!A318:C417,A321)</f>
+        <f>COUNTIF(History!A317:C417,A321)</f>
         <v>0</v>
       </c>
       <c r="F321" s="8">
-        <f>COUNTIF(History!A318:A417,A321)</f>
+        <f>COUNTIF(History!A317:A417,A321)</f>
         <v>0</v>
       </c>
       <c r="G321" s="2" t="e">
@@ -35889,11 +36225,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E322" s="8">
-        <f>COUNTIF(History!A319:C418,A322)</f>
+        <f>COUNTIF(History!A318:C418,A322)</f>
         <v>0</v>
       </c>
       <c r="F322" s="8">
-        <f>COUNTIF(History!A319:A418,A322)</f>
+        <f>COUNTIF(History!A318:A418,A322)</f>
         <v>0</v>
       </c>
       <c r="G322" s="2" t="e">
@@ -35954,11 +36290,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E323" s="8">
-        <f>COUNTIF(History!A320:C419,A323)</f>
+        <f>COUNTIF(History!A319:C419,A323)</f>
         <v>0</v>
       </c>
       <c r="F323" s="8">
-        <f>COUNTIF(History!A320:A419,A323)</f>
+        <f>COUNTIF(History!A319:A419,A323)</f>
         <v>0</v>
       </c>
       <c r="G323" s="2" t="e">
@@ -36019,11 +36355,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E324" s="8">
-        <f>COUNTIF(History!A321:C420,A324)</f>
+        <f>COUNTIF(History!A320:C420,A324)</f>
         <v>0</v>
       </c>
       <c r="F324" s="8">
-        <f>COUNTIF(History!A321:A420,A324)</f>
+        <f>COUNTIF(History!A320:A420,A324)</f>
         <v>0</v>
       </c>
       <c r="G324" s="2" t="e">
@@ -36084,11 +36420,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E325" s="8">
-        <f>COUNTIF(History!A322:C421,A325)</f>
+        <f>COUNTIF(History!A321:C421,A325)</f>
         <v>0</v>
       </c>
       <c r="F325" s="8">
-        <f>COUNTIF(History!A322:A421,A325)</f>
+        <f>COUNTIF(History!A321:A421,A325)</f>
         <v>0</v>
       </c>
       <c r="G325" s="2" t="e">
@@ -36149,11 +36485,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E326" s="8">
-        <f>COUNTIF(History!A323:C422,A326)</f>
+        <f>COUNTIF(History!A322:C422,A326)</f>
         <v>0</v>
       </c>
       <c r="F326" s="8">
-        <f>COUNTIF(History!A323:A422,A326)</f>
+        <f>COUNTIF(History!A322:A422,A326)</f>
         <v>0</v>
       </c>
       <c r="G326" s="2" t="e">
@@ -36214,11 +36550,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E327" s="8">
-        <f>COUNTIF(History!A324:C423,A327)</f>
+        <f>COUNTIF(History!A323:C423,A327)</f>
         <v>0</v>
       </c>
       <c r="F327" s="8">
-        <f>COUNTIF(History!A324:A423,A327)</f>
+        <f>COUNTIF(History!A323:A423,A327)</f>
         <v>0</v>
       </c>
       <c r="G327" s="2" t="e">
@@ -36279,11 +36615,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E328" s="8">
-        <f>COUNTIF(History!A326:C425,A328)</f>
+        <f>COUNTIF(History!A325:C425,A328)</f>
         <v>0</v>
       </c>
       <c r="F328" s="8">
-        <f>COUNTIF(History!A326:A425,A328)</f>
+        <f>COUNTIF(History!A325:A425,A328)</f>
         <v>0</v>
       </c>
       <c r="G328" s="2" t="e">
@@ -36344,11 +36680,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E329" s="8">
-        <f>COUNTIF(History!A327:C426,A329)</f>
+        <f>COUNTIF(History!A326:C426,A329)</f>
         <v>0</v>
       </c>
       <c r="F329" s="8">
-        <f>COUNTIF(History!A327:A426,A329)</f>
+        <f>COUNTIF(History!A326:A426,A329)</f>
         <v>0</v>
       </c>
       <c r="G329" s="2" t="e">
@@ -36409,11 +36745,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E330" s="8">
-        <f>COUNTIF(History!A328:C427,A330)</f>
+        <f>COUNTIF(History!A327:C427,A330)</f>
         <v>0</v>
       </c>
       <c r="F330" s="8">
-        <f>COUNTIF(History!A328:A427,A330)</f>
+        <f>COUNTIF(History!A327:A427,A330)</f>
         <v>0</v>
       </c>
       <c r="G330" s="2" t="e">
@@ -36474,11 +36810,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E331" s="8">
-        <f>COUNTIF(History!A329:C428,A331)</f>
+        <f>COUNTIF(History!A328:C428,A331)</f>
         <v>0</v>
       </c>
       <c r="F331" s="8">
-        <f>COUNTIF(History!A329:A428,A331)</f>
+        <f>COUNTIF(History!A328:A428,A331)</f>
         <v>0</v>
       </c>
       <c r="G331" s="2" t="e">
@@ -36539,11 +36875,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E332" s="8">
-        <f>COUNTIF(History!A330:C429,A332)</f>
+        <f>COUNTIF(History!A329:C429,A332)</f>
         <v>0</v>
       </c>
       <c r="F332" s="8">
-        <f>COUNTIF(History!A330:A429,A332)</f>
+        <f>COUNTIF(History!A329:A429,A332)</f>
         <v>0</v>
       </c>
       <c r="G332" s="2" t="e">
@@ -36604,11 +36940,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E333" s="8">
-        <f>COUNTIF(History!A331:C430,A333)</f>
+        <f>COUNTIF(History!A330:C430,A333)</f>
         <v>0</v>
       </c>
       <c r="F333" s="8">
-        <f>COUNTIF(History!A331:A430,A333)</f>
+        <f>COUNTIF(History!A330:A430,A333)</f>
         <v>0</v>
       </c>
       <c r="G333" s="2" t="e">
@@ -44895,7 +45231,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44914,139 +45250,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>azumarill:31</v>
+        <v>azumarill:36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>azumarill:31,stunfisk_galarian:28</v>
+        <v>azumarill:36,stunfisk_galarian:28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8,shiftry:6</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9,shiftry:7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8,shiftry:6,meganium:3</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9,shiftry:7,sableye:1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8,shiftry:6,meganium:3,sableye:1</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9,shiftry:7,sableye:1,meganium:5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8,shiftry:6,meganium:3,sableye:1,scrafty:6</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9,shiftry:7,sableye:1,meganium:5,scrafty:6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8,shiftry:6,meganium:3,sableye:1,scrafty:6,medicham:3</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9,shiftry:7,sableye:1,meganium:5,scrafty:6,medicham:3</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8,shiftry:6,meganium:3,sableye:1,scrafty:6,medicham:3,drifblim:7</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9,shiftry:7,sableye:1,meganium:5,scrafty:6,medicham:3,tropius:7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8,shiftry:6,meganium:3,sableye:1,scrafty:6,medicham:3,drifblim:7,tropius:6</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9,shiftry:7,sableye:1,meganium:5,scrafty:6,medicham:3,tropius:7,drifblim:7</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8,shiftry:6,meganium:3,sableye:1,scrafty:6,medicham:3,drifblim:7,tropius:6,obstagoon:11</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9,shiftry:7,sableye:1,meganium:5,scrafty:6,medicham:3,tropius:7,drifblim:7,registeel:3</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>azumarill:31,stunfisk_galarian:28,skarmory:9,marowak_alolan:15,altaria:28,deoxys_defense:5,galvantula:16,swampert:25,abomasnow:18,bastiodon:18,machamp:9,toxicroak:11,hypno:7,victreebel:8,shiftry:6,meganium:3,sableye:1,scrafty:6,medicham:3,drifblim:7,tropius:6,obstagoon:11,umbreon:6</v>
+        <v>azumarill:36,stunfisk_galarian:28,skarmory:9,marowak_alolan:17,altaria:28,deoxys_defense:5,abomasnow:23,bastiodon:21,swampert:25,galvantula:16,toxicroak:11,machamp:10,hypno:7,victreebel:9,shiftry:7,sableye:1,meganium:5,scrafty:6,medicham:3,tropius:7,drifblim:7,registeel:3,obstagoon:11</v>
       </c>
     </row>
   </sheetData>
@@ -45060,7 +45396,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45076,145 +45412,145 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>azumarill:141</v>
+        <v>azumarill:150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>azumarill:141,stunfisk_galarian:92</v>
+        <v>azumarill:150,stunfisk_galarian:95</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21,meganium:20</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24,sableye:24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21,meganium:20,sableye:20</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24,sableye:24,meganium:22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21,meganium:20,sableye:20,scrafty:18</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24,sableye:24,meganium:22,scrafty:20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21,meganium:20,sableye:20,scrafty:18,medicham:18</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24,sableye:24,meganium:22,scrafty:20,medicham:20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21,meganium:20,sableye:20,scrafty:18,medicham:18,drifblim:17</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24,sableye:24,meganium:22,scrafty:20,medicham:20,tropius:19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21,meganium:20,sableye:20,scrafty:18,medicham:18,drifblim:17,tropius:17</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24,sableye:24,meganium:22,scrafty:20,medicham:20,tropius:19,drifblim:17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21,meganium:20,sableye:20,scrafty:18,medicham:18,drifblim:17,tropius:17,obstagoon:14</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24,sableye:24,meganium:22,scrafty:20,medicham:20,tropius:19,drifblim:17,registeel:15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!B24,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21,meganium:20,sableye:20,scrafty:18,medicham:18,drifblim:17,tropius:17,obstagoon:14,umbreon:14</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24,sableye:24,meganium:22,scrafty:20,medicham:20,tropius:19,drifblim:17,registeel:15,obstagoon:14</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!B25,)</f>
-        <v>azumarill:141,stunfisk_galarian:92,skarmory:56,marowak_alolan:47,altaria:44,deoxys_defense:41,galvantula:33,swampert:32,abomasnow:32,bastiodon:30,machamp:28,toxicroak:27,hypno:26,victreebel:22,shiftry:21,meganium:20,sableye:20,scrafty:18,medicham:18,drifblim:17,tropius:17,obstagoon:14,umbreon:14,registeel:14</v>
+        <v>azumarill:150,stunfisk_galarian:95,skarmory:61,marowak_alolan:53,altaria:45,deoxys_defense:42,abomasnow:38,bastiodon:34,swampert:33,galvantula:33,toxicroak:29,machamp:29,hypno:27,victreebel:25,shiftry:24,sableye:24,meganium:22,scrafty:20,medicham:20,tropius:19,drifblim:17,registeel:15,obstagoon:14,mew:14</v>
       </c>
     </row>
   </sheetData>
@@ -45228,7 +45564,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45244,145 +45580,145 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>azumarill:110</v>
+        <v>azumarill:114</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>azumarill:110,stunfisk_galarian:64</v>
+        <v>azumarill:114,stunfisk_galarian:67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15,meganium:17</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17,sableye:23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15,meganium:17,sableye:19</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17,sableye:23,meganium:17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15,meganium:17,sableye:19,scrafty:12</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17,sableye:23,meganium:17,scrafty:14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15,meganium:17,sableye:19,scrafty:12,medicham:15</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17,sableye:23,meganium:17,scrafty:14,medicham:17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15,meganium:17,sableye:19,scrafty:12,medicham:15,drifblim:10</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17,sableye:23,meganium:17,scrafty:14,medicham:17,tropius:12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15,meganium:17,sableye:19,scrafty:12,medicham:15,drifblim:10,tropius:11</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17,sableye:23,meganium:17,scrafty:14,medicham:17,tropius:12,drifblim:10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15,meganium:17,sableye:19,scrafty:12,medicham:15,drifblim:10,tropius:11,obstagoon:3</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17,sableye:23,meganium:17,scrafty:14,medicham:17,tropius:12,drifblim:10,registeel:12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!B24-Totals!C24)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15,meganium:17,sableye:19,scrafty:12,medicham:15,drifblim:10,tropius:11,obstagoon:3,umbreon:8</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17,sableye:23,meganium:17,scrafty:14,medicham:17,tropius:12,drifblim:10,registeel:12,obstagoon:3</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>CONCATENATE(A24, ",",Totals!A25, ":", Totals!B25-Totals!C25)</f>
-        <v>azumarill:110,stunfisk_galarian:64,skarmory:47,marowak_alolan:32,altaria:16,deoxys_defense:36,galvantula:17,swampert:7,abomasnow:14,bastiodon:12,machamp:19,toxicroak:16,hypno:19,victreebel:14,shiftry:15,meganium:17,sableye:19,scrafty:12,medicham:15,drifblim:10,tropius:11,obstagoon:3,umbreon:8,registeel:12</v>
+        <v>azumarill:114,stunfisk_galarian:67,skarmory:52,marowak_alolan:36,altaria:17,deoxys_defense:37,abomasnow:15,bastiodon:13,swampert:8,galvantula:17,toxicroak:18,machamp:19,hypno:20,victreebel:16,shiftry:17,sableye:23,meganium:17,scrafty:14,medicham:17,tropius:12,drifblim:10,registeel:12,obstagoon:3,mew:7</v>
       </c>
     </row>
   </sheetData>
